--- a/populate.xlsx
+++ b/populate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="249">
   <si>
     <t>item_id</t>
   </si>
@@ -772,6 +772,9 @@
   </si>
   <si>
     <t>likes</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -1122,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J101" sqref="J2:J101"/>
+    <sheetView tabSelected="1" topLeftCell="H81" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,11 +1206,11 @@
       </c>
       <c r="I2" s="6">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="str">
         <f t="shared" ref="J2:J65" ca="1" si="0">CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",F:F,"',",G:G,",",H:H,",",I:I,");")</f>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (1,'Expense Manager','App','Lifestyle','Andriod','2014-01-01',0,0,62);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (1,'Expense Manager','App','Lifestyle','Andriod','2014-01-01',0,0,43);</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1237,11 +1240,11 @@
       </c>
       <c r="I3" s="6">
         <f t="shared" ref="I3:I66" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (2,'EverNote','App','Productivity','iOS','2013-04-03',0.99,0,66);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (2,'EverNote','App','Productivity','iOS','2013-04-03',0.99,0,14);</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1257,6 +1260,9 @@
       <c r="D4" t="s">
         <v>40</v>
       </c>
+      <c r="E4" t="s">
+        <v>248</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
@@ -1268,11 +1274,11 @@
       </c>
       <c r="I4" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (3,'Scandal Season 1','TV','Thriller','','2014-01-02',20,6,60);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (3,'Scandal Season 1','TV','Thriller','None','2014-01-02',20,6,26);</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1288,6 +1294,9 @@
       <c r="D5" t="s">
         <v>41</v>
       </c>
+      <c r="E5" t="s">
+        <v>248</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
@@ -1299,11 +1308,11 @@
       </c>
       <c r="I5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (4,'Suits Season 1','TV','Drama','','2014-01-03',20,9,23);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (4,'Suits Season 1','TV','Drama','None','2014-01-03',20,9,45);</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1333,11 +1342,11 @@
       </c>
       <c r="I6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (5,'Brave Frontier','Game','RPG','Andriod','2013-02-23',0,0,83);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (5,'Brave Frontier','Game','RPG','Andriod','2013-02-23',0,0,94);</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1367,11 +1376,11 @@
       </c>
       <c r="I7" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="J7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (6,'The Hobbit: An Unexpected Journey','Movie','Fantasy','DVD','2012-12-15',30,13,88);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (6,'The Hobbit: An Unexpected Journey','Movie','Fantasy','DVD','2012-12-15',30,13,66);</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1392,11 +1401,11 @@
       </c>
       <c r="F8" s="9">
         <f ca="1">RANDBETWEEN(DATE(2013, 1, 1),DATE(2015, 3, 1))</f>
-        <v>41491</v>
+        <v>41361</v>
       </c>
       <c r="G8" s="5">
         <f ca="1">RANDBETWEEN(5, 60)</f>
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H8" s="5">
         <f ca="1">RANDBETWEEN(0.01, 4.99)</f>
@@ -1404,11 +1413,11 @@
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (7,'Memorado','App','Lifestyle','iOS','41491',43,4,37);</v>
+        <f ca="1">CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",TEXT(F:F,"yyyy-mm-dd"),"',",G:G,",",H:H,",",I:I,");")</f>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (7,'Memorado','App','Lifestyle','iOS','2013-03-28',33,4,83);</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1429,23 +1438,23 @@
       </c>
       <c r="F9" s="9">
         <f t="shared" ref="F9:F72" ca="1" si="2">RANDBETWEEN(DATE(2013, 1, 1),DATE(2015, 3, 1))</f>
-        <v>41281</v>
+        <v>41446</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" ref="G9:G72" ca="1" si="3">RANDBETWEEN(0.01, 60)</f>
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ref="H9:H72" ca="1" si="4">RANDBETWEEN(0.01, 4.99)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (8,'Learn Spanish, English, French','App','Productivity','Andriod','41281',7,3,94);</v>
+        <f t="shared" ref="J9:J72" ca="1" si="5">CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",TEXT(F:F,"yyyy-mm-dd"),"',",G:G,",",H:H,",",I:I,");")</f>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (8,'Learn Spanish, English, French','App','Productivity','Andriod','2013-06-21',50,4,86);</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1466,23 +1475,23 @@
       </c>
       <c r="F10" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41611</v>
+        <v>41323</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (9,'DIY Human Body','App','Lifestyle','PC','41611',29,4,63);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (9,'DIY Human Body','App','Lifestyle','PC','2013-02-18',31,1,75);</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1503,23 +1512,23 @@
       </c>
       <c r="F11" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41676</v>
+        <v>41957</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (10,'RefMe','App','Productivity','iOS','41676',48,2,49);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (10,'RefMe','App','Productivity','iOS','2014-11-14',52,4,61);</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1540,23 +1549,23 @@
       </c>
       <c r="F12" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41737</v>
+        <v>41796</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (11,'Duolingo','App','Lifestyle','Andriod','41737',50,4,3);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (11,'Duolingo','App','Lifestyle','Andriod','2014-06-06',9,2,26);</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1577,23 +1586,23 @@
       </c>
       <c r="F13" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41407</v>
+        <v>41700</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (12,'Peak - Brain Training','App','Productivity','PC','41407',23,1,21);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (12,'Peak - Brain Training','App','Productivity','PC','2014-03-02',29,3,58);</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1614,23 +1623,23 @@
       </c>
       <c r="F14" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41480</v>
+        <v>41837</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (13,'IELTS 1001 ways','App','Lifestyle','iOS','41480',11,2,70);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (13,'IELTS 1001 ways','App','Lifestyle','iOS','2014-07-17',13,1,89);</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1651,23 +1660,23 @@
       </c>
       <c r="F15" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41886</v>
+        <v>41795</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (14,'Explain Everything','App','Productivity','Andriod','41886',60,1,17);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (14,'Explain Everything','App','Productivity','Andriod','2014-06-05',1,2,28);</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1688,23 +1697,23 @@
       </c>
       <c r="F16" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41916</v>
+        <v>41545</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="J16" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (15,'Lumosity Mobile','App','Lifestyle','PC','41916',14,4,12);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (15,'Lumosity Mobile','App','Lifestyle','PC','2013-09-28',40,3,44);</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1725,23 +1734,23 @@
       </c>
       <c r="F17" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41881</v>
+        <v>41890</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-      <c r="H17" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
       <c r="I17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (16,'PhotoMath','App','Productivity','iOS','41881',4,2,42);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (16,'PhotoMath','App','Productivity','iOS','2014-09-08',52,4,63);</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1762,23 +1771,23 @@
       </c>
       <c r="F18" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41387</v>
+        <v>41950</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="J18" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (17,'Molecules by Theodore Gray','App','Lifestyle','Andriod','41387',37,4,1);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (17,'Molecules by Theodore Gray','App','Lifestyle','Andriod','2014-11-07',46,3,68);</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1799,11 +1808,11 @@
       </c>
       <c r="F19" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41950</v>
+        <v>41621</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -1811,11 +1820,11 @@
       </c>
       <c r="I19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J19" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (18,'LearnEnglish Kids: Playtime','App','Productivity','PC','41950',30,1,4);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (18,'LearnEnglish Kids: Playtime','App','Productivity','PC','2013-12-13',24,1,17);</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1836,11 +1845,11 @@
       </c>
       <c r="F20" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42013</v>
+        <v>41566</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -1848,11 +1857,11 @@
       </c>
       <c r="I20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (19,'Night Sky Pro','App','Lifestyle','iOS','42013',18,3,69);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (19,'Night Sky Pro','App','Lifestyle','iOS','2013-10-19',49,3,11);</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1873,23 +1882,23 @@
       </c>
       <c r="F21" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42044</v>
+        <v>41467</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="J21" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (20,'Collins English Dictionary','App','Productivity','Andriod','42044',45,1,79);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (20,'Collins English Dictionary','App','Productivity','Andriod','2013-07-12',22,4,5);</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1905,25 +1914,28 @@
       <c r="D22" t="s">
         <v>40</v>
       </c>
+      <c r="E22" t="s">
+        <v>248</v>
+      </c>
       <c r="F22" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41416</v>
+        <v>41362</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="J22" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (21,'Game of Thrones','TV','Thriller','','41416',6,2,79);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (21,'Game of Thrones','TV','Thriller','None','2013-03-29',24,1,60);</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1939,25 +1951,28 @@
       <c r="D23" t="s">
         <v>41</v>
       </c>
+      <c r="E23" t="s">
+        <v>248</v>
+      </c>
       <c r="F23" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41594</v>
+        <v>41541</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J23" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (22,'Arrow','TV','Drama','','41594',38,1,17);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (22,'Arrow','TV','Drama','None','2013-09-24',27,4,18);</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1973,13 +1988,16 @@
       <c r="D24" t="s">
         <v>149</v>
       </c>
+      <c r="E24" t="s">
+        <v>248</v>
+      </c>
       <c r="F24" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41347</v>
+        <v>41497</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -1987,11 +2005,11 @@
       </c>
       <c r="I24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J24" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (23,'Marvel's Agents Of S.H.I.E.L.D','TV','Horror','','41347',47,1,57);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (23,'Marvel's Agents Of S.H.I.E.L.D','TV','Horror','None','2013-08-11',24,1,45);</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2007,25 +2025,28 @@
       <c r="D25" t="s">
         <v>150</v>
       </c>
+      <c r="E25" t="s">
+        <v>248</v>
+      </c>
       <c r="F25" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41802</v>
+        <v>41283</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J25" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (24,'Grey's Anatomy','TV','Science','','41802',13,3,19);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (24,'Grey's Anatomy','TV','Science','None','2013-01-09',45,4,88);</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2041,25 +2062,28 @@
       <c r="D26" t="s">
         <v>40</v>
       </c>
+      <c r="E26" t="s">
+        <v>248</v>
+      </c>
       <c r="F26" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41549</v>
+        <v>41512</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="J26" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (25,'Coronation Street','TV','Thriller','','41549',16,1,57);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (25,'Coronation Street','TV','Thriller','None','2013-08-26',31,2,20);</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2075,13 +2099,16 @@
       <c r="D27" t="s">
         <v>41</v>
       </c>
+      <c r="E27" t="s">
+        <v>248</v>
+      </c>
       <c r="F27" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41295</v>
+        <v>41946</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2089,11 +2116,11 @@
       </c>
       <c r="I27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="J27" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (26,'The Vampire Diaries','TV','Drama','','41295',35,3,61);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (26,'The Vampire Diaries','TV','Drama','None','2014-11-03',45,3,19);</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2109,25 +2136,28 @@
       <c r="D28" t="s">
         <v>149</v>
       </c>
+      <c r="E28" t="s">
+        <v>248</v>
+      </c>
       <c r="F28" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41308</v>
+        <v>41721</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J28" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (27,'The Big Bang Theory','TV','Horror','','41308',22,3,45);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (27,'The Big Bang Theory','TV','Horror','None','2014-03-23',45,2,39);</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2143,25 +2173,28 @@
       <c r="D29" t="s">
         <v>150</v>
       </c>
+      <c r="E29" t="s">
+        <v>248</v>
+      </c>
       <c r="F29" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42008</v>
+        <v>41296</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J29" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (28,'Supernatural','TV','Science','','42008',8,4,77);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (28,'Supernatural','TV','Science','None','2013-01-22',9,3,70);</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2177,13 +2210,16 @@
       <c r="D30" t="s">
         <v>40</v>
       </c>
+      <c r="E30" t="s">
+        <v>248</v>
+      </c>
       <c r="F30" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41973</v>
+        <v>41342</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2191,11 +2227,11 @@
       </c>
       <c r="I30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="J30" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (29,'How I Met Your Mother','TV','Thriller','','41973',49,3,68);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (29,'How I Met Your Mother','TV','Thriller','None','2013-03-09',46,3,35);</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2211,25 +2247,28 @@
       <c r="D31" t="s">
         <v>41</v>
       </c>
+      <c r="E31" t="s">
+        <v>248</v>
+      </c>
       <c r="F31" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41904</v>
+        <v>41505</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="J31" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (30,'Once Upon a Time','TV','Drama','','41904',12,4,71);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (30,'Once Upon a Time','TV','Drama','None','2013-08-19',13,3,41);</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2245,25 +2284,28 @@
       <c r="D32" t="s">
         <v>149</v>
       </c>
+      <c r="E32" t="s">
+        <v>248</v>
+      </c>
       <c r="F32" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41893</v>
+        <v>41777</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="J32" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (31,'Criminal Minds','TV','Horror','','41893',49,1,55);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (31,'Criminal Minds','TV','Horror','None','2014-05-18',23,3,88);</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2279,25 +2321,28 @@
       <c r="D33" t="s">
         <v>150</v>
       </c>
+      <c r="E33" t="s">
+        <v>248</v>
+      </c>
       <c r="F33" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41994</v>
+        <v>42054</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J33" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (32,'The Blacklist','TV','Science','','41994',20,2,27);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (32,'The Blacklist','TV','Science','None','2015-02-19',42,3,15);</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2313,25 +2358,28 @@
       <c r="D34" t="s">
         <v>40</v>
       </c>
+      <c r="E34" t="s">
+        <v>248</v>
+      </c>
       <c r="F34" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41527</v>
+        <v>41277</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="J34" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (33,'The 100','TV','Thriller','','41527',43,4,79);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (33,'The 100','TV','Thriller','None','2013-01-03',14,2,29);</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2347,25 +2395,28 @@
       <c r="D35" t="s">
         <v>41</v>
       </c>
+      <c r="E35" t="s">
+        <v>248</v>
+      </c>
       <c r="F35" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41819</v>
+        <v>41709</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="J35" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (34,'The Mentalist','TV','Drama','','41819',22,2,14);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (34,'The Mentalist','TV','Drama','None','2014-03-11',3,1,91);</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2381,25 +2432,28 @@
       <c r="D36" t="s">
         <v>149</v>
       </c>
+      <c r="E36" t="s">
+        <v>248</v>
+      </c>
       <c r="F36" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41497</v>
+        <v>41885</v>
       </c>
       <c r="G36" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="I36" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
       <c r="J36" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (35,'The Good Wife','TV','Horror','','41497',29,3,21);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (35,'The Good Wife','TV','Horror','None','2014-09-03',19,2,3);</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2415,25 +2469,28 @@
       <c r="D37" t="s">
         <v>150</v>
       </c>
+      <c r="E37" t="s">
+        <v>248</v>
+      </c>
       <c r="F37" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41615</v>
+        <v>41486</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="J37" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (36,'NCIS','TV','Science','','41615',51,1,39);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (36,'NCIS','TV','Science','None','2013-07-31',29,3,64);</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2449,25 +2506,28 @@
       <c r="D38" t="s">
         <v>40</v>
       </c>
+      <c r="E38" t="s">
+        <v>248</v>
+      </c>
       <c r="F38" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41924</v>
+        <v>41655</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J38" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (37,'Vikings','TV','Thriller','','41924',32,1,61);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (37,'Vikings','TV','Thriller','None','2014-01-16',15,2,62);</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2483,25 +2543,28 @@
       <c r="D39" t="s">
         <v>41</v>
       </c>
+      <c r="E39" t="s">
+        <v>248</v>
+      </c>
       <c r="F39" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41831</v>
+        <v>41937</v>
       </c>
       <c r="G39" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="J39" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (38,'Castle','TV','Drama','','41831',31,3,85);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (38,'Castle','TV','Drama','None','2014-10-25',23,4,57);</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2517,25 +2580,28 @@
       <c r="D40" t="s">
         <v>149</v>
       </c>
+      <c r="E40" t="s">
+        <v>248</v>
+      </c>
       <c r="F40" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41767</v>
+        <v>41866</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="H40" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
       <c r="I40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J40" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (39,'Revenge','TV','Horror','','41767',3,4,84);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (39,'Revenge','TV','Horror','None','2014-08-15',8,3,71);</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2551,13 +2617,16 @@
       <c r="D41" t="s">
         <v>150</v>
       </c>
+      <c r="E41" t="s">
+        <v>248</v>
+      </c>
       <c r="F41" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41366</v>
+        <v>41818</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="H41" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2565,11 +2634,11 @@
       </c>
       <c r="I41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="J41" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (40,'Bones','TV','Science','','41366',52,3,51);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (40,'Bones','TV','Science','None','2014-06-28',25,3,92);</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2590,11 +2659,11 @@
       </c>
       <c r="F42" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42002</v>
+        <v>41447</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2602,11 +2671,11 @@
       </c>
       <c r="I42" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="J42" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (41,'Final Fantasy XIII','Game','null','PC','42002',56,3,97);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (41,'Final Fantasy XIII','Game','null','PC','2013-06-22',55,3,66);</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2627,11 +2696,11 @@
       </c>
       <c r="F43" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41730</v>
+        <v>41956</v>
       </c>
       <c r="G43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H43" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2639,11 +2708,11 @@
       </c>
       <c r="I43" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="J43" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (42,'Final Fantasy XIII-2','Game','null','PC','41730',18,1,27);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (42,'Final Fantasy XIII-2','Game','null','PC','2014-11-13',29,1,71);</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2664,23 +2733,23 @@
       </c>
       <c r="F44" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41402</v>
+        <v>42055</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="J44" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (43,'Final Fantasy: Lightning Returns','Game','null','PC','41402',43,2,13);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (43,'Final Fantasy: Lightning Returns','Game','null','PC','2015-02-20',2,3,36);</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2701,23 +2770,23 @@
       </c>
       <c r="F45" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41899</v>
+        <v>41428</v>
       </c>
       <c r="G45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H45" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="J45" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (44,'Clash of Clans','Game','null','iOS','41899',36,1,82);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (44,'Clash of Clans','Game','null','iOS','2013-06-03',39,3,55);</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2738,23 +2807,23 @@
       </c>
       <c r="F46" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42054</v>
+        <v>41902</v>
       </c>
       <c r="G46" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="J46" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (45,'Angry Birds','Game','null','Andriod','42054',10,3,81);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (45,'Angry Birds','Game','null','Andriod','2014-09-20',46,4,26);</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2775,11 +2844,11 @@
       </c>
       <c r="F47" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41300</v>
+        <v>41894</v>
       </c>
       <c r="G47" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H47" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2787,11 +2856,11 @@
       </c>
       <c r="I47" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J47" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (46,'Defense of the Ancients','Game','null','PC','41300',19,2,29);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (46,'Defense of the Ancients','Game','null','PC','2014-09-12',22,2,31);</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2812,23 +2881,23 @@
       </c>
       <c r="F48" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41762</v>
+        <v>42004</v>
       </c>
       <c r="G48" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="H48" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I48" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="J48" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (47,'Card Craawl','Game','null','iOS','41762',46,4,3);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (47,'Card Craawl','Game','null','iOS','2014-12-31',21,2,77);</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2849,23 +2918,23 @@
       </c>
       <c r="F49" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41371</v>
+        <v>41550</v>
       </c>
       <c r="G49" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="H49" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="J49" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (48,'Word Shark','Game','null','Andriod','41371',3,4,44);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (48,'Word Shark','Game','null','Andriod','2013-10-03',35,2,93);</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2886,23 +2955,23 @@
       </c>
       <c r="F50" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41990</v>
+        <v>41348</v>
       </c>
       <c r="G50" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H50" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="J50" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (49,'Shadow of Mordor','Game','null','PC','41990',50,4,68);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (49,'Shadow of Mordor','Game','null','PC','2013-03-15',54,3,36);</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2923,23 +2992,23 @@
       </c>
       <c r="F51" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41825</v>
+        <v>41337</v>
       </c>
       <c r="G51" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H51" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J51" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (50,'Dotello','Game','null','iOS','41825',30,3,85);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (50,'Dotello','Game','null','iOS','2013-03-04',20,1,2);</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2960,11 +3029,11 @@
       </c>
       <c r="F52" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41483</v>
+        <v>41400</v>
       </c>
       <c r="G52" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H52" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2972,11 +3041,11 @@
       </c>
       <c r="I52" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="J52" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (51,'Hero Sky','Game','null','Andriod','41483',14,3,97);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (51,'Hero Sky','Game','null','Andriod','2013-05-06',42,3,66);</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2997,23 +3066,23 @@
       </c>
       <c r="F53" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42034</v>
+        <v>41746</v>
       </c>
       <c r="G53" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="H53" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I53" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="J53" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (52,'Green the Planet','Game','null','PC','42034',44,3,27);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (52,'Green the Planet','Game','null','PC','2014-04-17',7,4,63);</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3034,23 +3103,23 @@
       </c>
       <c r="F54" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41961</v>
+        <v>41551</v>
       </c>
       <c r="G54" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H54" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I54" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J54" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (53,'Paper Monsters Recut','Game','null','iOS','41961',10,2,56);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (53,'Paper Monsters Recut','Game','null','iOS','2013-10-04',6,3,42);</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3071,23 +3140,23 @@
       </c>
       <c r="F55" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41448</v>
+        <v>41608</v>
       </c>
       <c r="G55" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H55" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J55" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (54,'rop','Game','null','Andriod','41448',51,1,63);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (54,'rop','Game','null','Andriod','2013-11-30',11,2,82);</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3108,23 +3177,23 @@
       </c>
       <c r="F56" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42019</v>
+        <v>41529</v>
       </c>
       <c r="G56" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H56" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I56" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="J56" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (55,'Sick Bricks','Game','null','PC','42019',55,2,70);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (55,'Sick Bricks','Game','null','PC','2013-09-12',50,3,53);</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3145,23 +3214,23 @@
       </c>
       <c r="F57" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42028</v>
+        <v>41948</v>
       </c>
       <c r="G57" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H57" s="5">
         <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I57" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="I57" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
-      </c>
       <c r="J57" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (56,'Contract Killer','Game','null','iOS','42028',7,4,31);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (56,'Contract Killer','Game','null','iOS','2014-11-05',25,2,4);</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3182,23 +3251,23 @@
       </c>
       <c r="F58" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41752</v>
+        <v>42055</v>
       </c>
       <c r="G58" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="H58" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="J58" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (57,'Bejewel','Game','null','Andriod','41752',9,1,74);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (57,'Bejewel','Game','null','Andriod','2015-02-20',45,2,26);</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3219,11 +3288,11 @@
       </c>
       <c r="F59" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41309</v>
+        <v>42037</v>
       </c>
       <c r="G59" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="H59" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -3231,11 +3300,11 @@
       </c>
       <c r="I59" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (58,'Call Of Duty: Mordern Warfare','Game','null','PC','41309',6,4,100);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (58,'Call Of Duty: Mordern Warfare','Game','null','PC','2015-02-02',46,4,0);</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3256,11 +3325,11 @@
       </c>
       <c r="F60" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41441</v>
+        <v>41609</v>
       </c>
       <c r="G60" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="H60" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -3268,11 +3337,11 @@
       </c>
       <c r="I60" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="J60" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (59,'Valkyrie Crusade','Game','null','iOS','41441',15,1,83);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (59,'Valkyrie Crusade','Game','null','iOS','2013-12-01',45,1,6);</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3293,23 +3362,23 @@
       </c>
       <c r="F61" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41940</v>
+        <v>41963</v>
       </c>
       <c r="G61" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H61" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="J61" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (60,'Amazons Board Games','Game','null','Andriod','41940',28,3,40);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (60,'Amazons Board Games','Game','null','Andriod','2014-11-20',41,1,98);</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3330,11 +3399,11 @@
       </c>
       <c r="F62" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41519</v>
+        <v>41401</v>
       </c>
       <c r="G62" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="H62" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -3342,11 +3411,11 @@
       </c>
       <c r="I62" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J62" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (61,'Cinderella','Movie','Thriller','DVD','41519',50,3,14);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (61,'Cinderella','Movie','Thriller','DVD','2013-05-07',9,3,32);</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3367,23 +3436,23 @@
       </c>
       <c r="F63" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41482</v>
+        <v>41794</v>
       </c>
       <c r="G63" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H63" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="J63" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (62,'The Spongebob Movie','Movie','Horror','DVD','41482',19,1,88);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (62,'The Spongebob Movie','Movie','Horror','DVD','2014-06-04',50,3,72);</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3404,23 +3473,23 @@
       </c>
       <c r="F64" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41997</v>
+        <v>42041</v>
       </c>
       <c r="G64" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H64" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I64" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J64" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (63,'Interstellar','Movie','Popular','DVD','41997',20,4,6);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (63,'Interstellar','Movie','Popular','DVD','2015-02-06',27,1,26);</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3441,23 +3510,23 @@
       </c>
       <c r="F65" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41527</v>
+        <v>41358</v>
       </c>
       <c r="G65" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="H65" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I65" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="J65" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (64,'Insurgent','Movie','Romance','DVD','41527',24,2,1);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (64,'Insurgent','Movie','Romance','DVD','2013-03-25',2,4,70);</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3478,23 +3547,23 @@
       </c>
       <c r="F66" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41939</v>
+        <v>41856</v>
       </c>
       <c r="G66" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H66" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I66" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="J66" s="2" t="str">
-        <f t="shared" ref="J66:J101" ca="1" si="5">CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",F:F,"',",G:G,",",H:H,",",I:I,");")</f>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (65,'Divergent','Movie','Thriller','DVD','41939',40,4,27);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (65,'Divergent','Movie','Thriller','DVD','2014-08-05',32,2,45);</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3515,11 +3584,11 @@
       </c>
       <c r="F67" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41771</v>
+        <v>41694</v>
       </c>
       <c r="G67" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H67" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -3527,11 +3596,11 @@
       </c>
       <c r="I67" s="6">
         <f t="shared" ref="I67:I101" ca="1" si="6">RANDBETWEEN(0,100)</f>
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="J67" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (66,'ZhongKui','Movie','Horror','DVD','41771',52,4,31);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (66,'ZhongKui','Movie','Horror','DVD','2014-02-24',19,4,90);</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3552,23 +3621,23 @@
       </c>
       <c r="F68" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41776</v>
+        <v>42019</v>
       </c>
       <c r="G68" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="H68" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="J68" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (67,'Unfinished Business','Movie','Popular','DVD','41776',56,3,72);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (67,'Unfinished Business','Movie','Popular','DVD','2015-01-15',20,1,18);</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3589,23 +3658,23 @@
       </c>
       <c r="F69" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41711</v>
+        <v>41430</v>
       </c>
       <c r="G69" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H69" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="J69" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (68,'Fashion King','Movie','Romance','DVD','41711',14,2,47);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (68,'Fashion King','Movie','Romance','DVD','2013-06-05',19,1,75);</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3626,23 +3695,23 @@
       </c>
       <c r="F70" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41601</v>
+        <v>41867</v>
       </c>
       <c r="G70" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H70" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="J70" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (69,'Barbie in Princess Power','Movie','Thriller','DVD','41601',58,1,35);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (69,'Barbie in Princess Power','Movie','Thriller','DVD','2014-08-16',37,2,80);</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3663,23 +3732,23 @@
       </c>
       <c r="F71" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42007</v>
+        <v>41927</v>
       </c>
       <c r="G71" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H71" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J71" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (70,'Kingsman: The Secret Service','Movie','Horror','DVD','42007',14,3,56);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (70,'Kingsman: The Secret Service','Movie','Horror','DVD','2014-10-15',11,1,64);</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3700,23 +3769,23 @@
       </c>
       <c r="F72" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41525</v>
+        <v>41803</v>
       </c>
       <c r="G72" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H72" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J72" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (71,'Fifty Shades of Grey','Movie','Popular','DVD','41525',25,2,52);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (71,'Fifty Shades of Grey','Movie','Popular','DVD','2014-06-13',47,1,14);</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3737,23 +3806,23 @@
       </c>
       <c r="F73" s="9">
         <f t="shared" ref="F73:F101" ca="1" si="7">RANDBETWEEN(DATE(2013, 1, 1),DATE(2015, 3, 1))</f>
-        <v>42016</v>
+        <v>41401</v>
       </c>
       <c r="G73" s="5">
         <f t="shared" ref="G73:G101" ca="1" si="8">RANDBETWEEN(0.01, 60)</f>
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H73" s="5">
         <f t="shared" ref="H73:H101" ca="1" si="9">RANDBETWEEN(0.01, 4.99)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I73" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="J73" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (72,'Frozen','Movie','Romance','DVD','42016',51,4,28);</v>
+        <f t="shared" ref="J73:J101" ca="1" si="10">CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",TEXT(F:F,"yyyy-mm-dd"),"',",G:G,",",H:H,",",I:I,");")</f>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (72,'Frozen','Movie','Romance','DVD','2013-05-07',14,3,88);</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3774,11 +3843,11 @@
       </c>
       <c r="F74" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41617</v>
+        <v>41484</v>
       </c>
       <c r="G74" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="H74" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -3786,11 +3855,11 @@
       </c>
       <c r="I74" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="J74" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (73,'Asterix','Movie','Thriller','DVD','41617',26,1,51);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (73,'Asterix','Movie','Thriller','DVD','2013-07-29',53,1,25);</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3811,23 +3880,23 @@
       </c>
       <c r="F75" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>42036</v>
+        <v>41406</v>
       </c>
       <c r="G75" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H75" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="J75" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (74,'Chappie','Movie','Horror','DVD','42036',16,1,21);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (74,'Chappie','Movie','Horror','DVD','2013-05-12',28,2,52);</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3848,23 +3917,23 @@
       </c>
       <c r="F76" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41874</v>
+        <v>42046</v>
       </c>
       <c r="G76" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="H76" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I76" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="J76" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (75,'Run All Night','Movie','Popular','DVD','41874',26,1,69);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (75,'Run All Night','Movie','Popular','DVD','2015-02-11',58,4,86);</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3885,23 +3954,23 @@
       </c>
       <c r="F77" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41432</v>
+        <v>41856</v>
       </c>
       <c r="G77" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="H77" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I77" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="J77" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (76,'Truimph In the Skies','Movie','Romance','DVD','41432',12,4,71);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (76,'Truimph In the Skies','Movie','Romance','DVD','2014-08-05',51,3,33);</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3922,23 +3991,23 @@
       </c>
       <c r="F78" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41831</v>
+        <v>41345</v>
       </c>
       <c r="G78" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H78" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (77,'King of Mahjong','Movie','Thriller','DVD','41831',41,1,16);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (77,'King of Mahjong','Movie','Thriller','DVD','2013-03-12',16,3,90);</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3959,23 +4028,23 @@
       </c>
       <c r="F79" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41732</v>
+        <v>41442</v>
       </c>
       <c r="G79" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="H79" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I79" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J79" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (78,'Fireman','Movie','Horror','DVD','41732',23,2,66);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (78,'Fireman','Movie','Horror','DVD','2013-06-17',53,3,70);</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3996,23 +4065,23 @@
       </c>
       <c r="F80" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41395</v>
+        <v>41928</v>
       </c>
       <c r="G80" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H80" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J80" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (79,'Shaun The Sheep','Movie','Popular','DVD','41395',49,1,28);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (79,'Shaun The Sheep','Movie','Popular','DVD','2014-10-16',50,3,17);</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4033,23 +4102,23 @@
       </c>
       <c r="F81" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41950</v>
+        <v>41964</v>
       </c>
       <c r="G81" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="H81" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I81" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J81" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (80,'From Vegas To Macau','Movie','Romance','DVD','41950',1,2,62);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (80,'From Vegas To Macau','Movie','Romance','DVD','2014-11-21',42,4,75);</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4070,11 +4139,11 @@
       </c>
       <c r="F82" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41375</v>
+        <v>41301</v>
       </c>
       <c r="G82" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="H82" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4082,11 +4151,11 @@
       </c>
       <c r="I82" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J82" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (81,'Microsoft oneNote for iPhone','App','Lifestyle','iOS','41375',31,3,89);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (81,'Microsoft oneNote for iPhone','App','Lifestyle','iOS','2013-01-27',9,3,19);</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4107,23 +4176,23 @@
       </c>
       <c r="F83" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41381</v>
+        <v>41718</v>
       </c>
       <c r="G83" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H83" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I83" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="J83" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (82,'EverNote','App','Productivity','Andriod','41381',9,4,90);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (82,'EverNote','App','Productivity','Andriod','2014-03-20',7,2,3);</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4144,11 +4213,11 @@
       </c>
       <c r="F84" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41976</v>
+        <v>41320</v>
       </c>
       <c r="G84" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H84" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4156,11 +4225,11 @@
       </c>
       <c r="I84" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="J84" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (83,'Post It Plus','App','Lifestyle','PC','41976',28,4,89);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (83,'Post It Plus','App','Lifestyle','PC','2013-02-15',32,4,4);</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4181,23 +4250,23 @@
       </c>
       <c r="F85" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41345</v>
+        <v>41915</v>
       </c>
       <c r="G85" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H85" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I85" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J85" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (84,'Bosimize','App','Productivity','iOS','41345',50,2,90);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (84,'Bosimize','App','Productivity','iOS','2014-10-03',26,4,82);</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4218,7 +4287,7 @@
       </c>
       <c r="F86" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41998</v>
+        <v>41988</v>
       </c>
       <c r="G86" s="5">
         <f t="shared" ca="1" si="8"/>
@@ -4226,15 +4295,15 @@
       </c>
       <c r="H86" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J86" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (85,'Ginger KeyBoard: Better Themes','App','Lifestyle','Andriod','41998',22,2,100);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (85,'Ginger KeyBoard: Better Themes','App','Lifestyle','Andriod','2014-12-15',22,1,95);</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4255,11 +4324,11 @@
       </c>
       <c r="F87" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41658</v>
+        <v>41566</v>
       </c>
       <c r="G87" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="H87" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4267,11 +4336,11 @@
       </c>
       <c r="I87" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J87" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (86,'Notepad+','App','Productivity','PC','41658',43,4,91);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (86,'Notepad+','App','Productivity','PC','2013-10-19',3,4,98);</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4292,23 +4361,23 @@
       </c>
       <c r="F88" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41893</v>
+        <v>41918</v>
       </c>
       <c r="G88" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="H88" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I88" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="J88" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (87,'ByWord','App','Lifestyle','iOS','41893',46,1,88);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (87,'ByWord','App','Lifestyle','iOS','2014-10-06',21,4,7);</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -4329,7 +4398,7 @@
       </c>
       <c r="F89" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41276</v>
+        <v>41711</v>
       </c>
       <c r="G89" s="5">
         <f t="shared" ca="1" si="8"/>
@@ -4341,11 +4410,11 @@
       </c>
       <c r="I89" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J89" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (88,'Daedalus Touch','App','Productivity','Andriod','41276',49,1,60);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (88,'Daedalus Touch','App','Productivity','Andriod','2014-03-13',49,1,48);</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4366,23 +4435,23 @@
       </c>
       <c r="F90" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41851</v>
+        <v>41867</v>
       </c>
       <c r="G90" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H90" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I90" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="J90" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (89,'Notability','App','Lifestyle','PC','41851',41,4,62);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (89,'Notability','App','Lifestyle','PC','2014-08-16',38,1,19);</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4403,23 +4472,23 @@
       </c>
       <c r="F91" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41609</v>
+        <v>41542</v>
       </c>
       <c r="G91" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H91" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J91" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (90,'GoodNotes','App','Productivity','iOS','41609',40,3,20);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (90,'GoodNotes','App','Productivity','iOS','2013-09-25',33,2,4);</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -4440,23 +4509,23 @@
       </c>
       <c r="F92" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41783</v>
+        <v>41386</v>
       </c>
       <c r="G92" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H92" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I92" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J92" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (91,'FetchNotes','App','Lifestyle','Andriod','41783',36,4,39);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (91,'FetchNotes','App','Lifestyle','Andriod','2013-04-22',55,2,44);</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -4477,23 +4546,23 @@
       </c>
       <c r="F93" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41738</v>
+        <v>41908</v>
       </c>
       <c r="G93" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="H93" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I93" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J93" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (92,'1Writer','App','Productivity','PC','41738',42,4,0);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (92,'1Writer','App','Productivity','PC','2014-09-26',18,2,68);</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -4514,11 +4583,11 @@
       </c>
       <c r="F94" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41396</v>
+        <v>41320</v>
       </c>
       <c r="G94" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H94" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4526,11 +4595,11 @@
       </c>
       <c r="I94" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J94" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (93,'SwiftKey','App','Lifestyle','iOS','41396',34,2,58);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (93,'SwiftKey','App','Lifestyle','iOS','2013-02-15',39,2,7);</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -4551,11 +4620,11 @@
       </c>
       <c r="F95" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41830</v>
+        <v>41505</v>
       </c>
       <c r="G95" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H95" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4563,11 +4632,11 @@
       </c>
       <c r="I95" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J95" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (94,'WordBoard','App','Productivity','Andriod','41830',48,3,40);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (94,'WordBoard','App','Productivity','Andriod','2013-08-19',30,3,73);</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -4588,23 +4657,23 @@
       </c>
       <c r="F96" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41585</v>
+        <v>41935</v>
       </c>
       <c r="G96" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H96" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I96" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="J96" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (95,'Christmas Keyboard','App','Lifestyle','iOS','41585',32,2,71);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (95,'Christmas Keyboard','App','Lifestyle','iOS','2014-10-23',35,4,89);</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -4625,11 +4694,11 @@
       </c>
       <c r="F97" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41569</v>
+        <v>41513</v>
       </c>
       <c r="G97" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H97" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4637,11 +4706,11 @@
       </c>
       <c r="I97" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J97" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (96,'InkBoard','App','Productivity','Andriod','41569',37,3,67);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (96,'InkBoard','App','Productivity','Andriod','2013-08-27',22,3,74);</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -4662,11 +4731,11 @@
       </c>
       <c r="F98" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41501</v>
+        <v>41659</v>
       </c>
       <c r="G98" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H98" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4674,11 +4743,11 @@
       </c>
       <c r="I98" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="J98" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (97,'TextExpander','App','Lifestyle','PC','41501',35,1,11);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (97,'TextExpander','App','Lifestyle','PC','2014-01-20',33,1,52);</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -4699,23 +4768,23 @@
       </c>
       <c r="F99" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41720</v>
+        <v>41277</v>
       </c>
       <c r="G99" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H99" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I99" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="J99" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (98,'Phraseboard','App','Productivity','iOS','41720',41,1,4);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (98,'Phraseboard','App','Productivity','iOS','2013-01-03',43,4,47);</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -4736,11 +4805,11 @@
       </c>
       <c r="F100" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41595</v>
+        <v>41906</v>
       </c>
       <c r="G100" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="H100" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4748,11 +4817,11 @@
       </c>
       <c r="I100" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J100" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (99,'Swype','App','Lifestyle','Andriod','41595',57,3,37);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (99,'Swype','App','Lifestyle','Andriod','2014-09-24',17,3,81);</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -4773,11 +4842,11 @@
       </c>
       <c r="F101" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41891</v>
+        <v>41792</v>
       </c>
       <c r="G101" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H101" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4785,11 +4854,11 @@
       </c>
       <c r="I101" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="J101" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (100,'MyScriptStack','App','Productivity','PC','41891',50,3,48);</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (100,'MyScriptStack','App','Productivity','PC','2014-06-02',44,3,75);</v>
       </c>
     </row>
   </sheetData>
@@ -4802,8 +4871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F100"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7230,7 +7299,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7268,15 +7337,15 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D2" s="9">
         <f t="shared" ref="D2:D66" ca="1" si="0">RANDBETWEEN(DATE(2013, 1, 1),DATE(2015, 3, 1))</f>
-        <v>41944</v>
+        <v>41537</v>
       </c>
       <c r="E2" s="9" t="str">
         <f ca="1">CONCATENATE("INSERT INTO Purchase (customer,item,purchase_date) VALUES (","'",B2,"'",",",C2,"",",'",TEXT(D2,"yyyy-mm-dd" ),"'",");")</f>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Charley@cs2102.com',53,'2014-11-01');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Charley@cs2102.com',7,'2013-09-20');</v>
       </c>
       <c r="F2" s="9"/>
     </row>
@@ -7290,15 +7359,15 @@
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41479</v>
+        <v>41370</v>
       </c>
       <c r="E3" s="9" t="str">
         <f t="shared" ref="E3:E66" ca="1" si="1">CONCATENATE("INSERT INTO Purchase (customer,item,purchase_date) VALUES (","'",B3,"'",",",C3,"",",'",TEXT(D3,"yyyy-mm-dd" ),"'",");")</f>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Aurore@cs2102.com',86,'2013-07-24');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Aurore@cs2102.com',8,'2013-04-06');</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7311,15 +7380,15 @@
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41779</v>
+        <v>41424</v>
       </c>
       <c r="E4" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Asha@cs2102.com',45,'2014-05-20');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Asha@cs2102.com',72,'2013-05-30');</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7332,15 +7401,15 @@
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41560</v>
+        <v>41372</v>
       </c>
       <c r="E5" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kandi@cs2102.com',14,'2013-10-13');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kandi@cs2102.com',54,'2013-04-08');</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7353,15 +7422,15 @@
       </c>
       <c r="C6">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41283</v>
+        <v>41289</v>
       </c>
       <c r="E6" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jeanett@cs2102.com',19,'2013-01-09');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jeanett@cs2102.com',92,'2013-01-15');</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7377,11 +7446,11 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41958</v>
+        <v>41400</v>
       </c>
       <c r="E7" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Pam@cs2102.com',4,'2014-11-15');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Pam@cs2102.com',4,'2013-05-06');</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7394,15 +7463,15 @@
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C39" ca="1" si="2">RANDBETWEEN(1,100)</f>
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41819</v>
+        <v>41521</v>
       </c>
       <c r="E8" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cristobal@cs2102.com',99,'2014-06-29');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cristobal@cs2102.com',6,'2013-09-04');</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7415,15 +7484,15 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41317</v>
+        <v>41751</v>
       </c>
       <c r="E9" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kelly@cs2102.com',50,'2013-02-12');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kelly@cs2102.com',59,'2014-04-22');</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7436,15 +7505,15 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>42020</v>
+        <v>41324</v>
       </c>
       <c r="E10" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jacalyn@cs2102.com',30,'2015-01-16');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jacalyn@cs2102.com',29,'2013-02-19');</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7457,15 +7526,15 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41483</v>
+        <v>41452</v>
       </c>
       <c r="E11" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Norene@cs2102.com',97,'2013-07-28');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Norene@cs2102.com',47,'2013-06-27');</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7478,15 +7547,15 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41642</v>
+        <v>41796</v>
       </c>
       <c r="E12" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Benita@cs2102.com',97,'2014-01-03');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Benita@cs2102.com',88,'2014-06-06');</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7499,15 +7568,15 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41963</v>
+        <v>41530</v>
       </c>
       <c r="E13" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Julieann@cs2102.com',60,'2014-11-20');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Julieann@cs2102.com',2,'2013-09-13');</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7524,11 +7593,11 @@
       </c>
       <c r="D14" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41933</v>
+        <v>41869</v>
       </c>
       <c r="E14" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Florencio@cs2102.com',55,'2014-10-21');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Florencio@cs2102.com',55,'2014-08-18');</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7541,15 +7610,15 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41429</v>
+        <v>42008</v>
       </c>
       <c r="E15" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lilia@cs2102.com',5,'2013-06-04');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lilia@cs2102.com',93,'2015-01-04');</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7562,15 +7631,15 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41324</v>
+        <v>41815</v>
       </c>
       <c r="E16" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Erik@cs2102.com',42,'2013-02-19');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Erik@cs2102.com',88,'2014-06-25');</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7583,15 +7652,15 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41898</v>
+        <v>41452</v>
       </c>
       <c r="E17" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Han@cs2102.com',82,'2014-09-16');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Han@cs2102.com',59,'2013-06-27');</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7604,15 +7673,15 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41772</v>
+        <v>41939</v>
       </c>
       <c r="E18" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Rosalie@cs2102.com',21,'2014-05-13');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Rosalie@cs2102.com',93,'2014-10-27');</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -7625,15 +7694,15 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41481</v>
+        <v>41735</v>
       </c>
       <c r="E19" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lili@cs2102.com',18,'2013-07-26');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lili@cs2102.com',89,'2014-04-06');</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -7646,15 +7715,15 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41665</v>
+        <v>42023</v>
       </c>
       <c r="E20" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Arletha@cs2102.com',90,'2014-01-26');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Arletha@cs2102.com',58,'2015-01-19');</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7667,15 +7736,15 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41913</v>
+        <v>41539</v>
       </c>
       <c r="E21" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Esperanza@cs2102.com',33,'2014-10-01');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Esperanza@cs2102.com',27,'2013-09-22');</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7688,15 +7757,15 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41685</v>
+        <v>41506</v>
       </c>
       <c r="E22" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Magdalena@cs2102.com',31,'2014-02-15');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Magdalena@cs2102.com',47,'2013-08-20');</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -7709,15 +7778,15 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41419</v>
+        <v>41453</v>
       </c>
       <c r="E23" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Shizue@cs2102.com',97,'2013-05-25');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Shizue@cs2102.com',1,'2013-06-28');</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7730,15 +7799,15 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41392</v>
+        <v>41909</v>
       </c>
       <c r="E24" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Keisha@cs2102.com',25,'2013-04-28');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Keisha@cs2102.com',95,'2014-09-27');</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7751,15 +7820,15 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41323</v>
+        <v>41316</v>
       </c>
       <c r="E25" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Eufemia@cs2102.com',4,'2013-02-18');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Eufemia@cs2102.com',96,'2013-02-11');</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -7772,15 +7841,15 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41344</v>
+        <v>41932</v>
       </c>
       <c r="E26" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jan@cs2102.com',38,'2013-03-11');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jan@cs2102.com',42,'2014-10-20');</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -7793,15 +7862,15 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41914</v>
+        <v>41769</v>
       </c>
       <c r="E27" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Maud@cs2102.com',39,'2014-10-02');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Maud@cs2102.com',8,'2014-05-10');</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7814,15 +7883,15 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41290</v>
+        <v>41522</v>
       </c>
       <c r="E28" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jefferson@cs2102.com',90,'2013-01-16');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jefferson@cs2102.com',1,'2013-09-05');</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -7835,15 +7904,15 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41638</v>
+        <v>42054</v>
       </c>
       <c r="E29" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kenia@cs2102.com',89,'2013-12-30');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kenia@cs2102.com',36,'2015-02-19');</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -7856,15 +7925,15 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41519</v>
+        <v>41662</v>
       </c>
       <c r="E30" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cyrus@cs2102.com',43,'2013-09-02');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cyrus@cs2102.com',9,'2014-01-23');</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7877,15 +7946,15 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>42023</v>
+        <v>41389</v>
       </c>
       <c r="E31" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Carmela@cs2102.com',25,'2015-01-19');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Carmela@cs2102.com',24,'2013-04-25');</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -7898,15 +7967,15 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41709</v>
+        <v>41837</v>
       </c>
       <c r="E32" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lloyd@cs2102.com',3,'2014-03-11');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lloyd@cs2102.com',11,'2014-07-17');</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7919,15 +7988,15 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41800</v>
+        <v>41510</v>
       </c>
       <c r="E33" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Pamelia@cs2102.com',51,'2014-06-10');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Pamelia@cs2102.com',89,'2013-08-24');</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -7940,15 +8009,15 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="D34" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41538</v>
+        <v>41921</v>
       </c>
       <c r="E34" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Aleida@cs2102.com',82,'2013-09-21');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Aleida@cs2102.com',29,'2014-10-09');</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7961,15 +8030,15 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D35" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41279</v>
+        <v>41998</v>
       </c>
       <c r="E35" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Susanna@cs2102.com',88,'2013-01-05');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Susanna@cs2102.com',70,'2014-12-25');</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -7982,15 +8051,15 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41531</v>
+        <v>41277</v>
       </c>
       <c r="E36" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kate@cs2102.com',61,'2013-09-14');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kate@cs2102.com',30,'2013-01-03');</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -8003,15 +8072,15 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D37" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41829</v>
+        <v>41313</v>
       </c>
       <c r="E37" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Shanita@cs2102.com',73,'2014-07-09');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Shanita@cs2102.com',39,'2013-02-08');</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8024,15 +8093,15 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D38" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41733</v>
+        <v>41744</v>
       </c>
       <c r="E38" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Liliana@cs2102.com',47,'2014-04-04');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Liliana@cs2102.com',90,'2014-04-15');</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8045,15 +8114,15 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D39" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41462</v>
+        <v>41884</v>
       </c>
       <c r="E39" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Fermin@cs2102.com',54,'2013-07-07');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Fermin@cs2102.com',85,'2014-09-02');</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8066,15 +8135,15 @@
       </c>
       <c r="C40">
         <f t="shared" ref="C40:C71" ca="1" si="3">RANDBETWEEN(1,100)</f>
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41438</v>
+        <v>41532</v>
       </c>
       <c r="E40" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Reda@cs2102.com',24,'2013-06-13');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Reda@cs2102.com',86,'2013-09-15');</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -8087,15 +8156,15 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="D41" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41907</v>
+        <v>41756</v>
       </c>
       <c r="E41" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Hildred@cs2102.com',37,'2014-09-25');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Hildred@cs2102.com',93,'2014-04-27');</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8108,15 +8177,15 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>42025</v>
+        <v>41831</v>
       </c>
       <c r="E42" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kallie@cs2102.com',88,'2015-01-21');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kallie@cs2102.com',73,'2014-07-11');</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8129,15 +8198,15 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="D43" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41994</v>
+        <v>41700</v>
       </c>
       <c r="E43" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Dominga@cs2102.com',98,'2014-12-21');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Dominga@cs2102.com',32,'2014-03-02');</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -8150,15 +8219,15 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41437</v>
+        <v>41966</v>
       </c>
       <c r="E44" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Dwayne@cs2102.com',13,'2013-06-12');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Dwayne@cs2102.com',38,'2014-11-23');</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -8171,15 +8240,15 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D45" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41303</v>
+        <v>41314</v>
       </c>
       <c r="E45" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Rona@cs2102.com',23,'2013-01-29');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Rona@cs2102.com',47,'2013-02-09');</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -8192,15 +8261,15 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D46" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41749</v>
+        <v>41293</v>
       </c>
       <c r="E46" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Roger@cs2102.com',12,'2014-04-20');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Roger@cs2102.com',75,'2013-01-19');</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8213,15 +8282,15 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D47" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>42047</v>
+        <v>41966</v>
       </c>
       <c r="E47" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Abraham@cs2102.com',3,'2015-02-12');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Abraham@cs2102.com',14,'2014-11-23');</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8234,15 +8303,15 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="D48" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41631</v>
+        <v>41915</v>
       </c>
       <c r="E48" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Creola@cs2102.com',98,'2013-12-23');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Creola@cs2102.com',4,'2014-10-03');</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -8255,15 +8324,15 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D49" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41618</v>
+        <v>41299</v>
       </c>
       <c r="E49" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Toi@cs2102.com',99,'2013-12-10');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Toi@cs2102.com',77,'2013-01-25');</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -8276,15 +8345,15 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D50" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41433</v>
+        <v>41749</v>
       </c>
       <c r="E50" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Nichelle@cs2102.com',78,'2013-06-08');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Nichelle@cs2102.com',3,'2014-04-20');</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -8297,15 +8366,15 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>42019</v>
+        <v>41373</v>
       </c>
       <c r="E51" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Elvina@cs2102.com',14,'2015-01-15');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Elvina@cs2102.com',66,'2013-04-09');</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -8318,15 +8387,15 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41558</v>
+        <v>41968</v>
       </c>
       <c r="E52" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Mitsuko@cs2102.com',65,'2013-10-11');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Mitsuko@cs2102.com',14,'2014-11-25');</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -8339,15 +8408,15 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D53" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41839</v>
+        <v>42055</v>
       </c>
       <c r="E53" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Helaine@cs2102.com',44,'2014-07-19');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Helaine@cs2102.com',34,'2015-02-20');</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -8360,15 +8429,15 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="D54" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41794</v>
+        <v>41519</v>
       </c>
       <c r="E54" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Fredericka@cs2102.com',95,'2014-06-04');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Fredericka@cs2102.com',18,'2013-09-02');</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -8381,15 +8450,15 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D55" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41600</v>
+        <v>41894</v>
       </c>
       <c r="E55" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Deb@cs2102.com',1,'2013-11-22');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Deb@cs2102.com',39,'2014-09-12');</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -8402,15 +8471,15 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41487</v>
+        <v>42010</v>
       </c>
       <c r="E56" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Raven@cs2102.com',47,'2013-08-01');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Raven@cs2102.com',90,'2015-01-06');</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -8423,15 +8492,15 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41437</v>
+        <v>41798</v>
       </c>
       <c r="E57" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Epifania@cs2102.com',34,'2013-06-12');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Epifania@cs2102.com',64,'2014-06-08');</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -8444,15 +8513,15 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41481</v>
+        <v>41686</v>
       </c>
       <c r="E58" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Wava@cs2102.com',20,'2013-07-26');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Wava@cs2102.com',21,'2014-02-16');</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -8465,15 +8534,15 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D59" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41331</v>
+        <v>41709</v>
       </c>
       <c r="E59" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jenifer@cs2102.com',45,'2013-02-26');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jenifer@cs2102.com',33,'2014-03-11');</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -8486,15 +8555,15 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41916</v>
+        <v>41458</v>
       </c>
       <c r="E60" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Imelda@cs2102.com',62,'2014-10-04');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Imelda@cs2102.com',86,'2013-07-03');</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -8507,15 +8576,15 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="D61" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41805</v>
+        <v>42064</v>
       </c>
       <c r="E61" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cherish@cs2102.com',84,'2014-06-15');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cherish@cs2102.com',32,'2015-03-01');</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -8528,15 +8597,15 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D62" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41314</v>
+        <v>41724</v>
       </c>
       <c r="E62" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Marcel@cs2102.com',49,'2013-02-09');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Marcel@cs2102.com',30,'2014-03-26');</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -8549,15 +8618,15 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D63" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41876</v>
+        <v>42035</v>
       </c>
       <c r="E63" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Alethea@cs2102.com',69,'2014-08-25');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Alethea@cs2102.com',59,'2015-01-31');</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -8570,15 +8639,15 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D64" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>42059</v>
+        <v>41576</v>
       </c>
       <c r="E64" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Felica@cs2102.com',98,'2015-02-24');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Felica@cs2102.com',100,'2013-10-29');</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -8591,15 +8660,15 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41900</v>
+        <v>41853</v>
       </c>
       <c r="E65" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Reatha@cs2102.com',2,'2014-09-18');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Reatha@cs2102.com',3,'2014-08-02');</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -8612,15 +8681,15 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41838</v>
+        <v>41776</v>
       </c>
       <c r="E66" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Velia@cs2102.com',93,'2014-07-18');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Velia@cs2102.com',31,'2014-05-17');</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -8633,15 +8702,15 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="D67" s="9">
         <f t="shared" ref="D67:D100" ca="1" si="4">RANDBETWEEN(DATE(2013, 1, 1),DATE(2015, 3, 1))</f>
-        <v>41831</v>
+        <v>41851</v>
       </c>
       <c r="E67" s="9" t="str">
         <f t="shared" ref="E67:E100" ca="1" si="5">CONCATENATE("INSERT INTO Purchase (customer,item,purchase_date) VALUES (","'",B67,"'",",",C67,"",",'",TEXT(D67,"yyyy-mm-dd" ),"'",");")</f>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Crista@cs2102.com',4,'2014-07-11');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Crista@cs2102.com',67,'2014-07-31');</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -8654,15 +8723,15 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41509</v>
+        <v>41750</v>
       </c>
       <c r="E68" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Keesha@cs2102.com',6,'2013-08-23');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Keesha@cs2102.com',22,'2014-04-21');</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -8675,15 +8744,15 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D69" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41849</v>
+        <v>41652</v>
       </c>
       <c r="E69" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Pandora@cs2102.com',49,'2014-07-29');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Pandora@cs2102.com',7,'2014-01-13');</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -8696,15 +8765,15 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D70" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41908</v>
+        <v>41401</v>
       </c>
       <c r="E70" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Raguel@cs2102.com',73,'2014-09-26');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Raguel@cs2102.com',5,'2013-05-07');</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -8717,15 +8786,15 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D71" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41302</v>
+        <v>41352</v>
       </c>
       <c r="E71" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Deedee@cs2102.com',98,'2013-01-28');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Deedee@cs2102.com',74,'2013-03-19');</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -8738,15 +8807,15 @@
       </c>
       <c r="C72">
         <f t="shared" ref="C72:C100" ca="1" si="6">RANDBETWEEN(1,100)</f>
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41710</v>
+        <v>41774</v>
       </c>
       <c r="E72" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Juanita@cs2102.com',91,'2014-03-12');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Juanita@cs2102.com',1,'2014-05-15');</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -8759,15 +8828,15 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D73" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>42030</v>
+        <v>41924</v>
       </c>
       <c r="E73" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Stanley@cs2102.com',61,'2015-01-26');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Stanley@cs2102.com',28,'2014-10-12');</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -8780,15 +8849,15 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D74" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41642</v>
+        <v>41305</v>
       </c>
       <c r="E74" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Gregory@cs2102.com',58,'2014-01-03');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Gregory@cs2102.com',30,'2013-01-31');</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -8801,15 +8870,15 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41844</v>
+        <v>41353</v>
       </c>
       <c r="E75" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jacklyn@cs2102.com',3,'2014-07-24');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jacklyn@cs2102.com',1,'2013-03-20');</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -8822,15 +8891,15 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D76" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41546</v>
+        <v>41779</v>
       </c>
       <c r="E76" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Madlyn@cs2102.com',53,'2013-09-29');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Madlyn@cs2102.com',42,'2014-05-20');</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -8843,15 +8912,15 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D77" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41649</v>
+        <v>41755</v>
       </c>
       <c r="E77" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Rudolph@cs2102.com',32,'2014-01-10');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Rudolph@cs2102.com',73,'2014-04-26');</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -8864,15 +8933,15 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D78" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41933</v>
+        <v>41965</v>
       </c>
       <c r="E78" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Marybeth@cs2102.com',35,'2014-10-21');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Marybeth@cs2102.com',37,'2014-11-22');</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -8885,15 +8954,15 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D79" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41692</v>
+        <v>41304</v>
       </c>
       <c r="E79" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lupe@cs2102.com',21,'2014-02-22');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lupe@cs2102.com',26,'2013-01-30');</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -8906,15 +8975,15 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41471</v>
+        <v>41295</v>
       </c>
       <c r="E80" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Adriene@cs2102.com',52,'2013-07-16');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Adriene@cs2102.com',60,'2013-01-21');</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -8927,15 +8996,15 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41707</v>
+        <v>41507</v>
       </c>
       <c r="E81" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Epifania@cs2102.com',94,'2014-03-09');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Epifania@cs2102.com',41,'2013-08-21');</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -8948,15 +9017,15 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41682</v>
+        <v>41746</v>
       </c>
       <c r="E82" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Mee@cs2102.com',88,'2014-02-12');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Mee@cs2102.com',21,'2014-04-17');</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -8969,15 +9038,15 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D83" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41284</v>
+        <v>41995</v>
       </c>
       <c r="E83" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Dorene@cs2102.com',91,'2013-01-10');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Dorene@cs2102.com',80,'2014-12-22');</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -8990,15 +9059,15 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D84" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41582</v>
+        <v>41857</v>
       </c>
       <c r="E84" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cecilia@cs2102.com',97,'2013-11-04');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cecilia@cs2102.com',67,'2014-08-06');</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -9011,15 +9080,15 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="D85" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41473</v>
+        <v>41499</v>
       </c>
       <c r="E85" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Queen@cs2102.com',92,'2013-07-18');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Queen@cs2102.com',41,'2013-08-13');</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -9032,15 +9101,15 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D86" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41423</v>
+        <v>41431</v>
       </c>
       <c r="E86" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Magali@cs2102.com',48,'2013-05-29');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Magali@cs2102.com',25,'2013-06-06');</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -9053,15 +9122,15 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D87" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41609</v>
+        <v>41635</v>
       </c>
       <c r="E87" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Felecia@cs2102.com',36,'2013-12-01');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Felecia@cs2102.com',73,'2013-12-27');</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -9074,15 +9143,15 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D88" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41783</v>
+        <v>41692</v>
       </c>
       <c r="E88" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lavera@cs2102.com',37,'2014-05-24');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lavera@cs2102.com',38,'2014-02-22');</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -9095,15 +9164,15 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D89" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41817</v>
+        <v>41878</v>
       </c>
       <c r="E89" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Guillermo@cs2102.com',43,'2014-06-27');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Guillermo@cs2102.com',29,'2014-08-27');</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -9116,15 +9185,15 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D90" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41814</v>
+        <v>42035</v>
       </c>
       <c r="E90" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Summer@cs2102.com',12,'2014-06-24');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Summer@cs2102.com',50,'2015-01-31');</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -9137,15 +9206,15 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D91" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41661</v>
+        <v>41567</v>
       </c>
       <c r="E91" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Meagan@cs2102.com',6,'2014-01-22');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Meagan@cs2102.com',30,'2013-10-20');</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -9158,15 +9227,15 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D92" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41504</v>
+        <v>41890</v>
       </c>
       <c r="E92" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Ronald@cs2102.com',53,'2013-08-18');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Ronald@cs2102.com',56,'2014-09-08');</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -9179,15 +9248,15 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D93" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41827</v>
+        <v>41304</v>
       </c>
       <c r="E93" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Ricarda@cs2102.com',38,'2014-07-07');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Ricarda@cs2102.com',45,'2013-01-30');</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -9200,15 +9269,15 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D94" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41289</v>
+        <v>41983</v>
       </c>
       <c r="E94" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Agustin@cs2102.com',9,'2013-01-15');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Agustin@cs2102.com',88,'2014-12-10');</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -9221,15 +9290,15 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D95" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41681</v>
+        <v>41566</v>
       </c>
       <c r="E95" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lanie@cs2102.com',37,'2014-02-11');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lanie@cs2102.com',83,'2013-10-19');</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -9242,15 +9311,15 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D96" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41891</v>
+        <v>41831</v>
       </c>
       <c r="E96" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Gianna@cs2102.com',31,'2014-09-09');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Gianna@cs2102.com',99,'2014-07-11');</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -9263,15 +9332,15 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D97" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41819</v>
+        <v>41465</v>
       </c>
       <c r="E97" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Eunice@cs2102.com',98,'2014-06-29');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Eunice@cs2102.com',95,'2013-07-10');</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -9284,15 +9353,15 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D98" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41847</v>
+        <v>41904</v>
       </c>
       <c r="E98" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Regenia@cs2102.com',99,'2014-07-27');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Regenia@cs2102.com',23,'2014-09-22');</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -9305,15 +9374,15 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D99" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41477</v>
+        <v>41891</v>
       </c>
       <c r="E99" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Olene@cs2102.com',31,'2013-07-22');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Olene@cs2102.com',60,'2014-09-09');</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -9326,15 +9395,15 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D100" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41294</v>
+        <v>41786</v>
       </c>
       <c r="E100" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('America@cs2102.com',50,'2013-01-20');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('America@cs2102.com',71,'2014-05-27');</v>
       </c>
     </row>
   </sheetData>
@@ -9449,7 +9518,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9495,23 +9564,23 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D2" s="9">
         <f ca="1">RANDBETWEEN(DATE(2013, 1, 1),DATE(2013, 3, 1))</f>
-        <v>41280</v>
+        <v>41333</v>
       </c>
       <c r="E2" s="9">
         <f ca="1">RANDBETWEEN(DATE(2013, 3, 20),DATE(2013, 9, 30))</f>
-        <v>41421</v>
+        <v>41397</v>
       </c>
       <c r="F2" s="9">
         <f ca="1">RANDBETWEEN(DATE(YEAR(D2),MONTH(D2),DAY(D2)), DATE(YEAR(E2),MONTH(E2),DAY(E2)))</f>
-        <v>41282</v>
+        <v>41361</v>
       </c>
       <c r="G2" s="9" t="str">
         <f ca="1">CONCATENATE("INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('",B2,"','",C2,"','",TEXT(D2,"yyyy-mm-dd"),"','",TEXT(E2,"yyyy-mm-dd"),"','",TEXT(F2,"yyyy-mm-dd"),"');")</f>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Charley@cs2102.com','10','2013-01-06','2013-05-27','2013-01-08');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Charley@cs2102.com','21','2013-02-28','2013-05-03','2013-03-28');</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -9524,23 +9593,23 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D66" ca="1" si="1">RANDBETWEEN(DATE(2013, 1, 1),DATE(2013, 3, 1))</f>
-        <v>41333</v>
+        <v>41324</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E66" ca="1" si="2">RANDBETWEEN(DATE(2013, 3, 20),DATE(2013, 9, 30))</f>
-        <v>41421</v>
+        <v>41502</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" ref="F3:F66" ca="1" si="3">RANDBETWEEN(DATE(YEAR(D3),MONTH(D3),DAY(D3)), DATE(YEAR(E3),MONTH(E3),DAY(E3)))</f>
-        <v>41390</v>
+        <v>41396</v>
       </c>
       <c r="G3" s="9" t="str">
         <f t="shared" ref="G3:G66" ca="1" si="4">CONCATENATE("INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('",B3,"','",C3,"','",TEXT(D3,"yyyy-mm-dd"),"','",TEXT(E3,"yyyy-mm-dd"),"','",TEXT(F3,"yyyy-mm-dd"),"');")</f>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Aurore@cs2102.com','63','2013-02-28','2013-05-27','2013-04-26');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Aurore@cs2102.com','39','2013-02-19','2013-08-16','2013-05-02');</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9553,23 +9622,23 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41313</v>
+        <v>41314</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41467</v>
+        <v>41368</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41419</v>
+        <v>41320</v>
       </c>
       <c r="G4" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Asha@cs2102.com','10','2013-02-08','2013-07-12','2013-05-25');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Asha@cs2102.com','85','2013-02-09','2013-04-04','2013-02-15');</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -9582,23 +9651,23 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41320</v>
+        <v>41288</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41444</v>
+        <v>41495</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41366</v>
+        <v>41423</v>
       </c>
       <c r="G5" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kandi@cs2102.com','85','2013-02-15','2013-06-19','2013-04-02');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kandi@cs2102.com','34','2013-01-14','2013-08-09','2013-05-29');</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -9611,23 +9680,23 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41326</v>
+        <v>41301</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41471</v>
+        <v>41520</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41345</v>
+        <v>41426</v>
       </c>
       <c r="G6" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jeanett@cs2102.com','58','2013-02-21','2013-07-16','2013-03-12');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jeanett@cs2102.com','34','2013-01-27','2013-09-03','2013-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -9640,23 +9709,23 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41315</v>
+        <v>41286</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41389</v>
+        <v>41361</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41374</v>
+        <v>41321</v>
       </c>
       <c r="G7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Pam@cs2102.com','99','2013-02-10','2013-04-25','2013-04-10');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Pam@cs2102.com','3','2013-01-12','2013-03-28','2013-02-16');</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9669,23 +9738,23 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41317</v>
+        <v>41288</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41540</v>
+        <v>41538</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41405</v>
+        <v>41498</v>
       </c>
       <c r="G8" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cristobal@cs2102.com','85','2013-02-12','2013-09-23','2013-05-11');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cristobal@cs2102.com','100','2013-01-14','2013-09-21','2013-08-12');</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -9698,23 +9767,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41291</v>
+        <v>41282</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41356</v>
+        <v>41478</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41327</v>
+        <v>41425</v>
       </c>
       <c r="G9" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kelly@cs2102.com','82','2013-01-17','2013-03-23','2013-02-22');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kelly@cs2102.com','38','2013-01-08','2013-07-23','2013-05-31');</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -9727,23 +9796,23 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41308</v>
+        <v>41302</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41455</v>
+        <v>41491</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41454</v>
+        <v>41435</v>
       </c>
       <c r="G10" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jacalyn@cs2102.com','75','2013-02-03','2013-06-30','2013-06-29');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jacalyn@cs2102.com','71','2013-01-28','2013-08-05','2013-06-10');</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -9756,23 +9825,23 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41317</v>
+        <v>41306</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41496</v>
+        <v>41495</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41318</v>
+        <v>41488</v>
       </c>
       <c r="G11" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Norene@cs2102.com','70','2013-02-12','2013-08-10','2013-02-13');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Norene@cs2102.com','77','2013-02-01','2013-08-09','2013-08-02');</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -9785,23 +9854,23 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41328</v>
+        <v>41277</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41384</v>
+        <v>41491</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41377</v>
+        <v>41421</v>
       </c>
       <c r="G12" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Benita@cs2102.com','35','2013-02-23','2013-04-20','2013-04-13');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Benita@cs2102.com','86','2013-01-03','2013-08-05','2013-05-27');</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9818,19 +9887,19 @@
       </c>
       <c r="D13" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41280</v>
+        <v>41291</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41392</v>
+        <v>41505</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41288</v>
+        <v>41335</v>
       </c>
       <c r="G13" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Julieann@cs2102.com','63','2013-01-06','2013-04-28','2013-01-14');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Julieann@cs2102.com','63','2013-01-17','2013-08-19','2013-03-02');</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9843,23 +9912,23 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41316</v>
+        <v>41280</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41359</v>
+        <v>41471</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41345</v>
+        <v>41331</v>
       </c>
       <c r="G14" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Florencio@cs2102.com','37','2013-02-11','2013-03-26','2013-03-12');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Florencio@cs2102.com','69','2013-01-06','2013-07-16','2013-02-26');</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -9872,23 +9941,23 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41319</v>
+        <v>41285</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41434</v>
+        <v>41534</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41319</v>
+        <v>41413</v>
       </c>
       <c r="G15" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lilia@cs2102.com','24','2013-02-14','2013-06-09','2013-02-14');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lilia@cs2102.com','22','2013-01-11','2013-09-17','2013-05-19');</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -9901,23 +9970,23 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41321</v>
+        <v>41296</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41359</v>
+        <v>41427</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41328</v>
+        <v>41347</v>
       </c>
       <c r="G16" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Erik@cs2102.com','66','2013-02-16','2013-03-26','2013-02-23');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Erik@cs2102.com','76','2013-01-22','2013-06-02','2013-03-14');</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -9930,23 +9999,23 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41297</v>
+        <v>41298</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41516</v>
+        <v>41408</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41463</v>
+        <v>41370</v>
       </c>
       <c r="G17" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Han@cs2102.com','91','2013-01-23','2013-08-30','2013-07-08');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Han@cs2102.com','50','2013-01-24','2013-05-14','2013-04-06');</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -9959,23 +10028,23 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41288</v>
+        <v>41294</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41460</v>
+        <v>41355</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41411</v>
+        <v>41311</v>
       </c>
       <c r="G18" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Rosalie@cs2102.com','24','2013-01-14','2013-07-05','2013-05-17');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Rosalie@cs2102.com','20','2013-01-20','2013-03-22','2013-02-06');</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -9988,23 +10057,23 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41331</v>
+        <v>41283</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41376</v>
+        <v>41522</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41370</v>
+        <v>41489</v>
       </c>
       <c r="G19" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lili@cs2102.com','44','2013-02-26','2013-04-12','2013-04-06');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lili@cs2102.com','52','2013-01-09','2013-09-05','2013-08-03');</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -10017,23 +10086,23 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41306</v>
+        <v>41308</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41545</v>
+        <v>41506</v>
       </c>
       <c r="F20" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41377</v>
+        <v>41319</v>
       </c>
       <c r="G20" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Arletha@cs2102.com','90','2013-02-01','2013-09-28','2013-04-13');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Arletha@cs2102.com','13','2013-02-03','2013-08-20','2013-02-14');</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10046,23 +10115,23 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41297</v>
+        <v>41286</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41354</v>
+        <v>41432</v>
       </c>
       <c r="F21" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41314</v>
+        <v>41355</v>
       </c>
       <c r="G21" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Esperanza@cs2102.com','81','2013-01-23','2013-03-21','2013-02-09');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Esperanza@cs2102.com','88','2013-01-12','2013-06-07','2013-03-22');</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10075,23 +10144,23 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41303</v>
+        <v>41293</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41484</v>
+        <v>41535</v>
       </c>
       <c r="F22" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41389</v>
+        <v>41325</v>
       </c>
       <c r="G22" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Magdalena@cs2102.com','42','2013-01-29','2013-07-29','2013-04-25');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Magdalena@cs2102.com','56','2013-01-19','2013-09-18','2013-02-20');</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -10104,23 +10173,23 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" ca="1" si="1"/>
+        <v>41296</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>41365</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" ca="1" si="3"/>
         <v>41298</v>
       </c>
-      <c r="E23" s="9">
-        <f t="shared" ca="1" si="2"/>
-        <v>41537</v>
-      </c>
-      <c r="F23" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>41505</v>
-      </c>
       <c r="G23" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Shizue@cs2102.com','20','2013-01-24','2013-09-20','2013-08-19');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Shizue@cs2102.com','24','2013-01-22','2013-04-01','2013-01-24');</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -10133,23 +10202,23 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41295</v>
+        <v>41289</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41386</v>
+        <v>41445</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41342</v>
+        <v>41315</v>
       </c>
       <c r="G24" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Keisha@cs2102.com','41','2013-01-21','2013-04-22','2013-03-09');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Keisha@cs2102.com','45','2013-01-15','2013-06-20','2013-02-10');</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10162,23 +10231,23 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41328</v>
+        <v>41298</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41371</v>
+        <v>41406</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41333</v>
+        <v>41393</v>
       </c>
       <c r="G25" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Eufemia@cs2102.com','7','2013-02-23','2013-04-07','2013-02-28');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Eufemia@cs2102.com','53','2013-01-24','2013-05-12','2013-04-29');</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -10195,19 +10264,19 @@
       </c>
       <c r="D26" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41329</v>
+        <v>41308</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41508</v>
+        <v>41394</v>
       </c>
       <c r="F26" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41394</v>
+        <v>41389</v>
       </c>
       <c r="G26" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jan@cs2102.com','45','2013-02-24','2013-08-22','2013-04-30');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jan@cs2102.com','45','2013-02-03','2013-04-30','2013-04-25');</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -10220,23 +10289,23 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41291</v>
+        <v>41278</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41435</v>
+        <v>41519</v>
       </c>
       <c r="F27" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41363</v>
+        <v>41372</v>
       </c>
       <c r="G27" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Maud@cs2102.com','82','2013-01-17','2013-06-10','2013-03-30');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Maud@cs2102.com','3','2013-01-04','2013-09-02','2013-04-08');</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10249,23 +10318,23 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41285</v>
+        <v>41324</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41492</v>
+        <v>41365</v>
       </c>
       <c r="F28" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41442</v>
+        <v>41345</v>
       </c>
       <c r="G28" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jefferson@cs2102.com','95','2013-01-11','2013-08-06','2013-06-17');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jefferson@cs2102.com','100','2013-02-19','2013-04-01','2013-03-12');</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -10278,23 +10347,23 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41324</v>
+        <v>41295</v>
       </c>
       <c r="E29" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41411</v>
+        <v>41510</v>
       </c>
       <c r="F29" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41389</v>
+        <v>41474</v>
       </c>
       <c r="G29" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kenia@cs2102.com','49','2013-02-19','2013-05-17','2013-04-25');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kenia@cs2102.com','54','2013-01-21','2013-08-24','2013-07-19');</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -10307,23 +10376,23 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41307</v>
+        <v>41290</v>
       </c>
       <c r="E30" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41384</v>
+        <v>41490</v>
       </c>
       <c r="F30" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41319</v>
+        <v>41365</v>
       </c>
       <c r="G30" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cyrus@cs2102.com','26','2013-02-02','2013-04-20','2013-02-14');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cyrus@cs2102.com','7','2013-01-16','2013-08-04','2013-04-01');</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10336,23 +10405,23 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D31" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41317</v>
+        <v>41293</v>
       </c>
       <c r="E31" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41482</v>
+        <v>41359</v>
       </c>
       <c r="F31" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41317</v>
+        <v>41355</v>
       </c>
       <c r="G31" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Carmela@cs2102.com','98','2013-02-12','2013-07-27','2013-02-12');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Carmela@cs2102.com','73','2013-01-19','2013-03-26','2013-03-22');</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -10365,23 +10434,23 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41299</v>
+        <v>41283</v>
       </c>
       <c r="E32" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41505</v>
+        <v>41425</v>
       </c>
       <c r="F32" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41323</v>
+        <v>41387</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lloyd@cs2102.com','1','2013-01-25','2013-08-19','2013-02-18');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lloyd@cs2102.com','39','2013-01-09','2013-05-31','2013-04-23');</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10394,23 +10463,23 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41288</v>
+        <v>41283</v>
       </c>
       <c r="E33" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41409</v>
+        <v>41464</v>
       </c>
       <c r="F33" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41361</v>
+        <v>41320</v>
       </c>
       <c r="G33" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Pamelia@cs2102.com','29','2013-01-14','2013-05-15','2013-03-28');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Pamelia@cs2102.com','62','2013-01-09','2013-07-09','2013-02-15');</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -10423,23 +10492,23 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D34" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41277</v>
+        <v>41305</v>
       </c>
       <c r="E34" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41535</v>
+        <v>41491</v>
       </c>
       <c r="F34" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41433</v>
+        <v>41377</v>
       </c>
       <c r="G34" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Aleida@cs2102.com','71','2013-01-03','2013-09-18','2013-06-08');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Aleida@cs2102.com','61','2013-01-31','2013-08-05','2013-04-13');</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10452,23 +10521,23 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="D35" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41323</v>
+        <v>41294</v>
       </c>
       <c r="E35" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41523</v>
+        <v>41421</v>
       </c>
       <c r="F35" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41459</v>
+        <v>41412</v>
       </c>
       <c r="G35" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Susanna@cs2102.com','88','2013-02-18','2013-09-06','2013-07-04');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Susanna@cs2102.com','34','2013-01-20','2013-05-27','2013-05-18');</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -10481,23 +10550,23 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41334</v>
+        <v>41282</v>
       </c>
       <c r="E36" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41508</v>
+        <v>41534</v>
       </c>
       <c r="F36" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41370</v>
+        <v>41515</v>
       </c>
       <c r="G36" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kate@cs2102.com','58','2013-03-01','2013-08-22','2013-04-06');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kate@cs2102.com','82','2013-01-08','2013-09-17','2013-08-29');</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -10510,23 +10579,23 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D37" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41301</v>
+        <v>41324</v>
       </c>
       <c r="E37" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41505</v>
+        <v>41362</v>
       </c>
       <c r="F37" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41448</v>
+        <v>41354</v>
       </c>
       <c r="G37" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Shanita@cs2102.com','76','2013-01-27','2013-08-19','2013-06-23');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Shanita@cs2102.com','15','2013-02-19','2013-03-29','2013-03-21');</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -10539,23 +10608,23 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D38" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41290</v>
+        <v>41275</v>
       </c>
       <c r="E38" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41477</v>
+        <v>41427</v>
       </c>
       <c r="F38" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41394</v>
+        <v>41378</v>
       </c>
       <c r="G38" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Liliana@cs2102.com','63','2013-01-16','2013-07-22','2013-04-30');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Liliana@cs2102.com','89','2013-01-01','2013-06-02','2013-04-14');</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -10568,23 +10637,23 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D39" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41332</v>
+        <v>41294</v>
       </c>
       <c r="E39" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41362</v>
+        <v>41541</v>
       </c>
       <c r="F39" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41347</v>
+        <v>41448</v>
       </c>
       <c r="G39" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Fermin@cs2102.com','21','2013-02-27','2013-03-29','2013-03-14');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Fermin@cs2102.com','24','2013-01-20','2013-09-24','2013-06-23');</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -10597,23 +10666,23 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41292</v>
+        <v>41322</v>
       </c>
       <c r="E40" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41419</v>
+        <v>41468</v>
       </c>
       <c r="F40" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41348</v>
+        <v>41323</v>
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Reda@cs2102.com','93','2013-01-18','2013-05-25','2013-03-15');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Reda@cs2102.com','77','2013-02-17','2013-07-13','2013-02-18');</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -10626,23 +10695,23 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D41" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41308</v>
+        <v>41330</v>
       </c>
       <c r="E41" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41378</v>
+        <v>41478</v>
       </c>
       <c r="F41" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41362</v>
+        <v>41408</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Hildred@cs2102.com','10','2013-02-03','2013-04-14','2013-03-29');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Hildred@cs2102.com','42','2013-02-25','2013-07-23','2013-05-14');</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -10655,23 +10724,23 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41317</v>
+        <v>41277</v>
       </c>
       <c r="E42" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41454</v>
+        <v>41382</v>
       </c>
       <c r="F42" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41373</v>
+        <v>41289</v>
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kallie@cs2102.com','36','2013-02-12','2013-06-29','2013-04-09');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kallie@cs2102.com','23','2013-01-03','2013-04-18','2013-01-15');</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10684,23 +10753,23 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D43" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41304</v>
+        <v>41333</v>
       </c>
       <c r="E43" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41536</v>
+        <v>41455</v>
       </c>
       <c r="F43" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41307</v>
+        <v>41368</v>
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Dominga@cs2102.com','90','2013-01-30','2013-09-19','2013-02-02');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Dominga@cs2102.com','62','2013-02-28','2013-06-30','2013-04-04');</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10713,23 +10782,23 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41316</v>
+        <v>41296</v>
       </c>
       <c r="E44" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41365</v>
+        <v>41452</v>
       </c>
       <c r="F44" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41330</v>
+        <v>41392</v>
       </c>
       <c r="G44" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Dwayne@cs2102.com','79','2013-02-11','2013-04-01','2013-02-25');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Dwayne@cs2102.com','60','2013-01-22','2013-06-27','2013-04-28');</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -10742,23 +10811,23 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="D45" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41327</v>
+        <v>41334</v>
       </c>
       <c r="E45" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41365</v>
+        <v>41422</v>
       </c>
       <c r="F45" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41357</v>
+        <v>41397</v>
       </c>
       <c r="G45" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Rona@cs2102.com','90','2013-02-22','2013-04-01','2013-03-24');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Rona@cs2102.com','57','2013-03-01','2013-05-28','2013-05-03');</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -10771,23 +10840,23 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D46" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41315</v>
+        <v>41291</v>
       </c>
       <c r="E46" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41427</v>
+        <v>41489</v>
       </c>
       <c r="F46" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41369</v>
+        <v>41325</v>
       </c>
       <c r="G46" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Roger@cs2102.com','62','2013-02-10','2013-06-02','2013-04-05');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Roger@cs2102.com','87','2013-01-17','2013-08-03','2013-02-20');</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10800,23 +10869,23 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D47" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41297</v>
+        <v>41334</v>
       </c>
       <c r="E47" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41533</v>
+        <v>41536</v>
       </c>
       <c r="F47" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41456</v>
+        <v>41431</v>
       </c>
       <c r="G47" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Abraham@cs2102.com','75','2013-01-23','2013-09-16','2013-07-01');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Abraham@cs2102.com','69','2013-03-01','2013-09-19','2013-06-06');</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -10829,23 +10898,23 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="D48" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41313</v>
+        <v>41294</v>
       </c>
       <c r="E48" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41536</v>
+        <v>41463</v>
       </c>
       <c r="F48" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41340</v>
+        <v>41375</v>
       </c>
       <c r="G48" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Creola@cs2102.com','8','2013-02-08','2013-09-19','2013-03-07');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Creola@cs2102.com','84','2013-01-20','2013-07-08','2013-04-11');</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -10858,23 +10927,23 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D49" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41304</v>
+        <v>41318</v>
       </c>
       <c r="E49" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41505</v>
+        <v>41428</v>
       </c>
       <c r="F49" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41396</v>
+        <v>41320</v>
       </c>
       <c r="G49" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Toi@cs2102.com','63','2013-01-30','2013-08-19','2013-05-02');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Toi@cs2102.com','76','2013-02-13','2013-06-03','2013-02-15');</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10887,23 +10956,23 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D50" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41293</v>
+        <v>41325</v>
       </c>
       <c r="E50" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41509</v>
+        <v>41481</v>
       </c>
       <c r="F50" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41326</v>
+        <v>41453</v>
       </c>
       <c r="G50" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Nichelle@cs2102.com','10','2013-01-19','2013-08-23','2013-02-21');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Nichelle@cs2102.com','45','2013-02-20','2013-07-26','2013-06-28');</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -10916,23 +10985,23 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41320</v>
+        <v>41276</v>
       </c>
       <c r="E51" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41471</v>
+        <v>41546</v>
       </c>
       <c r="F51" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41471</v>
+        <v>41451</v>
       </c>
       <c r="G51" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Elvina@cs2102.com','74','2013-02-15','2013-07-16','2013-07-16');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Elvina@cs2102.com','29','2013-01-02','2013-09-29','2013-06-26');</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10945,23 +11014,23 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41285</v>
+        <v>41316</v>
       </c>
       <c r="E52" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41395</v>
+        <v>41544</v>
       </c>
       <c r="F52" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41304</v>
+        <v>41376</v>
       </c>
       <c r="G52" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Mitsuko@cs2102.com','75','2013-01-11','2013-05-01','2013-01-30');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Mitsuko@cs2102.com','89','2013-02-11','2013-09-27','2013-04-12');</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -10974,23 +11043,23 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D53" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41308</v>
+        <v>41299</v>
       </c>
       <c r="E53" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41475</v>
+        <v>41531</v>
       </c>
       <c r="F53" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41395</v>
+        <v>41428</v>
       </c>
       <c r="G53" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Helaine@cs2102.com','69','2013-02-03','2013-07-20','2013-05-01');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Helaine@cs2102.com','18','2013-01-25','2013-09-14','2013-06-03');</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11003,23 +11072,23 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="D54" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41332</v>
+        <v>41320</v>
       </c>
       <c r="E54" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41450</v>
+        <v>41384</v>
       </c>
       <c r="F54" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41404</v>
+        <v>41355</v>
       </c>
       <c r="G54" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Fredericka@cs2102.com','4','2013-02-27','2013-06-25','2013-05-10');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Fredericka@cs2102.com','69','2013-02-15','2013-04-20','2013-03-22');</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -11032,11 +11101,11 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D55" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41312</v>
+        <v>41296</v>
       </c>
       <c r="E55" s="9">
         <f t="shared" ca="1" si="2"/>
@@ -11044,11 +11113,11 @@
       </c>
       <c r="F55" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41337</v>
+        <v>41352</v>
       </c>
       <c r="G55" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Deb@cs2102.com','41','2013-02-07','2013-06-10','2013-03-04');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Deb@cs2102.com','3','2013-01-22','2013-06-10','2013-03-19');</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -11061,23 +11130,23 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41320</v>
+        <v>41321</v>
       </c>
       <c r="E56" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41435</v>
+        <v>41443</v>
       </c>
       <c r="F56" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41385</v>
+        <v>41353</v>
       </c>
       <c r="G56" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Raven@cs2102.com','46','2013-02-15','2013-06-10','2013-04-21');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Raven@cs2102.com','59','2013-02-16','2013-06-18','2013-03-20');</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11090,23 +11159,23 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41324</v>
+        <v>41329</v>
       </c>
       <c r="E57" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41362</v>
+        <v>41485</v>
       </c>
       <c r="F57" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41346</v>
+        <v>41404</v>
       </c>
       <c r="G57" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Epifania@cs2102.com','96','2013-02-19','2013-03-29','2013-03-13');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Epifania@cs2102.com','4','2013-02-24','2013-07-30','2013-05-10');</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -11119,23 +11188,23 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41296</v>
+        <v>41323</v>
       </c>
       <c r="E58" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41463</v>
+        <v>41519</v>
       </c>
       <c r="F58" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41443</v>
+        <v>41481</v>
       </c>
       <c r="G58" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Wava@cs2102.com','21','2013-01-22','2013-07-08','2013-06-18');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Wava@cs2102.com','75','2013-02-18','2013-09-02','2013-07-26');</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -11148,23 +11217,23 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="D59" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41291</v>
+        <v>41319</v>
       </c>
       <c r="E59" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41490</v>
+        <v>41524</v>
       </c>
       <c r="F59" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41414</v>
+        <v>41505</v>
       </c>
       <c r="G59" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jenifer@cs2102.com','92','2013-01-17','2013-08-04','2013-05-20');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jenifer@cs2102.com','30','2013-02-14','2013-09-07','2013-08-19');</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -11177,23 +11246,23 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41285</v>
+        <v>41307</v>
       </c>
       <c r="E60" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41358</v>
+        <v>41359</v>
       </c>
       <c r="F60" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41311</v>
+        <v>41359</v>
       </c>
       <c r="G60" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Imelda@cs2102.com','54','2013-01-11','2013-03-25','2013-02-06');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Imelda@cs2102.com','50','2013-02-02','2013-03-26','2013-03-26');</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -11206,23 +11275,23 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D61" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41288</v>
+        <v>41284</v>
       </c>
       <c r="E61" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41453</v>
+        <v>41521</v>
       </c>
       <c r="F61" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41326</v>
+        <v>41452</v>
       </c>
       <c r="G61" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cherish@cs2102.com','33','2013-01-14','2013-06-28','2013-02-21');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cherish@cs2102.com','42','2013-01-10','2013-09-04','2013-06-27');</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -11235,23 +11304,23 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D62" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41288</v>
+        <v>41285</v>
       </c>
       <c r="E62" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41383</v>
+        <v>41416</v>
       </c>
       <c r="F62" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41367</v>
+        <v>41374</v>
       </c>
       <c r="G62" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Marcel@cs2102.com','22','2013-01-14','2013-04-19','2013-04-03');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Marcel@cs2102.com','14','2013-01-11','2013-05-22','2013-04-10');</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11264,23 +11333,23 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D63" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41326</v>
+        <v>41299</v>
       </c>
       <c r="E63" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41364</v>
+        <v>41489</v>
       </c>
       <c r="F63" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41340</v>
+        <v>41401</v>
       </c>
       <c r="G63" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Alethea@cs2102.com','86','2013-02-21','2013-03-31','2013-03-07');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Alethea@cs2102.com','79','2013-01-25','2013-08-03','2013-05-07');</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -11293,23 +11362,23 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D64" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41286</v>
+        <v>41330</v>
       </c>
       <c r="E64" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41457</v>
+        <v>41432</v>
       </c>
       <c r="F64" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41394</v>
+        <v>41391</v>
       </c>
       <c r="G64" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Felica@cs2102.com','63','2013-01-12','2013-07-02','2013-04-30');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Felica@cs2102.com','71','2013-02-25','2013-06-07','2013-04-27');</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -11322,23 +11391,23 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="D65" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41322</v>
+        <v>41295</v>
       </c>
       <c r="E65" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41456</v>
+        <v>41390</v>
       </c>
       <c r="F65" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41452</v>
+        <v>41382</v>
       </c>
       <c r="G65" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Reatha@cs2102.com','91','2013-02-17','2013-07-01','2013-06-27');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Reatha@cs2102.com','58','2013-01-21','2013-04-26','2013-04-18');</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -11351,23 +11420,23 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41285</v>
+        <v>41320</v>
       </c>
       <c r="E66" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41355</v>
+        <v>41436</v>
       </c>
       <c r="F66" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41312</v>
+        <v>41407</v>
       </c>
       <c r="G66" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Velia@cs2102.com','21','2013-01-11','2013-03-22','2013-02-07');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Velia@cs2102.com','11','2013-02-15','2013-06-11','2013-05-13');</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -11380,23 +11449,23 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C100" ca="1" si="5">RANDBETWEEN(1,100)</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D67" s="9">
         <f t="shared" ref="D67:D100" ca="1" si="6">RANDBETWEEN(DATE(2013, 1, 1),DATE(2013, 3, 1))</f>
-        <v>41281</v>
+        <v>41277</v>
       </c>
       <c r="E67" s="9">
         <f t="shared" ref="E67:E100" ca="1" si="7">RANDBETWEEN(DATE(2013, 3, 20),DATE(2013, 9, 30))</f>
-        <v>41394</v>
+        <v>41454</v>
       </c>
       <c r="F67" s="9">
         <f t="shared" ref="F67:F100" ca="1" si="8">RANDBETWEEN(DATE(YEAR(D67),MONTH(D67),DAY(D67)), DATE(YEAR(E67),MONTH(E67),DAY(E67)))</f>
-        <v>41342</v>
+        <v>41404</v>
       </c>
       <c r="G67" s="9" t="str">
         <f t="shared" ref="G67:G100" ca="1" si="9">CONCATENATE("INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('",B67,"','",C67,"','",TEXT(D67,"yyyy-mm-dd"),"','",TEXT(E67,"yyyy-mm-dd"),"','",TEXT(F67,"yyyy-mm-dd"),"');")</f>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Crista@cs2102.com','14','2013-01-07','2013-04-30','2013-03-09');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Crista@cs2102.com','24','2013-01-03','2013-06-29','2013-05-10');</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -11409,23 +11478,23 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41277</v>
+        <v>41305</v>
       </c>
       <c r="E68" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41396</v>
+        <v>41490</v>
       </c>
       <c r="F68" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41317</v>
+        <v>41310</v>
       </c>
       <c r="G68" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Keesha@cs2102.com','42','2013-01-03','2013-05-02','2013-02-12');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Keesha@cs2102.com','86','2013-01-31','2013-08-04','2013-02-05');</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11438,23 +11507,23 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D69" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41294</v>
+        <v>41282</v>
       </c>
       <c r="E69" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41512</v>
+        <v>41493</v>
       </c>
       <c r="F69" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41469</v>
+        <v>41470</v>
       </c>
       <c r="G69" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Pandora@cs2102.com','97','2013-01-20','2013-08-26','2013-07-14');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Pandora@cs2102.com','54','2013-01-08','2013-08-07','2013-07-15');</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -11467,23 +11536,23 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D70" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41333</v>
+        <v>41280</v>
       </c>
       <c r="E70" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41408</v>
+        <v>41523</v>
       </c>
       <c r="F70" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41378</v>
+        <v>41303</v>
       </c>
       <c r="G70" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Raguel@cs2102.com','18','2013-02-28','2013-05-14','2013-04-14');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Raguel@cs2102.com','75','2013-01-06','2013-09-06','2013-01-29');</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11496,23 +11565,23 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D71" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41299</v>
+        <v>41316</v>
       </c>
       <c r="E71" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41471</v>
+        <v>41517</v>
       </c>
       <c r="F71" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41319</v>
+        <v>41352</v>
       </c>
       <c r="G71" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Deedee@cs2102.com','99','2013-01-25','2013-07-16','2013-02-14');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Deedee@cs2102.com','31','2013-02-11','2013-08-31','2013-03-19');</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -11525,23 +11594,23 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41326</v>
+        <v>41294</v>
       </c>
       <c r="E72" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41487</v>
+        <v>41488</v>
       </c>
       <c r="F72" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41447</v>
+        <v>41318</v>
       </c>
       <c r="G72" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Juanita@cs2102.com','65','2013-02-21','2013-08-01','2013-06-22');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Juanita@cs2102.com','57','2013-01-20','2013-08-02','2013-02-13');</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -11554,23 +11623,23 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D73" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41308</v>
+        <v>41333</v>
       </c>
       <c r="E73" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41516</v>
+        <v>41375</v>
       </c>
       <c r="F73" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41421</v>
+        <v>41338</v>
       </c>
       <c r="G73" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Stanley@cs2102.com','61','2013-02-03','2013-08-30','2013-05-27');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Stanley@cs2102.com','63','2013-02-28','2013-04-11','2013-03-05');</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11583,23 +11652,23 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D74" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41299</v>
+        <v>41320</v>
       </c>
       <c r="E74" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41435</v>
+        <v>41512</v>
       </c>
       <c r="F74" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41314</v>
+        <v>41349</v>
       </c>
       <c r="G74" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Gregory@cs2102.com','57','2013-01-25','2013-06-10','2013-02-09');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Gregory@cs2102.com','55','2013-02-15','2013-08-26','2013-03-16');</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -11612,23 +11681,23 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D75" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41283</v>
+        <v>41332</v>
       </c>
       <c r="E75" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41530</v>
+        <v>41504</v>
       </c>
       <c r="F75" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41425</v>
+        <v>41382</v>
       </c>
       <c r="G75" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jacklyn@cs2102.com','48','2013-01-09','2013-09-13','2013-05-31');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jacklyn@cs2102.com','87','2013-02-27','2013-08-18','2013-04-18');</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -11641,23 +11710,23 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D76" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41301</v>
+        <v>41316</v>
       </c>
       <c r="E76" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41483</v>
+        <v>41528</v>
       </c>
       <c r="F76" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41462</v>
+        <v>41468</v>
       </c>
       <c r="G76" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Madlyn@cs2102.com','16','2013-01-27','2013-07-28','2013-07-07');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Madlyn@cs2102.com','12','2013-02-11','2013-09-11','2013-07-13');</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11670,23 +11739,23 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D77" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41304</v>
+        <v>41286</v>
       </c>
       <c r="E77" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41475</v>
+        <v>41470</v>
       </c>
       <c r="F77" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41445</v>
+        <v>41331</v>
       </c>
       <c r="G77" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Rudolph@cs2102.com','70','2013-01-30','2013-07-20','2013-06-20');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Rudolph@cs2102.com','1','2013-01-12','2013-07-15','2013-02-26');</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11699,23 +11768,23 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D78" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41305</v>
+        <v>41331</v>
       </c>
       <c r="E78" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41447</v>
+        <v>41485</v>
       </c>
       <c r="F78" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41376</v>
+        <v>41399</v>
       </c>
       <c r="G78" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Marybeth@cs2102.com','76','2013-01-31','2013-06-22','2013-04-12');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Marybeth@cs2102.com','71','2013-02-26','2013-07-30','2013-05-05');</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -11728,23 +11797,23 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D79" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41318</v>
+        <v>41282</v>
       </c>
       <c r="E79" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41445</v>
+        <v>41392</v>
       </c>
       <c r="F79" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41343</v>
+        <v>41321</v>
       </c>
       <c r="G79" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lupe@cs2102.com','47','2013-02-13','2013-06-20','2013-03-10');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lupe@cs2102.com','62','2013-01-08','2013-04-28','2013-02-16');</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11757,23 +11826,23 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41329</v>
+        <v>41288</v>
       </c>
       <c r="E80" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41410</v>
+        <v>41365</v>
       </c>
       <c r="F80" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41329</v>
+        <v>41348</v>
       </c>
       <c r="G80" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Adriene@cs2102.com','94','2013-02-24','2013-05-16','2013-02-24');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Adriene@cs2102.com','83','2013-01-14','2013-04-01','2013-03-15');</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11786,23 +11855,23 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41317</v>
+        <v>41320</v>
       </c>
       <c r="E81" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41478</v>
+        <v>41481</v>
       </c>
       <c r="F81" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41460</v>
+        <v>41397</v>
       </c>
       <c r="G81" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Epifania@cs2102.com','53','2013-02-12','2013-07-23','2013-07-05');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Epifania@cs2102.com','91','2013-02-15','2013-07-26','2013-05-03');</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -11815,23 +11884,23 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41283</v>
+        <v>41291</v>
       </c>
       <c r="E82" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41398</v>
+        <v>41419</v>
       </c>
       <c r="F82" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41306</v>
+        <v>41318</v>
       </c>
       <c r="G82" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Mee@cs2102.com','80','2013-01-09','2013-05-04','2013-02-01');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Mee@cs2102.com','23','2013-01-17','2013-05-25','2013-02-13');</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -11844,23 +11913,23 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D83" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41295</v>
+        <v>41332</v>
       </c>
       <c r="E83" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41442</v>
+        <v>41497</v>
       </c>
       <c r="F83" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41307</v>
+        <v>41384</v>
       </c>
       <c r="G83" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Dorene@cs2102.com','32','2013-01-21','2013-06-17','2013-02-02');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Dorene@cs2102.com','61','2013-02-27','2013-08-11','2013-04-20');</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -11873,23 +11942,23 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D84" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41287</v>
+        <v>41318</v>
       </c>
       <c r="E84" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41435</v>
+        <v>41528</v>
       </c>
       <c r="F84" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41395</v>
+        <v>41455</v>
       </c>
       <c r="G84" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cecilia@cs2102.com','37','2013-01-13','2013-06-10','2013-05-01');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cecilia@cs2102.com','65','2013-02-13','2013-09-11','2013-06-30');</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -11902,23 +11971,23 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D85" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41280</v>
+        <v>41328</v>
       </c>
       <c r="E85" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41360</v>
+        <v>41498</v>
       </c>
       <c r="F85" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41345</v>
+        <v>41445</v>
       </c>
       <c r="G85" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Queen@cs2102.com','60','2013-01-06','2013-03-27','2013-03-12');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Queen@cs2102.com','10','2013-02-23','2013-08-12','2013-06-20');</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -11931,23 +12000,23 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D86" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41280</v>
+        <v>41277</v>
       </c>
       <c r="E86" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41513</v>
+        <v>41414</v>
       </c>
       <c r="F86" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41301</v>
+        <v>41286</v>
       </c>
       <c r="G86" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Magali@cs2102.com','58','2013-01-06','2013-08-27','2013-01-27');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Magali@cs2102.com','6','2013-01-03','2013-05-20','2013-01-12');</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -11960,23 +12029,23 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D87" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41288</v>
+        <v>41299</v>
       </c>
       <c r="E87" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41536</v>
+        <v>41499</v>
       </c>
       <c r="F87" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41526</v>
+        <v>41392</v>
       </c>
       <c r="G87" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Felecia@cs2102.com','42','2013-01-14','2013-09-19','2013-09-09');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Felecia@cs2102.com','6','2013-01-25','2013-08-13','2013-04-28');</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -11989,23 +12058,23 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D88" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41280</v>
+        <v>41284</v>
       </c>
       <c r="E88" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41500</v>
+        <v>41453</v>
       </c>
       <c r="F88" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41282</v>
+        <v>41346</v>
       </c>
       <c r="G88" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lavera@cs2102.com','68','2013-01-06','2013-08-14','2013-01-08');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lavera@cs2102.com','58','2013-01-10','2013-06-28','2013-03-13');</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12018,23 +12087,23 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="D89" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41300</v>
+        <v>41312</v>
       </c>
       <c r="E89" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41372</v>
+        <v>41538</v>
       </c>
       <c r="F89" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41359</v>
+        <v>41411</v>
       </c>
       <c r="G89" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Guillermo@cs2102.com','17','2013-01-26','2013-04-08','2013-03-26');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Guillermo@cs2102.com','100','2013-02-07','2013-09-21','2013-05-17');</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12047,23 +12116,23 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D90" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41277</v>
+        <v>41297</v>
       </c>
       <c r="E90" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41485</v>
+        <v>41533</v>
       </c>
       <c r="F90" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41422</v>
+        <v>41305</v>
       </c>
       <c r="G90" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Summer@cs2102.com','94','2013-01-03','2013-07-30','2013-05-28');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Summer@cs2102.com','95','2013-01-23','2013-09-16','2013-01-31');</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12076,23 +12145,23 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D91" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41295</v>
+        <v>41311</v>
       </c>
       <c r="E91" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41505</v>
+        <v>41450</v>
       </c>
       <c r="F91" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41413</v>
+        <v>41425</v>
       </c>
       <c r="G91" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Meagan@cs2102.com','68','2013-01-21','2013-08-19','2013-05-19');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Meagan@cs2102.com','47','2013-02-06','2013-06-25','2013-05-31');</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -12105,23 +12174,23 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D92" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41322</v>
+        <v>41282</v>
       </c>
       <c r="E92" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41499</v>
+        <v>41531</v>
       </c>
       <c r="F92" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41456</v>
+        <v>41320</v>
       </c>
       <c r="G92" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Ronald@cs2102.com','19','2013-02-17','2013-08-13','2013-07-01');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Ronald@cs2102.com','74','2013-01-08','2013-09-14','2013-02-15');</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -12134,23 +12203,23 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D93" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41332</v>
+        <v>41333</v>
       </c>
       <c r="E93" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41431</v>
+        <v>41515</v>
       </c>
       <c r="F93" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41408</v>
+        <v>41428</v>
       </c>
       <c r="G93" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Ricarda@cs2102.com','70','2013-02-27','2013-06-06','2013-05-14');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Ricarda@cs2102.com','33','2013-02-28','2013-08-29','2013-06-03');</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -12163,23 +12232,23 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D94" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41301</v>
+        <v>41323</v>
       </c>
       <c r="E94" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41525</v>
+        <v>41407</v>
       </c>
       <c r="F94" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41324</v>
+        <v>41323</v>
       </c>
       <c r="G94" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Agustin@cs2102.com','67','2013-01-27','2013-09-08','2013-02-19');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Agustin@cs2102.com','84','2013-02-18','2013-05-13','2013-02-18');</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -12192,23 +12261,23 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D95" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41295</v>
+        <v>41308</v>
       </c>
       <c r="E95" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41487</v>
+        <v>41420</v>
       </c>
       <c r="F95" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41340</v>
+        <v>41401</v>
       </c>
       <c r="G95" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lanie@cs2102.com','18','2013-01-21','2013-08-01','2013-03-07');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lanie@cs2102.com','49','2013-02-03','2013-05-26','2013-05-07');</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -12221,23 +12290,23 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D96" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41333</v>
+        <v>41288</v>
       </c>
       <c r="E96" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41370</v>
+        <v>41494</v>
       </c>
       <c r="F96" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41352</v>
+        <v>41378</v>
       </c>
       <c r="G96" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Gianna@cs2102.com','11','2013-02-28','2013-04-06','2013-03-19');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Gianna@cs2102.com','87','2013-01-14','2013-08-08','2013-04-14');</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -12250,23 +12319,23 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="D97" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41334</v>
+        <v>41276</v>
       </c>
       <c r="E97" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41487</v>
+        <v>41519</v>
       </c>
       <c r="F97" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41450</v>
+        <v>41516</v>
       </c>
       <c r="G97" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Eunice@cs2102.com','84','2013-03-01','2013-08-01','2013-06-25');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Eunice@cs2102.com','22','2013-01-02','2013-09-02','2013-08-30');</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12279,23 +12348,23 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D98" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41331</v>
+        <v>41311</v>
       </c>
       <c r="E98" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41357</v>
+        <v>41512</v>
       </c>
       <c r="F98" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41334</v>
+        <v>41504</v>
       </c>
       <c r="G98" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Regenia@cs2102.com','28','2013-02-26','2013-03-24','2013-03-01');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Regenia@cs2102.com','74','2013-02-06','2013-08-26','2013-08-18');</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -12308,23 +12377,23 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D99" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41328</v>
+        <v>41308</v>
       </c>
       <c r="E99" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41542</v>
+        <v>41418</v>
       </c>
       <c r="F99" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41356</v>
+        <v>41369</v>
       </c>
       <c r="G99" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Olene@cs2102.com','69','2013-02-23','2013-09-25','2013-03-23');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Olene@cs2102.com','91','2013-02-03','2013-05-24','2013-04-05');</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12337,23 +12406,23 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D100" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41322</v>
+        <v>41319</v>
       </c>
       <c r="E100" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41452</v>
+        <v>41412</v>
       </c>
       <c r="F100" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41328</v>
+        <v>41392</v>
       </c>
       <c r="G100" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('America@cs2102.com','8','2013-02-17','2013-06-27','2013-02-23');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('America@cs2102.com','46','2013-02-14','2013-05-18','2013-04-28');</v>
       </c>
     </row>
   </sheetData>
@@ -12467,8 +12536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12494,7 +12563,7 @@
       </c>
       <c r="E1" s="4">
         <f ca="1">Rating!C10</f>
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12507,7 +12576,7 @@
       </c>
       <c r="C2" s="4">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">RANDBETWEEN(1,5)</f>
@@ -12515,7 +12584,7 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">CONCATENATE("INSERT INTO Likes (customer,item,rating) VALUES (","'",B2,"'",",",C2,"",",);")</f>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Charley@cs2102.com',36,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Charley@cs2102.com',81,);</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12528,15 +12597,15 @@
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D66" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E66" ca="1" si="2">CONCATENATE("INSERT INTO Likes (customer,item,rating) VALUES (","'",B3,"'",",",C3,"",",);")</f>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Aurore@cs2102.com',10,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Aurore@cs2102.com',24,);</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12549,15 +12618,15 @@
       </c>
       <c r="C4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Asha@cs2102.com',89,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Asha@cs2102.com',10,);</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12570,7 +12639,7 @@
       </c>
       <c r="C5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -12578,7 +12647,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Kandi@cs2102.com',76,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Kandi@cs2102.com',15,);</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12591,15 +12660,15 @@
       </c>
       <c r="C6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Jeanett@cs2102.com',8,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Jeanett@cs2102.com',83,);</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12612,15 +12681,15 @@
       </c>
       <c r="C7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Pam@cs2102.com',26,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Pam@cs2102.com',21,);</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12633,7 +12702,7 @@
       </c>
       <c r="C8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -12641,7 +12710,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Cristobal@cs2102.com',82,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Cristobal@cs2102.com',44,);</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12654,15 +12723,15 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Kelly@cs2102.com',42,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Kelly@cs2102.com',77,);</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -12675,15 +12744,15 @@
       </c>
       <c r="C10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Jacalyn@cs2102.com',62,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Jacalyn@cs2102.com',51,);</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12696,15 +12765,15 @@
       </c>
       <c r="C11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Norene@cs2102.com',67,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Norene@cs2102.com',98,);</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -12717,15 +12786,15 @@
       </c>
       <c r="C12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Benita@cs2102.com',81,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Benita@cs2102.com',70,);</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12738,15 +12807,15 @@
       </c>
       <c r="C13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Julieann@cs2102.com',32,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Julieann@cs2102.com',97,);</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12759,15 +12828,15 @@
       </c>
       <c r="C14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Florencio@cs2102.com',51,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Florencio@cs2102.com',59,);</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -12780,7 +12849,7 @@
       </c>
       <c r="C15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -12788,7 +12857,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Lilia@cs2102.com',25,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Lilia@cs2102.com',6,);</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -12801,15 +12870,15 @@
       </c>
       <c r="C16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Erik@cs2102.com',14,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Erik@cs2102.com',80,);</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -12822,15 +12891,15 @@
       </c>
       <c r="C17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Han@cs2102.com',10,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Han@cs2102.com',67,);</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -12843,15 +12912,15 @@
       </c>
       <c r="C18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Rosalie@cs2102.com',63,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Rosalie@cs2102.com',11,);</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -12864,15 +12933,15 @@
       </c>
       <c r="C19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Lili@cs2102.com',92,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Lili@cs2102.com',84,);</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -12885,15 +12954,15 @@
       </c>
       <c r="C20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Arletha@cs2102.com',1,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Arletha@cs2102.com',26,);</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12906,15 +12975,15 @@
       </c>
       <c r="C21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Esperanza@cs2102.com',52,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Esperanza@cs2102.com',18,);</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12927,15 +12996,15 @@
       </c>
       <c r="C22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Magdalena@cs2102.com',74,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Magdalena@cs2102.com',35,);</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -12948,15 +13017,15 @@
       </c>
       <c r="C23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Shizue@cs2102.com',79,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Shizue@cs2102.com',74,);</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -12969,15 +13038,15 @@
       </c>
       <c r="C24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Keisha@cs2102.com',73,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Keisha@cs2102.com',91,);</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12990,15 +13059,15 @@
       </c>
       <c r="C25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Eufemia@cs2102.com',51,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Eufemia@cs2102.com',48,);</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -13011,15 +13080,15 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Jan@cs2102.com',61,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Jan@cs2102.com',28,);</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -13032,7 +13101,7 @@
       </c>
       <c r="C27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -13040,7 +13109,7 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Maud@cs2102.com',46,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Maud@cs2102.com',31,);</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13053,15 +13122,15 @@
       </c>
       <c r="C28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Jefferson@cs2102.com',4,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Jefferson@cs2102.com',45,);</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -13074,7 +13143,7 @@
       </c>
       <c r="C29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -13082,7 +13151,7 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Kenia@cs2102.com',45,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Kenia@cs2102.com',77,);</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -13095,15 +13164,15 @@
       </c>
       <c r="C30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Cyrus@cs2102.com',96,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Cyrus@cs2102.com',57,);</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13116,7 +13185,7 @@
       </c>
       <c r="C31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -13124,7 +13193,7 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Carmela@cs2102.com',30,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Carmela@cs2102.com',12,);</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -13137,15 +13206,15 @@
       </c>
       <c r="C32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Lloyd@cs2102.com',66,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Lloyd@cs2102.com',78,);</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13158,15 +13227,15 @@
       </c>
       <c r="C33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Pamelia@cs2102.com',85,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Pamelia@cs2102.com',46,);</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -13179,15 +13248,15 @@
       </c>
       <c r="C34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Aleida@cs2102.com',62,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Aleida@cs2102.com',9,);</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13200,15 +13269,15 @@
       </c>
       <c r="C35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Susanna@cs2102.com',96,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Susanna@cs2102.com',28,);</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -13221,15 +13290,15 @@
       </c>
       <c r="C36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Kate@cs2102.com',2,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Kate@cs2102.com',4,);</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -13242,15 +13311,15 @@
       </c>
       <c r="C37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Shanita@cs2102.com',97,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Shanita@cs2102.com',60,);</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -13263,15 +13332,15 @@
       </c>
       <c r="C38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Liliana@cs2102.com',19,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Liliana@cs2102.com',99,);</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -13284,15 +13353,15 @@
       </c>
       <c r="C39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Fermin@cs2102.com',92,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Fermin@cs2102.com',19,);</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -13305,15 +13374,15 @@
       </c>
       <c r="C40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Reda@cs2102.com',92,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Reda@cs2102.com',99,);</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -13326,15 +13395,15 @@
       </c>
       <c r="C41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Hildred@cs2102.com',48,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Hildred@cs2102.com',49,);</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -13347,15 +13416,15 @@
       </c>
       <c r="C42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Kallie@cs2102.com',57,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Kallie@cs2102.com',83,);</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13368,7 +13437,7 @@
       </c>
       <c r="C43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -13376,7 +13445,7 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Dominga@cs2102.com',33,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Dominga@cs2102.com',61,);</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13389,15 +13458,15 @@
       </c>
       <c r="C44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Dwayne@cs2102.com',6,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Dwayne@cs2102.com',36,);</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -13410,15 +13479,15 @@
       </c>
       <c r="C45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Rona@cs2102.com',100,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Rona@cs2102.com',46,);</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -13431,15 +13500,15 @@
       </c>
       <c r="C46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D46" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Roger@cs2102.com',42,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Roger@cs2102.com',33,);</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13452,15 +13521,15 @@
       </c>
       <c r="C47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Abraham@cs2102.com',16,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Abraham@cs2102.com',17,);</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -13473,15 +13542,15 @@
       </c>
       <c r="C48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="D48" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Creola@cs2102.com',30,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Creola@cs2102.com',81,);</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -13494,15 +13563,15 @@
       </c>
       <c r="C49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D49" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Toi@cs2102.com',55,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Toi@cs2102.com',72,);</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13515,15 +13584,15 @@
       </c>
       <c r="C50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="D50" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Nichelle@cs2102.com',40,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Nichelle@cs2102.com',97,);</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -13536,15 +13605,15 @@
       </c>
       <c r="C51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Elvina@cs2102.com',19,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Elvina@cs2102.com',78,);</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13557,15 +13626,15 @@
       </c>
       <c r="C52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D52" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Mitsuko@cs2102.com',28,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Mitsuko@cs2102.com',1,);</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -13578,15 +13647,15 @@
       </c>
       <c r="C53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D53" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Helaine@cs2102.com',15,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Helaine@cs2102.com',44,);</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13599,15 +13668,15 @@
       </c>
       <c r="C54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D54" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Fredericka@cs2102.com',19,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Fredericka@cs2102.com',62,);</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -13620,7 +13689,7 @@
       </c>
       <c r="C55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="D55" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -13628,7 +13697,7 @@
       </c>
       <c r="E55" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Deb@cs2102.com',71,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Deb@cs2102.com',96,);</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -13641,15 +13710,15 @@
       </c>
       <c r="C56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D56" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Raven@cs2102.com',61,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Raven@cs2102.com',81,);</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13662,7 +13731,7 @@
       </c>
       <c r="C57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="D57" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -13670,7 +13739,7 @@
       </c>
       <c r="E57" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Epifania@cs2102.com',75,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Epifania@cs2102.com',17,);</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -13683,15 +13752,15 @@
       </c>
       <c r="C58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Wava@cs2102.com',97,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Wava@cs2102.com',27,);</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -13704,7 +13773,7 @@
       </c>
       <c r="C59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D59" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -13712,7 +13781,7 @@
       </c>
       <c r="E59" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Jenifer@cs2102.com',53,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Jenifer@cs2102.com',47,);</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -13725,15 +13794,15 @@
       </c>
       <c r="C60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D60" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Imelda@cs2102.com',56,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Imelda@cs2102.com',62,);</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -13746,15 +13815,15 @@
       </c>
       <c r="C61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D61" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Cherish@cs2102.com',5,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Cherish@cs2102.com',73,);</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -13767,15 +13836,15 @@
       </c>
       <c r="C62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D62" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Marcel@cs2102.com',93,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Marcel@cs2102.com',83,);</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13788,15 +13857,15 @@
       </c>
       <c r="C63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D63" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Alethea@cs2102.com',81,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Alethea@cs2102.com',77,);</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -13809,7 +13878,7 @@
       </c>
       <c r="C64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D64" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -13817,7 +13886,7 @@
       </c>
       <c r="E64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Felica@cs2102.com',61,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Felica@cs2102.com',24,);</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -13830,15 +13899,15 @@
       </c>
       <c r="C65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D65" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Reatha@cs2102.com',17,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Reatha@cs2102.com',56,);</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -13851,15 +13920,15 @@
       </c>
       <c r="C66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D66" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Velia@cs2102.com',73,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Velia@cs2102.com',33,);</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -13872,15 +13941,15 @@
       </c>
       <c r="C67" s="4">
         <f t="shared" ref="C67:C100" ca="1" si="3">RANDBETWEEN(1,100)</f>
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D67" s="4">
         <f t="shared" ref="D67:D100" ca="1" si="4">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ref="E67:E100" ca="1" si="5">CONCATENATE("INSERT INTO Likes (customer,item,rating) VALUES (","'",B67,"'",",",C67,"",",);")</f>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Crista@cs2102.com',21,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Crista@cs2102.com',66,);</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -13893,15 +13962,15 @@
       </c>
       <c r="C68" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D68" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Keesha@cs2102.com',62,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Keesha@cs2102.com',12,);</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13914,7 +13983,7 @@
       </c>
       <c r="C69" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D69" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -13922,7 +13991,7 @@
       </c>
       <c r="E69" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Pandora@cs2102.com',53,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Pandora@cs2102.com',23,);</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -13935,15 +14004,15 @@
       </c>
       <c r="C70" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D70" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Raguel@cs2102.com',68,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Raguel@cs2102.com',92,);</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13956,7 +14025,7 @@
       </c>
       <c r="C71" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D71" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -13964,7 +14033,7 @@
       </c>
       <c r="E71" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Deedee@cs2102.com',80,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Deedee@cs2102.com',72,);</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -13977,15 +14046,15 @@
       </c>
       <c r="C72" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D72" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Juanita@cs2102.com',29,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Juanita@cs2102.com',53,);</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -13998,15 +14067,15 @@
       </c>
       <c r="C73" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D73" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Stanley@cs2102.com',36,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Stanley@cs2102.com',80,);</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14019,15 +14088,15 @@
       </c>
       <c r="C74" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D74" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Gregory@cs2102.com',84,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Gregory@cs2102.com',45,);</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -14040,7 +14109,7 @@
       </c>
       <c r="C75" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D75" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -14048,7 +14117,7 @@
       </c>
       <c r="E75" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Jacklyn@cs2102.com',43,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Jacklyn@cs2102.com',51,);</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -14061,15 +14130,15 @@
       </c>
       <c r="C76" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D76" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Madlyn@cs2102.com',13,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Madlyn@cs2102.com',51,);</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14082,15 +14151,15 @@
       </c>
       <c r="C77" s="4">
         <f t="shared" ca="1" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="D77" s="4">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="D77" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
       <c r="E77" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Rudolph@cs2102.com',1,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Rudolph@cs2102.com',47,);</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14103,15 +14172,15 @@
       </c>
       <c r="C78" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="D78" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Marybeth@cs2102.com',72,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Marybeth@cs2102.com',6,);</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -14124,15 +14193,15 @@
       </c>
       <c r="C79" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="D79" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Lupe@cs2102.com',82,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Lupe@cs2102.com',32,);</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14145,15 +14214,15 @@
       </c>
       <c r="C80" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D80" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Adriene@cs2102.com',56,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Adriene@cs2102.com',44,);</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14166,15 +14235,15 @@
       </c>
       <c r="C81" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D81" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Epifania@cs2102.com',7,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Epifania@cs2102.com',39,);</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -14187,15 +14256,15 @@
       </c>
       <c r="C82" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D82" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Mee@cs2102.com',74,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Mee@cs2102.com',98,);</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -14208,15 +14277,15 @@
       </c>
       <c r="C83" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D83" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Dorene@cs2102.com',37,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Dorene@cs2102.com',62,);</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -14229,15 +14298,15 @@
       </c>
       <c r="C84" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="D84" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Cecilia@cs2102.com',46,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Cecilia@cs2102.com',94,);</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -14250,15 +14319,15 @@
       </c>
       <c r="C85" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="D85" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Queen@cs2102.com',98,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Queen@cs2102.com',66,);</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -14271,15 +14340,15 @@
       </c>
       <c r="C86" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D86" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Magali@cs2102.com',5,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Magali@cs2102.com',24,);</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -14292,7 +14361,7 @@
       </c>
       <c r="C87" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D87" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -14300,7 +14369,7 @@
       </c>
       <c r="E87" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Felecia@cs2102.com',84,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Felecia@cs2102.com',20,);</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -14313,15 +14382,15 @@
       </c>
       <c r="C88" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D88" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Lavera@cs2102.com',64,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Lavera@cs2102.com',80,);</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14334,15 +14403,15 @@
       </c>
       <c r="C89" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D89" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Guillermo@cs2102.com',100,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Guillermo@cs2102.com',98,);</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14355,7 +14424,7 @@
       </c>
       <c r="C90" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D90" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -14363,7 +14432,7 @@
       </c>
       <c r="E90" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Summer@cs2102.com',98,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Summer@cs2102.com',30,);</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14376,15 +14445,15 @@
       </c>
       <c r="C91" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D91" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Meagan@cs2102.com',76,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Meagan@cs2102.com',81,);</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -14397,7 +14466,7 @@
       </c>
       <c r="C92" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="D92" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -14405,7 +14474,7 @@
       </c>
       <c r="E92" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Ronald@cs2102.com',95,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Ronald@cs2102.com',21,);</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -14418,7 +14487,7 @@
       </c>
       <c r="C93" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D93" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -14426,7 +14495,7 @@
       </c>
       <c r="E93" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Ricarda@cs2102.com',15,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Ricarda@cs2102.com',60,);</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -14439,7 +14508,7 @@
       </c>
       <c r="C94" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="D94" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -14447,7 +14516,7 @@
       </c>
       <c r="E94" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Agustin@cs2102.com',79,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Agustin@cs2102.com',43,);</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -14460,15 +14529,15 @@
       </c>
       <c r="C95" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D95" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Lanie@cs2102.com',65,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Lanie@cs2102.com',56,);</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -14481,15 +14550,15 @@
       </c>
       <c r="C96" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D96" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Gianna@cs2102.com',9,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Gianna@cs2102.com',40,);</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -14502,15 +14571,15 @@
       </c>
       <c r="C97" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="D97" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Eunice@cs2102.com',53,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Eunice@cs2102.com',99,);</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14523,7 +14592,7 @@
       </c>
       <c r="C98" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D98" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -14531,7 +14600,7 @@
       </c>
       <c r="E98" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Regenia@cs2102.com',46,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Regenia@cs2102.com',45,);</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -14544,15 +14613,15 @@
       </c>
       <c r="C99" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D99" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Olene@cs2102.com',6,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Olene@cs2102.com',4,);</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14565,15 +14634,15 @@
       </c>
       <c r="C100" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D100" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('America@cs2102.com',43,);</v>
+        <v>INSERT INTO Likes (customer,item,rating) VALUES ('America@cs2102.com',31,);</v>
       </c>
     </row>
   </sheetData>

--- a/populate.xlsx
+++ b/populate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H81" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J101"/>
+    <sheetView topLeftCell="H81" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,11 +1206,11 @@
       </c>
       <c r="I2" s="6">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="str">
-        <f t="shared" ref="J2:J65" ca="1" si="0">CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",F:F,"',",G:G,",",H:H,",",I:I,");")</f>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (1,'Expense Manager','App','Lifestyle','Andriod','2014-01-01',0,0,43);</v>
+        <f t="shared" ref="J2:J7" ca="1" si="0">CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",F:F,"',",G:G,",",H:H,",",I:I,");")</f>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (1,'Expense Manager','App','Lifestyle','Andriod','2014-01-01',0,0,38);</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1240,11 +1240,11 @@
       </c>
       <c r="I3" s="6">
         <f t="shared" ref="I3:I66" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (2,'EverNote','App','Productivity','iOS','2013-04-03',0.99,0,14);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (2,'EverNote','App','Productivity','iOS','2013-04-03',0.99,0,17);</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1274,11 +1274,11 @@
       </c>
       <c r="I4" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (3,'Scandal Season 1','TV','Thriller','None','2014-01-02',20,6,26);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (3,'Scandal Season 1','TV','Thriller','None','2014-01-02',20,6,41);</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="I5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (4,'Suits Season 1','TV','Drama','None','2014-01-03',20,9,45);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (4,'Suits Season 1','TV','Drama','None','2014-01-03',20,9,8);</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1342,11 +1342,11 @@
       </c>
       <c r="I6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="J6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (5,'Brave Frontier','Game','RPG','Andriod','2013-02-23',0,0,94);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (5,'Brave Frontier','Game','RPG','Andriod','2013-02-23',0,0,42);</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1376,11 +1376,11 @@
       </c>
       <c r="I7" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="J7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (6,'The Hobbit: An Unexpected Journey','Movie','Fantasy','DVD','2012-12-15',30,13,66);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (6,'The Hobbit: An Unexpected Journey','Movie','Fantasy','DVD','2012-12-15',30,13,40);</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1401,23 +1401,23 @@
       </c>
       <c r="F8" s="9">
         <f ca="1">RANDBETWEEN(DATE(2013, 1, 1),DATE(2015, 3, 1))</f>
-        <v>41361</v>
+        <v>41787</v>
       </c>
       <c r="G8" s="5">
         <f ca="1">RANDBETWEEN(5, 60)</f>
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="H8" s="5">
         <f ca="1">RANDBETWEEN(0.01, 4.99)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J8" s="2" t="str">
         <f ca="1">CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",TEXT(F:F,"yyyy-mm-dd"),"',",G:G,",",H:H,",",I:I,");")</f>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (7,'Memorado','App','Lifestyle','iOS','2013-03-28',33,4,83);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (7,'Memorado','App','Lifestyle','iOS','2014-05-28',54,1,86);</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1438,23 +1438,23 @@
       </c>
       <c r="F9" s="9">
         <f t="shared" ref="F9:F72" ca="1" si="2">RANDBETWEEN(DATE(2013, 1, 1),DATE(2015, 3, 1))</f>
-        <v>41446</v>
+        <v>41816</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" ref="G9:G72" ca="1" si="3">RANDBETWEEN(0.01, 60)</f>
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ref="H9:H72" ca="1" si="4">RANDBETWEEN(0.01, 4.99)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="J9" s="2" t="str">
         <f t="shared" ref="J9:J72" ca="1" si="5">CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",TEXT(F:F,"yyyy-mm-dd"),"',",G:G,",",H:H,",",I:I,");")</f>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (8,'Learn Spanish, English, French','App','Productivity','Andriod','2013-06-21',50,4,86);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (8,'Learn Spanish, English, French','App','Productivity','Andriod','2014-06-26',24,2,21);</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1475,23 +1475,23 @@
       </c>
       <c r="F10" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41323</v>
+        <v>41468</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (9,'DIY Human Body','App','Lifestyle','PC','2013-02-18',31,1,75);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (9,'DIY Human Body','App','Lifestyle','PC','2013-07-13',43,2,49);</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1512,11 +1512,11 @@
       </c>
       <c r="F11" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41957</v>
+        <v>41331</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -1524,11 +1524,11 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (10,'RefMe','App','Productivity','iOS','2014-11-14',52,4,61);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (10,'RefMe','App','Productivity','iOS','2013-02-26',27,4,70);</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1549,23 +1549,23 @@
       </c>
       <c r="F12" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41796</v>
+        <v>41408</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J12" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (11,'Duolingo','App','Lifestyle','Andriod','2014-06-06',9,2,26);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (11,'Duolingo','App','Lifestyle','Andriod','2013-05-14',52,4,23);</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1586,23 +1586,23 @@
       </c>
       <c r="F13" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41700</v>
+        <v>41857</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (12,'Peak - Brain Training','App','Productivity','PC','2014-03-02',29,3,58);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (12,'Peak - Brain Training','App','Productivity','PC','2014-08-06',45,1,47);</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1623,11 +1623,11 @@
       </c>
       <c r="F14" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41837</v>
+        <v>41290</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -1635,11 +1635,11 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="J14" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (13,'IELTS 1001 ways','App','Lifestyle','iOS','2014-07-17',13,1,89);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (13,'IELTS 1001 ways','App','Lifestyle','iOS','2013-01-16',46,1,33);</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1660,23 +1660,23 @@
       </c>
       <c r="F15" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41795</v>
+        <v>41595</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="H15" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
       <c r="I15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (14,'Explain Everything','App','Productivity','Andriod','2014-06-05',1,2,28);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (14,'Explain Everything','App','Productivity','Andriod','2013-11-17',10,1,0);</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1697,11 +1697,11 @@
       </c>
       <c r="F16" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41545</v>
+        <v>41810</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -1709,11 +1709,11 @@
       </c>
       <c r="I16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="J16" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (15,'Lumosity Mobile','App','Lifestyle','PC','2013-09-28',40,3,44);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (15,'Lumosity Mobile','App','Lifestyle','PC','2014-06-20',28,3,10);</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1734,23 +1734,23 @@
       </c>
       <c r="F17" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41890</v>
+        <v>41492</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="J17" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (16,'PhotoMath','App','Productivity','iOS','2014-09-08',52,4,63);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (16,'PhotoMath','App','Productivity','iOS','2013-08-06',43,3,26);</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1771,23 +1771,23 @@
       </c>
       <c r="F18" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41950</v>
+        <v>41973</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="J18" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (17,'Molecules by Theodore Gray','App','Lifestyle','Andriod','2014-11-07',46,3,68);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (17,'Molecules by Theodore Gray','App','Lifestyle','Andriod','2014-11-30',47,1,26);</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1808,23 +1808,23 @@
       </c>
       <c r="F19" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41621</v>
+        <v>41289</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J19" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (18,'LearnEnglish Kids: Playtime','App','Productivity','PC','2013-12-13',24,1,17);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (18,'LearnEnglish Kids: Playtime','App','Productivity','PC','2013-01-15',12,4,10);</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1845,23 +1845,23 @@
       </c>
       <c r="F20" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41566</v>
+        <v>41767</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J20" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (19,'Night Sky Pro','App','Lifestyle','iOS','2013-10-19',49,3,11);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (19,'Night Sky Pro','App','Lifestyle','iOS','2014-05-08',55,4,34);</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1882,23 +1882,23 @@
       </c>
       <c r="F21" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41467</v>
+        <v>41437</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="J21" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (20,'Collins English Dictionary','App','Productivity','Andriod','2013-07-12',22,4,5);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (20,'Collins English Dictionary','App','Productivity','Andriod','2013-06-12',56,3,96);</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1919,23 +1919,23 @@
       </c>
       <c r="F22" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41362</v>
+        <v>41671</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J22" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (21,'Game of Thrones','TV','Thriller','None','2013-03-29',24,1,60);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (21,'Game of Thrones','TV','Thriller','None','2014-02-01',48,2,88);</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1956,11 +1956,11 @@
       </c>
       <c r="F23" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41541</v>
+        <v>41447</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -1968,11 +1968,11 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="J23" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (22,'Arrow','TV','Drama','None','2013-09-24',27,4,18);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (22,'Arrow','TV','Drama','None','2013-06-22',9,4,70);</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1993,11 +1993,11 @@
       </c>
       <c r="F24" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41497</v>
+        <v>41802</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2005,11 +2005,11 @@
       </c>
       <c r="I24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="J24" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (23,'Marvel's Agents Of S.H.I.E.L.D','TV','Horror','None','2013-08-11',24,1,45);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (23,'Marvel's Agents Of S.H.I.E.L.D','TV','Horror','None','2014-06-12',45,1,76);</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2030,23 +2030,23 @@
       </c>
       <c r="F25" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41283</v>
+        <v>41926</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="J25" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (24,'Grey's Anatomy','TV','Science','None','2013-01-09',45,4,88);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (24,'Grey's Anatomy','TV','Science','None','2014-10-14',44,1,16);</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2067,23 +2067,23 @@
       </c>
       <c r="F26" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41512</v>
+        <v>41729</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="J26" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (25,'Coronation Street','TV','Thriller','None','2013-08-26',31,2,20);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (25,'Coronation Street','TV','Thriller','None','2014-03-31',53,1,65);</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2104,23 +2104,23 @@
       </c>
       <c r="F27" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41946</v>
+        <v>41340</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="J27" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (26,'The Vampire Diaries','TV','Drama','None','2014-11-03',45,3,19);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (26,'The Vampire Diaries','TV','Drama','None','2013-03-07',37,4,63);</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2141,23 +2141,23 @@
       </c>
       <c r="F28" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41721</v>
+        <v>41989</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="J28" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (27,'The Big Bang Theory','TV','Horror','None','2014-03-23',45,2,39);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (27,'The Big Bang Theory','TV','Horror','None','2014-12-16',58,4,84);</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2178,23 +2178,23 @@
       </c>
       <c r="F29" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41296</v>
+        <v>41702</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="J29" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (28,'Supernatural','TV','Science','None','2013-01-22',9,3,70);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (28,'Supernatural','TV','Science','None','2014-03-04',8,2,43);</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2215,23 +2215,23 @@
       </c>
       <c r="F30" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41342</v>
+        <v>41582</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J30" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (29,'How I Met Your Mother','TV','Thriller','None','2013-03-09',46,3,35);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (29,'How I Met Your Mother','TV','Thriller','None','2013-11-04',40,1,41);</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2252,11 +2252,11 @@
       </c>
       <c r="F31" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41505</v>
+        <v>41573</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2264,11 +2264,11 @@
       </c>
       <c r="I31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J31" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (30,'Once Upon a Time','TV','Drama','None','2013-08-19',13,3,41);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (30,'Once Upon a Time','TV','Drama','None','2013-10-26',57,3,33);</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2289,23 +2289,23 @@
       </c>
       <c r="F32" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41777</v>
+        <v>41811</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="J32" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (31,'Criminal Minds','TV','Horror','None','2014-05-18',23,3,88);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (31,'Criminal Minds','TV','Horror','None','2014-06-21',42,2,40);</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2326,23 +2326,23 @@
       </c>
       <c r="F33" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42054</v>
+        <v>41879</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="J33" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (32,'The Blacklist','TV','Science','None','2015-02-19',42,3,15);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (32,'The Blacklist','TV','Science','None','2014-08-28',13,4,85);</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2363,23 +2363,23 @@
       </c>
       <c r="F34" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41277</v>
+        <v>41408</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J34" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (33,'The 100','TV','Thriller','None','2013-01-03',14,2,29);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (33,'The 100','TV','Thriller','None','2013-05-14',20,3,8);</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2400,23 +2400,23 @@
       </c>
       <c r="F35" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41709</v>
+        <v>42020</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J35" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (34,'The Mentalist','TV','Drama','None','2014-03-11',3,1,91);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (34,'The Mentalist','TV','Drama','None','2015-01-16',27,4,61);</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2437,23 +2437,23 @@
       </c>
       <c r="F36" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41885</v>
+        <v>41698</v>
       </c>
       <c r="G36" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J36" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (35,'The Good Wife','TV','Horror','None','2014-09-03',19,2,3);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (35,'The Good Wife','TV','Horror','None','2014-02-28',35,4,53);</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2474,11 +2474,11 @@
       </c>
       <c r="F37" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41486</v>
+        <v>41386</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2486,11 +2486,11 @@
       </c>
       <c r="I37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="J37" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (36,'NCIS','TV','Science','None','2013-07-31',29,3,64);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (36,'NCIS','TV','Science','None','2013-04-22',13,3,75);</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2511,11 +2511,11 @@
       </c>
       <c r="F38" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41655</v>
+        <v>41276</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2523,11 +2523,11 @@
       </c>
       <c r="I38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="J38" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (37,'Vikings','TV','Thriller','None','2014-01-16',15,2,62);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (37,'Vikings','TV','Thriller','None','2013-01-02',60,2,41);</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2548,23 +2548,23 @@
       </c>
       <c r="F39" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41937</v>
+        <v>41313</v>
       </c>
       <c r="G39" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J39" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (38,'Castle','TV','Drama','None','2014-10-25',23,4,57);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (38,'Castle','TV','Drama','None','2013-02-08',4,3,64);</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2585,11 +2585,11 @@
       </c>
       <c r="F40" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41866</v>
+        <v>41778</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H40" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2597,11 +2597,11 @@
       </c>
       <c r="I40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="J40" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (39,'Revenge','TV','Horror','None','2014-08-15',8,3,71);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (39,'Revenge','TV','Horror','None','2014-05-19',15,3,51);</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2622,23 +2622,23 @@
       </c>
       <c r="F41" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41818</v>
+        <v>41456</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H41" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="J41" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (40,'Bones','TV','Science','None','2014-06-28',25,3,92);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (40,'Bones','TV','Science','None','2013-07-01',20,1,33);</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2659,23 +2659,23 @@
       </c>
       <c r="F42" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41447</v>
+        <v>41399</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="J42" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (41,'Final Fantasy XIII','Game','null','PC','2013-06-22',55,3,66);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (41,'Final Fantasy XIII','Game','null','PC','2013-05-05',58,4,48);</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2696,11 +2696,11 @@
       </c>
       <c r="F43" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41956</v>
+        <v>41895</v>
       </c>
       <c r="G43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H43" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2708,11 +2708,11 @@
       </c>
       <c r="I43" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J43" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (42,'Final Fantasy XIII-2','Game','null','PC','2014-11-13',29,1,71);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (42,'Final Fantasy XIII-2','Game','null','PC','2014-09-13',50,1,61);</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2733,11 +2733,11 @@
       </c>
       <c r="F44" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42055</v>
+        <v>41755</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2745,11 +2745,11 @@
       </c>
       <c r="I44" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="J44" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (43,'Final Fantasy: Lightning Returns','Game','null','PC','2015-02-20',2,3,36);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (43,'Final Fantasy: Lightning Returns','Game','null','PC','2014-04-26',59,3,65);</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2770,11 +2770,11 @@
       </c>
       <c r="F45" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41428</v>
+        <v>41596</v>
       </c>
       <c r="G45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H45" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="I45" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="J45" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (44,'Clash of Clans','Game','null','iOS','2013-06-03',39,3,55);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (44,'Clash of Clans','Game','null','iOS','2013-11-18',34,3,29);</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2807,23 +2807,23 @@
       </c>
       <c r="F46" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41902</v>
+        <v>41733</v>
       </c>
       <c r="G46" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="J46" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (45,'Angry Birds','Game','null','Andriod','2014-09-20',46,4,26);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (45,'Angry Birds','Game','null','Andriod','2014-04-04',44,1,66);</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2844,23 +2844,23 @@
       </c>
       <c r="F47" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41894</v>
+        <v>41430</v>
       </c>
       <c r="G47" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H47" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="J47" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (46,'Defense of the Ancients','Game','null','PC','2014-09-12',22,2,31);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (46,'Defense of the Ancients','Game','null','PC','2013-06-05',3,3,69);</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2881,11 +2881,11 @@
       </c>
       <c r="F48" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42004</v>
+        <v>41670</v>
       </c>
       <c r="G48" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H48" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2893,11 +2893,11 @@
       </c>
       <c r="I48" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="J48" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (47,'Card Craawl','Game','null','iOS','2014-12-31',21,2,77);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (47,'Card Craawl','Game','null','iOS','2014-01-31',23,2,35);</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2918,11 +2918,11 @@
       </c>
       <c r="F49" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41550</v>
+        <v>41288</v>
       </c>
       <c r="G49" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H49" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2930,11 +2930,11 @@
       </c>
       <c r="I49" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J49" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (48,'Word Shark','Game','null','Andriod','2013-10-03',35,2,93);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (48,'Word Shark','Game','null','Andriod','2013-01-14',39,2,90);</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2955,23 +2955,23 @@
       </c>
       <c r="F50" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41348</v>
+        <v>41930</v>
       </c>
       <c r="G50" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="H50" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="J50" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (49,'Shadow of Mordor','Game','null','PC','2013-03-15',54,3,36);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (49,'Shadow of Mordor','Game','null','PC','2014-10-18',28,1,97);</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2992,23 +2992,23 @@
       </c>
       <c r="F51" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41337</v>
+        <v>41650</v>
       </c>
       <c r="G51" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H51" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="J51" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (50,'Dotello','Game','null','iOS','2013-03-04',20,1,2);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (50,'Dotello','Game','null','iOS','2014-01-11',49,3,96);</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3029,23 +3029,23 @@
       </c>
       <c r="F52" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41400</v>
+        <v>42026</v>
       </c>
       <c r="G52" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H52" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="J52" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (51,'Hero Sky','Game','null','Andriod','2013-05-06',42,3,66);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (51,'Hero Sky','Game','null','Andriod','2015-01-22',5,2,35);</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3066,11 +3066,11 @@
       </c>
       <c r="F53" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41746</v>
+        <v>41943</v>
       </c>
       <c r="G53" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H53" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -3078,11 +3078,11 @@
       </c>
       <c r="I53" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J53" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (52,'Green the Planet','Game','null','PC','2014-04-17',7,4,63);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (52,'Green the Planet','Game','null','PC','2014-10-31',13,4,55);</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3103,23 +3103,23 @@
       </c>
       <c r="F54" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41551</v>
+        <v>41783</v>
       </c>
       <c r="G54" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H54" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (53,'Paper Monsters Recut','Game','null','iOS','2013-10-04',6,3,42);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (53,'Paper Monsters Recut','Game','null','iOS','2014-05-24',14,2,72);</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3140,23 +3140,23 @@
       </c>
       <c r="F55" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41608</v>
+        <v>41759</v>
       </c>
       <c r="G55" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H55" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I55" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J55" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (54,'rop','Game','null','Andriod','2013-11-30',11,2,82);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (54,'rop','Game','null','Andriod','2014-04-30',33,3,85);</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3177,23 +3177,23 @@
       </c>
       <c r="F56" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41529</v>
+        <v>41739</v>
       </c>
       <c r="G56" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H56" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="J56" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (55,'Sick Bricks','Game','null','PC','2013-09-12',50,3,53);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (55,'Sick Bricks','Game','null','PC','2014-04-10',49,1,80);</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3214,23 +3214,23 @@
       </c>
       <c r="F57" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41948</v>
+        <v>42010</v>
       </c>
       <c r="G57" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H57" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I57" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="J57" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (56,'Contract Killer','Game','null','iOS','2014-11-05',25,2,4);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (56,'Contract Killer','Game','null','iOS','2015-01-06',44,4,67);</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3251,23 +3251,23 @@
       </c>
       <c r="F58" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42055</v>
+        <v>41576</v>
       </c>
       <c r="G58" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H58" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I58" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J58" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (57,'Bejewel','Game','null','Andriod','2015-02-20',45,2,26);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (57,'Bejewel','Game','null','Andriod','2013-10-29',58,4,29);</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3288,11 +3288,11 @@
       </c>
       <c r="F59" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42037</v>
+        <v>41351</v>
       </c>
       <c r="G59" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H59" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -3300,11 +3300,11 @@
       </c>
       <c r="I59" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (58,'Call Of Duty: Mordern Warfare','Game','null','PC','2015-02-02',46,4,0);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (58,'Call Of Duty: Mordern Warfare','Game','null','PC','2013-03-18',44,4,1);</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3325,23 +3325,23 @@
       </c>
       <c r="F60" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41609</v>
+        <v>41745</v>
       </c>
       <c r="G60" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H60" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J60" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (59,'Valkyrie Crusade','Game','null','iOS','2013-12-01',45,1,6);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (59,'Valkyrie Crusade','Game','null','iOS','2014-04-16',20,2,42);</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3362,23 +3362,23 @@
       </c>
       <c r="F61" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41963</v>
+        <v>41510</v>
       </c>
       <c r="G61" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H61" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I61" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="J61" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (60,'Amazons Board Games','Game','null','Andriod','2014-11-20',41,1,98);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (60,'Amazons Board Games','Game','null','Andriod','2013-08-24',27,4,11);</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3399,23 +3399,23 @@
       </c>
       <c r="F62" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41401</v>
+        <v>41505</v>
       </c>
       <c r="G62" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H62" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J62" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (61,'Cinderella','Movie','Thriller','DVD','2013-05-07',9,3,32);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (61,'Cinderella','Movie','Thriller','DVD','2013-08-19',7,1,34);</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3436,23 +3436,23 @@
       </c>
       <c r="F63" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41794</v>
+        <v>42052</v>
       </c>
       <c r="G63" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H63" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J63" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (62,'The Spongebob Movie','Movie','Horror','DVD','2014-06-04',50,3,72);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (62,'The Spongebob Movie','Movie','Horror','DVD','2015-02-17',27,1,42);</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3473,23 +3473,23 @@
       </c>
       <c r="F64" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42041</v>
+        <v>41883</v>
       </c>
       <c r="G64" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="H64" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J64" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (63,'Interstellar','Movie','Popular','DVD','2015-02-06',27,1,26);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (63,'Interstellar','Movie','Popular','DVD','2014-09-01',55,3,29);</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3510,23 +3510,23 @@
       </c>
       <c r="F65" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41358</v>
+        <v>41590</v>
       </c>
       <c r="G65" s="5">
         <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="H65" s="5">
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="H65" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
       <c r="I65" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="J65" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (64,'Insurgent','Movie','Romance','DVD','2013-03-25',2,4,70);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (64,'Insurgent','Movie','Romance','DVD','2013-11-12',55,2,87);</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3547,11 +3547,11 @@
       </c>
       <c r="F66" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41856</v>
+        <v>41949</v>
       </c>
       <c r="G66" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="H66" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -3559,11 +3559,11 @@
       </c>
       <c r="I66" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J66" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (65,'Divergent','Movie','Thriller','DVD','2014-08-05',32,2,45);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (65,'Divergent','Movie','Thriller','DVD','2014-11-06',58,2,81);</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3584,23 +3584,23 @@
       </c>
       <c r="F67" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41694</v>
+        <v>41935</v>
       </c>
       <c r="G67" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="H67" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I67" s="6">
         <f t="shared" ref="I67:I101" ca="1" si="6">RANDBETWEEN(0,100)</f>
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J67" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (66,'ZhongKui','Movie','Horror','DVD','2014-02-24',19,4,90);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (66,'ZhongKui','Movie','Horror','DVD','2014-10-23',46,1,40);</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3621,11 +3621,11 @@
       </c>
       <c r="F68" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42019</v>
+        <v>41666</v>
       </c>
       <c r="G68" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H68" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -3633,11 +3633,11 @@
       </c>
       <c r="I68" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J68" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (67,'Unfinished Business','Movie','Popular','DVD','2015-01-15',20,1,18);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (67,'Unfinished Business','Movie','Popular','DVD','2014-01-27',23,1,67);</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3658,23 +3658,23 @@
       </c>
       <c r="F69" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41430</v>
+        <v>41863</v>
       </c>
       <c r="G69" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="H69" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I69" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J69" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (68,'Fashion King','Movie','Romance','DVD','2013-06-05',19,1,75);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (68,'Fashion King','Movie','Romance','DVD','2014-08-12',48,4,73);</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3695,23 +3695,23 @@
       </c>
       <c r="F70" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41867</v>
+        <v>41334</v>
       </c>
       <c r="G70" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="H70" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I70" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="J70" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (69,'Barbie in Princess Power','Movie','Thriller','DVD','2014-08-16',37,2,80);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (69,'Barbie in Princess Power','Movie','Thriller','DVD','2013-03-01',5,4,37);</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3732,23 +3732,23 @@
       </c>
       <c r="F71" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41927</v>
+        <v>41831</v>
       </c>
       <c r="G71" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H71" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I71" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="J71" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (70,'Kingsman: The Secret Service','Movie','Horror','DVD','2014-10-15',11,1,64);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (70,'Kingsman: The Secret Service','Movie','Horror','DVD','2014-07-11',17,4,95);</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3769,23 +3769,23 @@
       </c>
       <c r="F72" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41803</v>
+        <v>41994</v>
       </c>
       <c r="G72" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="H72" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I72" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J72" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (71,'Fifty Shades of Grey','Movie','Popular','DVD','2014-06-13',47,1,14);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (71,'Fifty Shades of Grey','Movie','Popular','DVD','2014-12-21',6,4,19);</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3806,23 +3806,23 @@
       </c>
       <c r="F73" s="9">
         <f t="shared" ref="F73:F101" ca="1" si="7">RANDBETWEEN(DATE(2013, 1, 1),DATE(2015, 3, 1))</f>
-        <v>41401</v>
+        <v>41569</v>
       </c>
       <c r="G73" s="5">
         <f t="shared" ref="G73:G101" ca="1" si="8">RANDBETWEEN(0.01, 60)</f>
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H73" s="5">
         <f t="shared" ref="H73:H101" ca="1" si="9">RANDBETWEEN(0.01, 4.99)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="J73" s="2" t="str">
         <f t="shared" ref="J73:J101" ca="1" si="10">CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",TEXT(F:F,"yyyy-mm-dd"),"',",G:G,",",H:H,",",I:I,");")</f>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (72,'Frozen','Movie','Romance','DVD','2013-05-07',14,3,88);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (72,'Frozen','Movie','Romance','DVD','2013-10-22',42,1,56);</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3843,23 +3843,23 @@
       </c>
       <c r="F74" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41484</v>
+        <v>41823</v>
       </c>
       <c r="G74" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="H74" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J74" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (73,'Asterix','Movie','Thriller','DVD','2013-07-29',53,1,25);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (73,'Asterix','Movie','Thriller','DVD','2014-07-03',2,2,24);</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3880,23 +3880,23 @@
       </c>
       <c r="F75" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41406</v>
+        <v>41743</v>
       </c>
       <c r="G75" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H75" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="J75" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (74,'Chappie','Movie','Horror','DVD','2013-05-12',28,2,52);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (74,'Chappie','Movie','Horror','DVD','2014-04-14',16,1,15);</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3917,23 +3917,23 @@
       </c>
       <c r="F76" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>42046</v>
+        <v>41383</v>
       </c>
       <c r="G76" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H76" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I76" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="J76" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (75,'Run All Night','Movie','Popular','DVD','2015-02-11',58,4,86);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (75,'Run All Night','Movie','Popular','DVD','2013-04-19',53,3,57);</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3954,23 +3954,23 @@
       </c>
       <c r="F77" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41856</v>
+        <v>41318</v>
       </c>
       <c r="G77" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="H77" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I77" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J77" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (76,'Truimph In the Skies','Movie','Romance','DVD','2014-08-05',51,3,33);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (76,'Truimph In the Skies','Movie','Romance','DVD','2013-02-13',7,4,8);</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3991,23 +3991,23 @@
       </c>
       <c r="F78" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41345</v>
+        <v>41834</v>
       </c>
       <c r="G78" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H78" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I78" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="J78" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (77,'King of Mahjong','Movie','Thriller','DVD','2013-03-12',16,3,90);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (77,'King of Mahjong','Movie','Thriller','DVD','2014-07-14',3,4,71);</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4028,23 +4028,23 @@
       </c>
       <c r="F79" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41442</v>
+        <v>41696</v>
       </c>
       <c r="G79" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="H79" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I79" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="J79" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (78,'Fireman','Movie','Horror','DVD','2013-06-17',53,3,70);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (78,'Fireman','Movie','Horror','DVD','2014-02-26',15,4,13);</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4065,11 +4065,11 @@
       </c>
       <c r="F80" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41928</v>
+        <v>41332</v>
       </c>
       <c r="G80" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="H80" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4077,11 +4077,11 @@
       </c>
       <c r="I80" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="J80" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (79,'Shaun The Sheep','Movie','Popular','DVD','2014-10-16',50,3,17);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (79,'Shaun The Sheep','Movie','Popular','DVD','2013-02-27',24,3,76);</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4102,23 +4102,23 @@
       </c>
       <c r="F81" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41964</v>
+        <v>41950</v>
       </c>
       <c r="G81" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H81" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I81" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="J81" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (80,'From Vegas To Macau','Movie','Romance','DVD','2014-11-21',42,4,75);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (80,'From Vegas To Macau','Movie','Romance','DVD','2014-11-07',25,2,39);</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="F82" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41301</v>
+        <v>41731</v>
       </c>
       <c r="G82" s="5">
         <f t="shared" ca="1" si="8"/>
@@ -4147,15 +4147,15 @@
       </c>
       <c r="H82" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="J82" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (81,'Microsoft oneNote for iPhone','App','Lifestyle','iOS','2013-01-27',9,3,19);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (81,'Microsoft oneNote for iPhone','App','Lifestyle','iOS','2014-04-02',9,2,99);</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4176,23 +4176,23 @@
       </c>
       <c r="F83" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41718</v>
+        <v>41636</v>
       </c>
       <c r="G83" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="H83" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I83" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="J83" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (82,'EverNote','App','Productivity','Andriod','2014-03-20',7,2,3);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (82,'EverNote','App','Productivity','Andriod','2013-12-28',32,4,70);</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4213,11 +4213,11 @@
       </c>
       <c r="F84" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41320</v>
+        <v>41450</v>
       </c>
       <c r="G84" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H84" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4225,11 +4225,11 @@
       </c>
       <c r="I84" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="J84" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (83,'Post It Plus','App','Lifestyle','PC','2013-02-15',32,4,4);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (83,'Post It Plus','App','Lifestyle','PC','2013-06-25',27,4,80);</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4250,11 +4250,11 @@
       </c>
       <c r="F85" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41915</v>
+        <v>41572</v>
       </c>
       <c r="G85" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H85" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4262,11 +4262,11 @@
       </c>
       <c r="I85" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="J85" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (84,'Bosimize','App','Productivity','iOS','2014-10-03',26,4,82);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (84,'Bosimize','App','Productivity','iOS','2013-10-25',57,4,32);</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4287,11 +4287,11 @@
       </c>
       <c r="F86" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41988</v>
+        <v>41844</v>
       </c>
       <c r="G86" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H86" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4299,11 +4299,11 @@
       </c>
       <c r="I86" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="J86" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (85,'Ginger KeyBoard: Better Themes','App','Lifestyle','Andriod','2014-12-15',22,1,95);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (85,'Ginger KeyBoard: Better Themes','App','Lifestyle','Andriod','2014-07-24',1,1,78);</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4324,23 +4324,23 @@
       </c>
       <c r="F87" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41566</v>
+        <v>42028</v>
       </c>
       <c r="G87" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="H87" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I87" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="J87" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (86,'Notepad+','App','Productivity','PC','2013-10-19',3,4,98);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (86,'Notepad+','App','Productivity','PC','2015-01-24',38,1,57);</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4361,11 +4361,11 @@
       </c>
       <c r="F88" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41918</v>
+        <v>41845</v>
       </c>
       <c r="G88" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H88" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4373,11 +4373,11 @@
       </c>
       <c r="I88" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="J88" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (87,'ByWord','App','Lifestyle','iOS','2014-10-06',21,4,7);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (87,'ByWord','App','Lifestyle','iOS','2014-07-25',36,4,81);</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -4398,23 +4398,23 @@
       </c>
       <c r="F89" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41711</v>
+        <v>41964</v>
       </c>
       <c r="G89" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H89" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I89" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="J89" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (88,'Daedalus Touch','App','Productivity','Andriod','2014-03-13',49,1,48);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (88,'Daedalus Touch','App','Productivity','Andriod','2014-11-21',27,4,29);</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4435,23 +4435,23 @@
       </c>
       <c r="F90" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41867</v>
+        <v>41920</v>
       </c>
       <c r="G90" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H90" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J90" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (89,'Notability','App','Lifestyle','PC','2014-08-16',38,1,19);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (89,'Notability','App','Lifestyle','PC','2014-10-08',16,3,37);</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4472,23 +4472,23 @@
       </c>
       <c r="F91" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41542</v>
+        <v>41381</v>
       </c>
       <c r="G91" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H91" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I91" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="J91" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (90,'GoodNotes','App','Productivity','iOS','2013-09-25',33,2,4);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (90,'GoodNotes','App','Productivity','iOS','2013-04-17',48,3,55);</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -4509,11 +4509,11 @@
       </c>
       <c r="F92" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41386</v>
+        <v>41598</v>
       </c>
       <c r="G92" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H92" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4521,11 +4521,11 @@
       </c>
       <c r="I92" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="J92" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (91,'FetchNotes','App','Lifestyle','Andriod','2013-04-22',55,2,44);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (91,'FetchNotes','App','Lifestyle','Andriod','2013-11-20',11,2,95);</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -4546,23 +4546,23 @@
       </c>
       <c r="F93" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41908</v>
+        <v>41400</v>
       </c>
       <c r="G93" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H93" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J93" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (92,'1Writer','App','Productivity','PC','2014-09-26',18,2,68);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (92,'1Writer','App','Productivity','PC','2013-05-06',34,1,99);</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -4583,11 +4583,11 @@
       </c>
       <c r="F94" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41320</v>
+        <v>41713</v>
       </c>
       <c r="G94" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H94" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4595,11 +4595,11 @@
       </c>
       <c r="I94" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J94" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (93,'SwiftKey','App','Lifestyle','iOS','2013-02-15',39,2,7);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (93,'SwiftKey','App','Lifestyle','iOS','2014-03-15',15,2,17);</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -4620,11 +4620,11 @@
       </c>
       <c r="F95" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41505</v>
+        <v>41488</v>
       </c>
       <c r="G95" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H95" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4632,11 +4632,11 @@
       </c>
       <c r="I95" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="J95" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (94,'WordBoard','App','Productivity','Andriod','2013-08-19',30,3,73);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (94,'WordBoard','App','Productivity','Andriod','2013-08-02',48,3,89);</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -4657,23 +4657,23 @@
       </c>
       <c r="F96" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41935</v>
+        <v>41696</v>
       </c>
       <c r="G96" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H96" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I96" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="J96" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (95,'Christmas Keyboard','App','Lifestyle','iOS','2014-10-23',35,4,89);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (95,'Christmas Keyboard','App','Lifestyle','iOS','2014-02-26',22,3,6);</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -4694,11 +4694,11 @@
       </c>
       <c r="F97" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41513</v>
+        <v>41515</v>
       </c>
       <c r="G97" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H97" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4706,11 +4706,11 @@
       </c>
       <c r="I97" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="J97" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (96,'InkBoard','App','Productivity','Andriod','2013-08-27',22,3,74);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (96,'InkBoard','App','Productivity','Andriod','2013-08-29',30,3,49);</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -4731,23 +4731,23 @@
       </c>
       <c r="F98" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41659</v>
+        <v>41333</v>
       </c>
       <c r="G98" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H98" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I98" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J98" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (97,'TextExpander','App','Lifestyle','PC','2014-01-20',33,1,52);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (97,'TextExpander','App','Lifestyle','PC','2013-02-28',49,4,39);</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="F99" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41277</v>
+        <v>41821</v>
       </c>
       <c r="G99" s="5">
         <f t="shared" ca="1" si="8"/>
@@ -4776,15 +4776,15 @@
       </c>
       <c r="H99" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I99" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="J99" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (98,'Phraseboard','App','Productivity','iOS','2013-01-03',43,4,47);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (98,'Phraseboard','App','Productivity','iOS','2014-07-01',43,3,76);</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -4805,23 +4805,23 @@
       </c>
       <c r="F100" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41906</v>
+        <v>41315</v>
       </c>
       <c r="G100" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H100" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="J100" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (99,'Swype','App','Lifestyle','Andriod','2014-09-24',17,3,81);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (99,'Swype','App','Lifestyle','Andriod','2013-02-10',49,2,7);</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -4842,23 +4842,23 @@
       </c>
       <c r="F101" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41792</v>
+        <v>41385</v>
       </c>
       <c r="G101" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H101" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="J101" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (100,'MyScriptStack','App','Productivity','PC','2014-06-02',44,3,75);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (100,'MyScriptStack','App','Productivity','PC','2013-04-21',34,1,31);</v>
       </c>
     </row>
   </sheetData>
@@ -7298,7 +7298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -7337,15 +7337,15 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" s="9">
         <f t="shared" ref="D2:D66" ca="1" si="0">RANDBETWEEN(DATE(2013, 1, 1),DATE(2015, 3, 1))</f>
-        <v>41537</v>
+        <v>41707</v>
       </c>
       <c r="E2" s="9" t="str">
         <f ca="1">CONCATENATE("INSERT INTO Purchase (customer,item,purchase_date) VALUES (","'",B2,"'",",",C2,"",",'",TEXT(D2,"yyyy-mm-dd" ),"'",");")</f>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Charley@cs2102.com',7,'2013-09-20');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Charley@cs2102.com',3,'2014-03-09');</v>
       </c>
       <c r="F2" s="9"/>
     </row>
@@ -7359,15 +7359,15 @@
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41370</v>
+        <v>41804</v>
       </c>
       <c r="E3" s="9" t="str">
         <f t="shared" ref="E3:E66" ca="1" si="1">CONCATENATE("INSERT INTO Purchase (customer,item,purchase_date) VALUES (","'",B3,"'",",",C3,"",",'",TEXT(D3,"yyyy-mm-dd" ),"'",");")</f>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Aurore@cs2102.com',8,'2013-04-06');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Aurore@cs2102.com',50,'2014-06-14');</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7380,15 +7380,15 @@
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41424</v>
+        <v>41832</v>
       </c>
       <c r="E4" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Asha@cs2102.com',72,'2013-05-30');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Asha@cs2102.com',52,'2014-07-12');</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7401,15 +7401,15 @@
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41372</v>
+        <v>41917</v>
       </c>
       <c r="E5" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kandi@cs2102.com',54,'2013-04-08');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kandi@cs2102.com',10,'2014-10-05');</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7422,15 +7422,15 @@
       </c>
       <c r="C6">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41289</v>
+        <v>41850</v>
       </c>
       <c r="E6" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jeanett@cs2102.com',92,'2013-01-15');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jeanett@cs2102.com',95,'2014-07-30');</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7446,11 +7446,11 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41400</v>
+        <v>41576</v>
       </c>
       <c r="E7" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Pam@cs2102.com',4,'2013-05-06');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Pam@cs2102.com',4,'2013-10-29');</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7463,15 +7463,15 @@
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C39" ca="1" si="2">RANDBETWEEN(1,100)</f>
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41521</v>
+        <v>41371</v>
       </c>
       <c r="E8" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cristobal@cs2102.com',6,'2013-09-04');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cristobal@cs2102.com',41,'2013-04-07');</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7484,15 +7484,15 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41751</v>
+        <v>41366</v>
       </c>
       <c r="E9" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kelly@cs2102.com',59,'2014-04-22');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kelly@cs2102.com',48,'2013-04-02');</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7505,15 +7505,15 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41324</v>
+        <v>41408</v>
       </c>
       <c r="E10" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jacalyn@cs2102.com',29,'2013-02-19');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jacalyn@cs2102.com',13,'2013-05-14');</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7526,15 +7526,15 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41452</v>
+        <v>41276</v>
       </c>
       <c r="E11" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Norene@cs2102.com',47,'2013-06-27');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Norene@cs2102.com',13,'2013-01-02');</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7547,15 +7547,15 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41796</v>
+        <v>41961</v>
       </c>
       <c r="E12" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Benita@cs2102.com',88,'2014-06-06');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Benita@cs2102.com',67,'2014-11-18');</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7568,15 +7568,15 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41530</v>
+        <v>41909</v>
       </c>
       <c r="E13" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Julieann@cs2102.com',2,'2013-09-13');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Julieann@cs2102.com',95,'2014-09-27');</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7589,15 +7589,15 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41869</v>
+        <v>42028</v>
       </c>
       <c r="E14" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Florencio@cs2102.com',55,'2014-08-18');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Florencio@cs2102.com',16,'2015-01-24');</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7610,15 +7610,15 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>42008</v>
+        <v>41622</v>
       </c>
       <c r="E15" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lilia@cs2102.com',93,'2015-01-04');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lilia@cs2102.com',71,'2013-12-14');</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7631,15 +7631,15 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41815</v>
+        <v>41379</v>
       </c>
       <c r="E16" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Erik@cs2102.com',88,'2014-06-25');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Erik@cs2102.com',32,'2013-04-15');</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7652,15 +7652,15 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41452</v>
+        <v>41515</v>
       </c>
       <c r="E17" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Han@cs2102.com',59,'2013-06-27');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Han@cs2102.com',47,'2013-08-29');</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7673,15 +7673,15 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41939</v>
+        <v>41874</v>
       </c>
       <c r="E18" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Rosalie@cs2102.com',93,'2014-10-27');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Rosalie@cs2102.com',62,'2014-08-23');</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -7694,15 +7694,15 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41735</v>
+        <v>41465</v>
       </c>
       <c r="E19" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lili@cs2102.com',89,'2014-04-06');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lili@cs2102.com',10,'2013-07-10');</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -7715,15 +7715,15 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>42023</v>
+        <v>41778</v>
       </c>
       <c r="E20" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Arletha@cs2102.com',58,'2015-01-19');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Arletha@cs2102.com',20,'2014-05-19');</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7736,15 +7736,15 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41539</v>
+        <v>41534</v>
       </c>
       <c r="E21" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Esperanza@cs2102.com',27,'2013-09-22');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Esperanza@cs2102.com',98,'2013-09-17');</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7757,15 +7757,15 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41506</v>
+        <v>41376</v>
       </c>
       <c r="E22" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Magdalena@cs2102.com',47,'2013-08-20');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Magdalena@cs2102.com',4,'2013-04-12');</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -7778,15 +7778,15 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41453</v>
+        <v>41372</v>
       </c>
       <c r="E23" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Shizue@cs2102.com',1,'2013-06-28');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Shizue@cs2102.com',20,'2013-04-08');</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7799,15 +7799,15 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41909</v>
+        <v>41283</v>
       </c>
       <c r="E24" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Keisha@cs2102.com',95,'2014-09-27');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Keisha@cs2102.com',41,'2013-01-09');</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7820,15 +7820,15 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41316</v>
+        <v>41841</v>
       </c>
       <c r="E25" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Eufemia@cs2102.com',96,'2013-02-11');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Eufemia@cs2102.com',51,'2014-07-21');</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -7841,15 +7841,15 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41932</v>
+        <v>41444</v>
       </c>
       <c r="E26" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jan@cs2102.com',42,'2014-10-20');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jan@cs2102.com',18,'2013-06-19');</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -7862,15 +7862,15 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41769</v>
+        <v>41998</v>
       </c>
       <c r="E27" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Maud@cs2102.com',8,'2014-05-10');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Maud@cs2102.com',80,'2014-12-25');</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7883,15 +7883,15 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41522</v>
+        <v>41465</v>
       </c>
       <c r="E28" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jefferson@cs2102.com',1,'2013-09-05');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jefferson@cs2102.com',56,'2013-07-10');</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -7904,15 +7904,15 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>42054</v>
+        <v>42033</v>
       </c>
       <c r="E29" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kenia@cs2102.com',36,'2015-02-19');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kenia@cs2102.com',32,'2015-01-29');</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -7925,15 +7925,15 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41662</v>
+        <v>41512</v>
       </c>
       <c r="E30" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cyrus@cs2102.com',9,'2014-01-23');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cyrus@cs2102.com',64,'2013-08-26');</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7946,15 +7946,15 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D31" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41389</v>
+        <v>41977</v>
       </c>
       <c r="E31" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Carmela@cs2102.com',24,'2013-04-25');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Carmela@cs2102.com',85,'2014-12-04');</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -7967,15 +7967,15 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41837</v>
+        <v>41542</v>
       </c>
       <c r="E32" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lloyd@cs2102.com',11,'2014-07-17');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lloyd@cs2102.com',69,'2013-09-25');</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7988,15 +7988,15 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41510</v>
+        <v>41401</v>
       </c>
       <c r="E33" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Pamelia@cs2102.com',89,'2013-08-24');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Pamelia@cs2102.com',87,'2013-05-07');</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -8009,15 +8009,15 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D34" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41921</v>
+        <v>41799</v>
       </c>
       <c r="E34" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Aleida@cs2102.com',29,'2014-10-09');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Aleida@cs2102.com',76,'2014-06-09');</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8030,15 +8030,15 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D35" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41998</v>
+        <v>41633</v>
       </c>
       <c r="E35" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Susanna@cs2102.com',70,'2014-12-25');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Susanna@cs2102.com',42,'2013-12-25');</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -8051,15 +8051,15 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41277</v>
+        <v>41619</v>
       </c>
       <c r="E36" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kate@cs2102.com',30,'2013-01-03');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kate@cs2102.com',26,'2013-12-11');</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -8072,15 +8072,15 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="D37" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41313</v>
+        <v>41333</v>
       </c>
       <c r="E37" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Shanita@cs2102.com',39,'2013-02-08');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Shanita@cs2102.com',84,'2013-02-28');</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8093,15 +8093,15 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D38" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41744</v>
+        <v>41640</v>
       </c>
       <c r="E38" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Liliana@cs2102.com',90,'2014-04-15');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Liliana@cs2102.com',84,'2014-01-01');</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8114,15 +8114,15 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D39" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41884</v>
+        <v>41820</v>
       </c>
       <c r="E39" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Fermin@cs2102.com',85,'2014-09-02');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Fermin@cs2102.com',47,'2014-06-30');</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8135,15 +8135,15 @@
       </c>
       <c r="C40">
         <f t="shared" ref="C40:C71" ca="1" si="3">RANDBETWEEN(1,100)</f>
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41532</v>
+        <v>41737</v>
       </c>
       <c r="E40" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Reda@cs2102.com',86,'2013-09-15');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Reda@cs2102.com',91,'2014-04-08');</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -8156,15 +8156,15 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="D41" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41756</v>
+        <v>41646</v>
       </c>
       <c r="E41" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Hildred@cs2102.com',93,'2014-04-27');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Hildred@cs2102.com',47,'2014-01-07');</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8177,15 +8177,15 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41831</v>
+        <v>42052</v>
       </c>
       <c r="E42" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kallie@cs2102.com',73,'2014-07-11');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kallie@cs2102.com',29,'2015-02-17');</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8198,15 +8198,15 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D43" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41700</v>
+        <v>41568</v>
       </c>
       <c r="E43" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Dominga@cs2102.com',32,'2014-03-02');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Dominga@cs2102.com',3,'2013-10-21');</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -8219,15 +8219,15 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41966</v>
+        <v>41972</v>
       </c>
       <c r="E44" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Dwayne@cs2102.com',38,'2014-11-23');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Dwayne@cs2102.com',82,'2014-11-29');</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -8240,15 +8240,15 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D45" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41314</v>
+        <v>41748</v>
       </c>
       <c r="E45" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Rona@cs2102.com',47,'2013-02-09');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Rona@cs2102.com',49,'2014-04-19');</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -8261,15 +8261,15 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D46" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41293</v>
+        <v>42018</v>
       </c>
       <c r="E46" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Roger@cs2102.com',75,'2013-01-19');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Roger@cs2102.com',76,'2015-01-14');</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8282,15 +8282,15 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="D47" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41966</v>
+        <v>41568</v>
       </c>
       <c r="E47" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Abraham@cs2102.com',14,'2014-11-23');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Abraham@cs2102.com',96,'2013-10-21');</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8303,15 +8303,15 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D48" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41915</v>
+        <v>41370</v>
       </c>
       <c r="E48" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Creola@cs2102.com',4,'2014-10-03');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Creola@cs2102.com',64,'2013-04-06');</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -8324,15 +8324,15 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="D49" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41299</v>
+        <v>41725</v>
       </c>
       <c r="E49" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Toi@cs2102.com',77,'2013-01-25');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Toi@cs2102.com',13,'2014-03-27');</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -8345,15 +8345,15 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="D50" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41749</v>
+        <v>41841</v>
       </c>
       <c r="E50" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Nichelle@cs2102.com',3,'2014-04-20');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Nichelle@cs2102.com',88,'2014-07-21');</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -8366,15 +8366,15 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41373</v>
+        <v>41699</v>
       </c>
       <c r="E51" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Elvina@cs2102.com',66,'2013-04-09');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Elvina@cs2102.com',31,'2014-03-01');</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -8387,15 +8387,15 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41968</v>
+        <v>42051</v>
       </c>
       <c r="E52" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Mitsuko@cs2102.com',14,'2014-11-25');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Mitsuko@cs2102.com',60,'2015-02-16');</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -8408,15 +8408,15 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D53" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>42055</v>
+        <v>41475</v>
       </c>
       <c r="E53" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Helaine@cs2102.com',34,'2015-02-20');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Helaine@cs2102.com',14,'2013-07-20');</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -8433,11 +8433,11 @@
       </c>
       <c r="D54" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41519</v>
+        <v>41833</v>
       </c>
       <c r="E54" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Fredericka@cs2102.com',18,'2013-09-02');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Fredericka@cs2102.com',18,'2014-07-13');</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -8450,15 +8450,15 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D55" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41894</v>
+        <v>41862</v>
       </c>
       <c r="E55" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Deb@cs2102.com',39,'2014-09-12');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Deb@cs2102.com',35,'2014-08-11');</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -8471,15 +8471,15 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>42010</v>
+        <v>41383</v>
       </c>
       <c r="E56" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Raven@cs2102.com',90,'2015-01-06');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Raven@cs2102.com',9,'2013-04-19');</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -8492,15 +8492,15 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41798</v>
+        <v>41620</v>
       </c>
       <c r="E57" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Epifania@cs2102.com',64,'2014-06-08');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Epifania@cs2102.com',41,'2013-12-12');</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -8513,15 +8513,15 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41686</v>
+        <v>41908</v>
       </c>
       <c r="E58" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Wava@cs2102.com',21,'2014-02-16');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Wava@cs2102.com',34,'2014-09-26');</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -8534,15 +8534,15 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D59" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41709</v>
+        <v>41380</v>
       </c>
       <c r="E59" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jenifer@cs2102.com',33,'2014-03-11');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jenifer@cs2102.com',84,'2013-04-16');</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -8555,15 +8555,15 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41458</v>
+        <v>41640</v>
       </c>
       <c r="E60" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Imelda@cs2102.com',86,'2013-07-03');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Imelda@cs2102.com',1,'2014-01-01');</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -8576,15 +8576,15 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D61" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>42064</v>
+        <v>41604</v>
       </c>
       <c r="E61" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cherish@cs2102.com',32,'2015-03-01');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cherish@cs2102.com',6,'2013-11-26');</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -8597,15 +8597,15 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D62" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41724</v>
+        <v>41796</v>
       </c>
       <c r="E62" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Marcel@cs2102.com',30,'2014-03-26');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Marcel@cs2102.com',1,'2014-06-06');</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D63" s="9">
         <f t="shared" ca="1" si="0"/>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="E63" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Alethea@cs2102.com',59,'2015-01-31');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Alethea@cs2102.com',100,'2015-01-31');</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -8639,15 +8639,15 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="D64" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41576</v>
+        <v>41503</v>
       </c>
       <c r="E64" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Felica@cs2102.com',100,'2013-10-29');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Felica@cs2102.com',34,'2013-08-17');</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -8660,15 +8660,15 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D65" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41853</v>
+        <v>41766</v>
       </c>
       <c r="E65" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Reatha@cs2102.com',3,'2014-08-02');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Reatha@cs2102.com',13,'2014-05-07');</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -8681,15 +8681,15 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41776</v>
+        <v>41297</v>
       </c>
       <c r="E66" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Velia@cs2102.com',31,'2014-05-17');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Velia@cs2102.com',56,'2013-01-23');</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -8702,15 +8702,15 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D67" s="9">
         <f t="shared" ref="D67:D100" ca="1" si="4">RANDBETWEEN(DATE(2013, 1, 1),DATE(2015, 3, 1))</f>
-        <v>41851</v>
+        <v>41844</v>
       </c>
       <c r="E67" s="9" t="str">
         <f t="shared" ref="E67:E100" ca="1" si="5">CONCATENATE("INSERT INTO Purchase (customer,item,purchase_date) VALUES (","'",B67,"'",",",C67,"",",'",TEXT(D67,"yyyy-mm-dd" ),"'",");")</f>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Crista@cs2102.com',67,'2014-07-31');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Crista@cs2102.com',80,'2014-07-24');</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -8723,15 +8723,15 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41750</v>
+        <v>42021</v>
       </c>
       <c r="E68" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Keesha@cs2102.com',22,'2014-04-21');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Keesha@cs2102.com',17,'2015-01-17');</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -8744,15 +8744,15 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D69" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41652</v>
+        <v>41697</v>
       </c>
       <c r="E69" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Pandora@cs2102.com',7,'2014-01-13');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Pandora@cs2102.com',30,'2014-02-27');</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -8765,15 +8765,15 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D70" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41401</v>
+        <v>41842</v>
       </c>
       <c r="E70" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Raguel@cs2102.com',5,'2013-05-07');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Raguel@cs2102.com',10,'2014-07-22');</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -8786,15 +8786,15 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D71" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41352</v>
+        <v>41306</v>
       </c>
       <c r="E71" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Deedee@cs2102.com',74,'2013-03-19');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Deedee@cs2102.com',5,'2013-02-01');</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -8807,15 +8807,15 @@
       </c>
       <c r="C72">
         <f t="shared" ref="C72:C100" ca="1" si="6">RANDBETWEEN(1,100)</f>
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41774</v>
+        <v>41443</v>
       </c>
       <c r="E72" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Juanita@cs2102.com',1,'2014-05-15');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Juanita@cs2102.com',42,'2013-06-18');</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -8828,15 +8828,15 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D73" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41924</v>
+        <v>41544</v>
       </c>
       <c r="E73" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Stanley@cs2102.com',28,'2014-10-12');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Stanley@cs2102.com',6,'2013-09-27');</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -8849,15 +8849,15 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="D74" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41305</v>
+        <v>41848</v>
       </c>
       <c r="E74" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Gregory@cs2102.com',30,'2013-01-31');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Gregory@cs2102.com',89,'2014-07-28');</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -8870,15 +8870,15 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D75" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41353</v>
+        <v>41676</v>
       </c>
       <c r="E75" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jacklyn@cs2102.com',1,'2013-03-20');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jacklyn@cs2102.com',99,'2014-02-06');</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -8891,15 +8891,15 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D76" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41779</v>
+        <v>41959</v>
       </c>
       <c r="E76" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Madlyn@cs2102.com',42,'2014-05-20');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Madlyn@cs2102.com',63,'2014-11-16');</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -8912,15 +8912,15 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D77" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41755</v>
+        <v>41511</v>
       </c>
       <c r="E77" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Rudolph@cs2102.com',73,'2014-04-26');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Rudolph@cs2102.com',3,'2013-08-25');</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -8933,15 +8933,15 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D78" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41965</v>
+        <v>41633</v>
       </c>
       <c r="E78" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Marybeth@cs2102.com',37,'2014-11-22');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Marybeth@cs2102.com',27,'2013-12-25');</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -8954,15 +8954,15 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D79" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41304</v>
+        <v>41509</v>
       </c>
       <c r="E79" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lupe@cs2102.com',26,'2013-01-30');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lupe@cs2102.com',20,'2013-08-23');</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -8975,15 +8975,15 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41295</v>
+        <v>41776</v>
       </c>
       <c r="E80" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Adriene@cs2102.com',60,'2013-01-21');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Adriene@cs2102.com',51,'2014-05-17');</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -8996,15 +8996,15 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41507</v>
+        <v>41617</v>
       </c>
       <c r="E81" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Epifania@cs2102.com',41,'2013-08-21');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Epifania@cs2102.com',75,'2013-12-09');</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -9017,15 +9017,15 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41746</v>
+        <v>41836</v>
       </c>
       <c r="E82" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Mee@cs2102.com',21,'2014-04-17');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Mee@cs2102.com',11,'2014-07-16');</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -9038,15 +9038,15 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D83" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41995</v>
+        <v>41369</v>
       </c>
       <c r="E83" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Dorene@cs2102.com',80,'2014-12-22');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Dorene@cs2102.com',9,'2013-04-05');</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -9059,15 +9059,15 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D84" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41857</v>
+        <v>41713</v>
       </c>
       <c r="E84" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cecilia@cs2102.com',67,'2014-08-06');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cecilia@cs2102.com',18,'2014-03-15');</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -9080,15 +9080,15 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D85" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41499</v>
+        <v>41444</v>
       </c>
       <c r="E85" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Queen@cs2102.com',41,'2013-08-13');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Queen@cs2102.com',30,'2013-06-19');</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -9101,15 +9101,15 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D86" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41431</v>
+        <v>41427</v>
       </c>
       <c r="E86" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Magali@cs2102.com',25,'2013-06-06');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Magali@cs2102.com',2,'2013-06-02');</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -9122,15 +9122,15 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D87" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41635</v>
+        <v>41727</v>
       </c>
       <c r="E87" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Felecia@cs2102.com',73,'2013-12-27');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Felecia@cs2102.com',83,'2014-03-29');</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -9143,15 +9143,15 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D88" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41692</v>
+        <v>41314</v>
       </c>
       <c r="E88" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lavera@cs2102.com',38,'2014-02-22');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lavera@cs2102.com',23,'2013-02-09');</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -9164,15 +9164,15 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D89" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41878</v>
+        <v>41309</v>
       </c>
       <c r="E89" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Guillermo@cs2102.com',29,'2014-08-27');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Guillermo@cs2102.com',79,'2013-02-04');</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -9185,15 +9185,15 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D90" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>42035</v>
+        <v>41374</v>
       </c>
       <c r="E90" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Summer@cs2102.com',50,'2015-01-31');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Summer@cs2102.com',14,'2013-04-10');</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -9206,15 +9206,15 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D91" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41567</v>
+        <v>41761</v>
       </c>
       <c r="E91" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Meagan@cs2102.com',30,'2013-10-20');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Meagan@cs2102.com',63,'2014-05-02');</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -9227,15 +9227,15 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D92" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41890</v>
+        <v>41985</v>
       </c>
       <c r="E92" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Ronald@cs2102.com',56,'2014-09-08');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Ronald@cs2102.com',42,'2014-12-12');</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -9248,15 +9248,15 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D93" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41304</v>
+        <v>41891</v>
       </c>
       <c r="E93" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Ricarda@cs2102.com',45,'2013-01-30');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Ricarda@cs2102.com',24,'2014-09-09');</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -9269,15 +9269,15 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D94" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41983</v>
+        <v>41506</v>
       </c>
       <c r="E94" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Agustin@cs2102.com',88,'2014-12-10');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Agustin@cs2102.com',97,'2013-08-20');</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -9290,15 +9290,15 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D95" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41566</v>
+        <v>41668</v>
       </c>
       <c r="E95" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lanie@cs2102.com',83,'2013-10-19');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lanie@cs2102.com',93,'2014-01-29');</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -9311,15 +9311,15 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="D96" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41831</v>
+        <v>41654</v>
       </c>
       <c r="E96" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Gianna@cs2102.com',99,'2014-07-11');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Gianna@cs2102.com',19,'2014-01-15');</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -9332,15 +9332,15 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D97" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41465</v>
+        <v>41308</v>
       </c>
       <c r="E97" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Eunice@cs2102.com',95,'2013-07-10');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Eunice@cs2102.com',97,'2013-02-03');</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -9353,15 +9353,15 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="D98" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41904</v>
+        <v>41592</v>
       </c>
       <c r="E98" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Regenia@cs2102.com',23,'2014-09-22');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Regenia@cs2102.com',90,'2013-11-14');</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -9374,15 +9374,15 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D99" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41891</v>
+        <v>41757</v>
       </c>
       <c r="E99" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Olene@cs2102.com',60,'2014-09-09');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Olene@cs2102.com',6,'2014-04-28');</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -9395,15 +9395,15 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D100" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41786</v>
+        <v>41941</v>
       </c>
       <c r="E100" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('America@cs2102.com',71,'2014-05-27');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('America@cs2102.com',69,'2014-10-29');</v>
       </c>
     </row>
   </sheetData>
@@ -9564,23 +9564,23 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D2" s="9">
         <f ca="1">RANDBETWEEN(DATE(2013, 1, 1),DATE(2013, 3, 1))</f>
-        <v>41333</v>
+        <v>41290</v>
       </c>
       <c r="E2" s="9">
         <f ca="1">RANDBETWEEN(DATE(2013, 3, 20),DATE(2013, 9, 30))</f>
-        <v>41397</v>
+        <v>41404</v>
       </c>
       <c r="F2" s="9">
         <f ca="1">RANDBETWEEN(DATE(YEAR(D2),MONTH(D2),DAY(D2)), DATE(YEAR(E2),MONTH(E2),DAY(E2)))</f>
-        <v>41361</v>
+        <v>41315</v>
       </c>
       <c r="G2" s="9" t="str">
         <f ca="1">CONCATENATE("INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('",B2,"','",C2,"','",TEXT(D2,"yyyy-mm-dd"),"','",TEXT(E2,"yyyy-mm-dd"),"','",TEXT(F2,"yyyy-mm-dd"),"');")</f>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Charley@cs2102.com','21','2013-02-28','2013-05-03','2013-03-28');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Charley@cs2102.com','38','2013-01-16','2013-05-10','2013-02-10');</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -9593,23 +9593,23 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D66" ca="1" si="1">RANDBETWEEN(DATE(2013, 1, 1),DATE(2013, 3, 1))</f>
-        <v>41324</v>
+        <v>41329</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E66" ca="1" si="2">RANDBETWEEN(DATE(2013, 3, 20),DATE(2013, 9, 30))</f>
-        <v>41502</v>
+        <v>41412</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" ref="F3:F66" ca="1" si="3">RANDBETWEEN(DATE(YEAR(D3),MONTH(D3),DAY(D3)), DATE(YEAR(E3),MONTH(E3),DAY(E3)))</f>
-        <v>41396</v>
+        <v>41339</v>
       </c>
       <c r="G3" s="9" t="str">
         <f t="shared" ref="G3:G66" ca="1" si="4">CONCATENATE("INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('",B3,"','",C3,"','",TEXT(D3,"yyyy-mm-dd"),"','",TEXT(E3,"yyyy-mm-dd"),"','",TEXT(F3,"yyyy-mm-dd"),"');")</f>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Aurore@cs2102.com','39','2013-02-19','2013-08-16','2013-05-02');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Aurore@cs2102.com','43','2013-02-24','2013-05-18','2013-03-06');</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9622,23 +9622,23 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41314</v>
+        <v>41297</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41368</v>
+        <v>41404</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41320</v>
+        <v>41395</v>
       </c>
       <c r="G4" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Asha@cs2102.com','85','2013-02-09','2013-04-04','2013-02-15');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Asha@cs2102.com','91','2013-01-23','2013-05-10','2013-05-01');</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -9651,23 +9651,23 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41288</v>
+        <v>41281</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41495</v>
+        <v>41493</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41423</v>
+        <v>41402</v>
       </c>
       <c r="G5" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kandi@cs2102.com','34','2013-01-14','2013-08-09','2013-05-29');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kandi@cs2102.com','73','2013-01-07','2013-08-07','2013-05-08');</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -9680,23 +9680,23 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41301</v>
+        <v>41317</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41520</v>
+        <v>41504</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41426</v>
+        <v>41325</v>
       </c>
       <c r="G6" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jeanett@cs2102.com','34','2013-01-27','2013-09-03','2013-06-01');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jeanett@cs2102.com','76','2013-02-12','2013-08-18','2013-02-20');</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -9709,23 +9709,23 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41286</v>
+        <v>41316</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41361</v>
+        <v>41370</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41321</v>
+        <v>41360</v>
       </c>
       <c r="G7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Pam@cs2102.com','3','2013-01-12','2013-03-28','2013-02-16');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Pam@cs2102.com','38','2013-02-11','2013-04-06','2013-03-27');</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9738,23 +9738,23 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41288</v>
+        <v>41305</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41538</v>
+        <v>41519</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41498</v>
+        <v>41359</v>
       </c>
       <c r="G8" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cristobal@cs2102.com','100','2013-01-14','2013-09-21','2013-08-12');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cristobal@cs2102.com','1','2013-01-31','2013-09-02','2013-03-26');</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -9767,23 +9767,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41282</v>
+        <v>41316</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41478</v>
+        <v>41372</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41425</v>
+        <v>41329</v>
       </c>
       <c r="G9" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kelly@cs2102.com','38','2013-01-08','2013-07-23','2013-05-31');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kelly@cs2102.com','90','2013-02-11','2013-04-08','2013-02-24');</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -9796,23 +9796,23 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41302</v>
+        <v>41300</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41491</v>
+        <v>41525</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41435</v>
+        <v>41517</v>
       </c>
       <c r="G10" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jacalyn@cs2102.com','71','2013-01-28','2013-08-05','2013-06-10');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jacalyn@cs2102.com','49','2013-01-26','2013-09-08','2013-08-31');</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -9825,23 +9825,23 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41306</v>
+        <v>41291</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41495</v>
+        <v>41517</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41488</v>
+        <v>41442</v>
       </c>
       <c r="G11" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Norene@cs2102.com','77','2013-02-01','2013-08-09','2013-08-02');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Norene@cs2102.com','13','2013-01-17','2013-08-31','2013-06-17');</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -9854,23 +9854,23 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41277</v>
+        <v>41304</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41491</v>
+        <v>41377</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41421</v>
+        <v>41340</v>
       </c>
       <c r="G12" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Benita@cs2102.com','86','2013-01-03','2013-08-05','2013-05-27');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Benita@cs2102.com','46','2013-01-30','2013-04-13','2013-03-07');</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9883,23 +9883,23 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41291</v>
+        <v>41284</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41505</v>
+        <v>41366</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41335</v>
+        <v>41342</v>
       </c>
       <c r="G13" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Julieann@cs2102.com','63','2013-01-17','2013-08-19','2013-03-02');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Julieann@cs2102.com','58','2013-01-10','2013-04-02','2013-03-09');</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9912,23 +9912,23 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41280</v>
+        <v>41321</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41471</v>
+        <v>41462</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41331</v>
+        <v>41457</v>
       </c>
       <c r="G14" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Florencio@cs2102.com','69','2013-01-06','2013-07-16','2013-02-26');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Florencio@cs2102.com','100','2013-02-16','2013-07-07','2013-07-02');</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -9941,23 +9941,23 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41285</v>
+        <v>41278</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41534</v>
+        <v>41523</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41413</v>
+        <v>41420</v>
       </c>
       <c r="G15" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lilia@cs2102.com','22','2013-01-11','2013-09-17','2013-05-19');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lilia@cs2102.com','57','2013-01-04','2013-09-06','2013-05-26');</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" ca="1" si="1"/>
@@ -9978,15 +9978,15 @@
       </c>
       <c r="E16" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41427</v>
+        <v>41477</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41347</v>
+        <v>41440</v>
       </c>
       <c r="G16" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Erik@cs2102.com','76','2013-01-22','2013-06-02','2013-03-14');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Erik@cs2102.com','53','2013-01-22','2013-07-22','2013-06-15');</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -9999,23 +9999,23 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41298</v>
+        <v>41319</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41408</v>
+        <v>41475</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41370</v>
+        <v>41409</v>
       </c>
       <c r="G17" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Han@cs2102.com','50','2013-01-24','2013-05-14','2013-04-06');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Han@cs2102.com','1','2013-02-14','2013-07-20','2013-05-15');</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -10028,23 +10028,23 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41294</v>
+        <v>41290</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41355</v>
+        <v>41542</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41311</v>
+        <v>41353</v>
       </c>
       <c r="G18" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Rosalie@cs2102.com','20','2013-01-20','2013-03-22','2013-02-06');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Rosalie@cs2102.com','83','2013-01-16','2013-09-25','2013-03-20');</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -10057,23 +10057,23 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41283</v>
+        <v>41308</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41522</v>
+        <v>41476</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41489</v>
+        <v>41449</v>
       </c>
       <c r="G19" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lili@cs2102.com','52','2013-01-09','2013-09-05','2013-08-03');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lili@cs2102.com','94','2013-02-03','2013-07-21','2013-06-24');</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -10086,23 +10086,23 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41308</v>
+        <v>41292</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41506</v>
+        <v>41504</v>
       </c>
       <c r="F20" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41319</v>
+        <v>41294</v>
       </c>
       <c r="G20" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Arletha@cs2102.com','13','2013-02-03','2013-08-20','2013-02-14');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Arletha@cs2102.com','59','2013-01-18','2013-08-18','2013-01-20');</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10115,23 +10115,23 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41286</v>
+        <v>41289</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41432</v>
+        <v>41398</v>
       </c>
       <c r="F21" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41355</v>
+        <v>41394</v>
       </c>
       <c r="G21" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Esperanza@cs2102.com','88','2013-01-12','2013-06-07','2013-03-22');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Esperanza@cs2102.com','72','2013-01-15','2013-05-04','2013-04-30');</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10144,23 +10144,23 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41293</v>
+        <v>41327</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41535</v>
+        <v>41484</v>
       </c>
       <c r="F22" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41325</v>
+        <v>41330</v>
       </c>
       <c r="G22" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Magdalena@cs2102.com','56','2013-01-19','2013-09-18','2013-02-20');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Magdalena@cs2102.com','94','2013-02-22','2013-07-29','2013-02-25');</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -10173,23 +10173,23 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41296</v>
+        <v>41299</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41365</v>
+        <v>41498</v>
       </c>
       <c r="F23" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41298</v>
+        <v>41430</v>
       </c>
       <c r="G23" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Shizue@cs2102.com','24','2013-01-22','2013-04-01','2013-01-24');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Shizue@cs2102.com','23','2013-01-25','2013-08-12','2013-06-05');</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -10202,23 +10202,23 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41289</v>
+        <v>41309</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41445</v>
+        <v>41436</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41315</v>
+        <v>41370</v>
       </c>
       <c r="G24" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Keisha@cs2102.com','45','2013-01-15','2013-06-20','2013-02-10');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Keisha@cs2102.com','38','2013-02-04','2013-06-11','2013-04-06');</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10231,23 +10231,23 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41298</v>
+        <v>41290</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41406</v>
+        <v>41378</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41393</v>
+        <v>41346</v>
       </c>
       <c r="G25" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Eufemia@cs2102.com','53','2013-01-24','2013-05-12','2013-04-29');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Eufemia@cs2102.com','39','2013-01-16','2013-04-14','2013-03-13');</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -10260,23 +10260,23 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41308</v>
+        <v>41305</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41394</v>
+        <v>41510</v>
       </c>
       <c r="F26" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41389</v>
+        <v>41502</v>
       </c>
       <c r="G26" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jan@cs2102.com','45','2013-02-03','2013-04-30','2013-04-25');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jan@cs2102.com','33','2013-01-31','2013-08-24','2013-08-16');</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -10289,23 +10289,23 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41278</v>
+        <v>41311</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41519</v>
+        <v>41511</v>
       </c>
       <c r="F27" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41372</v>
+        <v>41431</v>
       </c>
       <c r="G27" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Maud@cs2102.com','3','2013-01-04','2013-09-02','2013-04-08');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Maud@cs2102.com','26','2013-02-06','2013-08-25','2013-06-06');</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10318,23 +10318,23 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41324</v>
+        <v>41323</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41365</v>
+        <v>41420</v>
       </c>
       <c r="F28" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41345</v>
+        <v>41327</v>
       </c>
       <c r="G28" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jefferson@cs2102.com','100','2013-02-19','2013-04-01','2013-03-12');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jefferson@cs2102.com','46','2013-02-18','2013-05-26','2013-02-22');</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -10347,23 +10347,23 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41295</v>
+        <v>41290</v>
       </c>
       <c r="E29" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41510</v>
+        <v>41466</v>
       </c>
       <c r="F29" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41474</v>
+        <v>41354</v>
       </c>
       <c r="G29" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kenia@cs2102.com','54','2013-01-21','2013-08-24','2013-07-19');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kenia@cs2102.com','16','2013-01-16','2013-07-11','2013-03-21');</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -10376,23 +10376,23 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41290</v>
+        <v>41325</v>
       </c>
       <c r="E30" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41490</v>
+        <v>41498</v>
       </c>
       <c r="F30" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41365</v>
+        <v>41417</v>
       </c>
       <c r="G30" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cyrus@cs2102.com','7','2013-01-16','2013-08-04','2013-04-01');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cyrus@cs2102.com','95','2013-02-20','2013-08-12','2013-05-23');</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10405,23 +10405,23 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D31" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41293</v>
+        <v>41303</v>
       </c>
       <c r="E31" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41359</v>
+        <v>41397</v>
       </c>
       <c r="F31" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41355</v>
+        <v>41396</v>
       </c>
       <c r="G31" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Carmela@cs2102.com','73','2013-01-19','2013-03-26','2013-03-22');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Carmela@cs2102.com','67','2013-01-29','2013-05-03','2013-05-02');</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -10434,23 +10434,23 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41283</v>
+        <v>41302</v>
       </c>
       <c r="E32" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41425</v>
+        <v>41464</v>
       </c>
       <c r="F32" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41387</v>
+        <v>41440</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lloyd@cs2102.com','39','2013-01-09','2013-05-31','2013-04-23');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lloyd@cs2102.com','10','2013-01-28','2013-07-09','2013-06-15');</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10463,23 +10463,23 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41283</v>
+        <v>41295</v>
       </c>
       <c r="E33" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41464</v>
+        <v>41472</v>
       </c>
       <c r="F33" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41320</v>
+        <v>41419</v>
       </c>
       <c r="G33" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Pamelia@cs2102.com','62','2013-01-09','2013-07-09','2013-02-15');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Pamelia@cs2102.com','67','2013-01-21','2013-07-17','2013-05-25');</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -10492,23 +10492,23 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D34" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41305</v>
+        <v>41313</v>
       </c>
       <c r="E34" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41491</v>
+        <v>41383</v>
       </c>
       <c r="F34" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41377</v>
+        <v>41332</v>
       </c>
       <c r="G34" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Aleida@cs2102.com','61','2013-01-31','2013-08-05','2013-04-13');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Aleida@cs2102.com','85','2013-02-08','2013-04-19','2013-02-27');</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10521,23 +10521,23 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D35" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41294</v>
+        <v>41333</v>
       </c>
       <c r="E35" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41421</v>
+        <v>41481</v>
       </c>
       <c r="F35" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41412</v>
+        <v>41441</v>
       </c>
       <c r="G35" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Susanna@cs2102.com','34','2013-01-20','2013-05-27','2013-05-18');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Susanna@cs2102.com','40','2013-02-28','2013-07-26','2013-06-16');</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -10550,23 +10550,23 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41282</v>
+        <v>41300</v>
       </c>
       <c r="E36" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41534</v>
+        <v>41412</v>
       </c>
       <c r="F36" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41515</v>
+        <v>41331</v>
       </c>
       <c r="G36" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kate@cs2102.com','82','2013-01-08','2013-09-17','2013-08-29');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kate@cs2102.com','57','2013-01-26','2013-05-18','2013-02-26');</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -10579,23 +10579,23 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D37" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41324</v>
+        <v>41299</v>
       </c>
       <c r="E37" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41362</v>
+        <v>41375</v>
       </c>
       <c r="F37" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41354</v>
+        <v>41307</v>
       </c>
       <c r="G37" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Shanita@cs2102.com','15','2013-02-19','2013-03-29','2013-03-21');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Shanita@cs2102.com','18','2013-01-25','2013-04-11','2013-02-02');</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -10608,23 +10608,23 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="D38" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41275</v>
+        <v>41276</v>
       </c>
       <c r="E38" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41427</v>
+        <v>41468</v>
       </c>
       <c r="F38" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41378</v>
+        <v>41396</v>
       </c>
       <c r="G38" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Liliana@cs2102.com','89','2013-01-01','2013-06-02','2013-04-14');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Liliana@cs2102.com','49','2013-01-02','2013-07-13','2013-05-02');</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -10637,23 +10637,23 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D39" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41294</v>
+        <v>41330</v>
       </c>
       <c r="E39" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41541</v>
+        <v>41441</v>
       </c>
       <c r="F39" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41448</v>
+        <v>41441</v>
       </c>
       <c r="G39" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Fermin@cs2102.com','24','2013-01-20','2013-09-24','2013-06-23');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Fermin@cs2102.com','28','2013-02-25','2013-06-16','2013-06-16');</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -10666,23 +10666,23 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41322</v>
+        <v>41288</v>
       </c>
       <c r="E40" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41468</v>
+        <v>41429</v>
       </c>
       <c r="F40" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41323</v>
+        <v>41345</v>
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Reda@cs2102.com','77','2013-02-17','2013-07-13','2013-02-18');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Reda@cs2102.com','78','2013-01-14','2013-06-04','2013-03-12');</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -10695,23 +10695,23 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D41" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41330</v>
+        <v>41326</v>
       </c>
       <c r="E41" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41478</v>
+        <v>41386</v>
       </c>
       <c r="F41" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41408</v>
+        <v>41378</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Hildred@cs2102.com','42','2013-02-25','2013-07-23','2013-05-14');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Hildred@cs2102.com','62','2013-02-21','2013-04-22','2013-04-14');</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -10724,23 +10724,23 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41277</v>
+        <v>41325</v>
       </c>
       <c r="E42" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41382</v>
+        <v>41368</v>
       </c>
       <c r="F42" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41289</v>
+        <v>41367</v>
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kallie@cs2102.com','23','2013-01-03','2013-04-18','2013-01-15');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kallie@cs2102.com','25','2013-02-20','2013-04-04','2013-04-03');</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10753,23 +10753,23 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D43" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41333</v>
+        <v>41303</v>
       </c>
       <c r="E43" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41455</v>
+        <v>41499</v>
       </c>
       <c r="F43" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41368</v>
+        <v>41483</v>
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Dominga@cs2102.com','62','2013-02-28','2013-06-30','2013-04-04');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Dominga@cs2102.com','87','2013-01-29','2013-08-13','2013-07-28');</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10782,23 +10782,23 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41296</v>
+        <v>41305</v>
       </c>
       <c r="E44" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41452</v>
+        <v>41512</v>
       </c>
       <c r="F44" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41392</v>
+        <v>41400</v>
       </c>
       <c r="G44" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Dwayne@cs2102.com','60','2013-01-22','2013-06-27','2013-04-28');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Dwayne@cs2102.com','81','2013-01-31','2013-08-26','2013-05-06');</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -10811,23 +10811,23 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D45" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41334</v>
+        <v>41324</v>
       </c>
       <c r="E45" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41422</v>
+        <v>41448</v>
       </c>
       <c r="F45" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41397</v>
+        <v>41384</v>
       </c>
       <c r="G45" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Rona@cs2102.com','57','2013-03-01','2013-05-28','2013-05-03');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Rona@cs2102.com','33','2013-02-19','2013-06-23','2013-04-20');</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -10840,23 +10840,23 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D46" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41291</v>
+        <v>41304</v>
       </c>
       <c r="E46" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41489</v>
+        <v>41440</v>
       </c>
       <c r="F46" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41325</v>
+        <v>41413</v>
       </c>
       <c r="G46" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Roger@cs2102.com','87','2013-01-17','2013-08-03','2013-02-20');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Roger@cs2102.com','95','2013-01-30','2013-06-15','2013-05-19');</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D47" s="9">
         <f t="shared" ca="1" si="1"/>
@@ -10877,15 +10877,15 @@
       </c>
       <c r="E47" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41536</v>
+        <v>41532</v>
       </c>
       <c r="F47" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41431</v>
+        <v>41392</v>
       </c>
       <c r="G47" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Abraham@cs2102.com','69','2013-03-01','2013-09-19','2013-06-06');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Abraham@cs2102.com','100','2013-03-01','2013-09-15','2013-04-28');</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -10898,23 +10898,23 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="D48" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41294</v>
+        <v>41331</v>
       </c>
       <c r="E48" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41463</v>
+        <v>41531</v>
       </c>
       <c r="F48" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41375</v>
+        <v>41474</v>
       </c>
       <c r="G48" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Creola@cs2102.com','84','2013-01-20','2013-07-08','2013-04-11');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Creola@cs2102.com','2','2013-02-26','2013-09-14','2013-07-19');</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -10927,23 +10927,23 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D49" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41318</v>
+        <v>41277</v>
       </c>
       <c r="E49" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41428</v>
+        <v>41451</v>
       </c>
       <c r="F49" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41320</v>
+        <v>41368</v>
       </c>
       <c r="G49" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Toi@cs2102.com','76','2013-02-13','2013-06-03','2013-02-15');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Toi@cs2102.com','56','2013-01-03','2013-06-26','2013-04-04');</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10956,23 +10956,23 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D50" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41325</v>
+        <v>41306</v>
       </c>
       <c r="E50" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41481</v>
+        <v>41505</v>
       </c>
       <c r="F50" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41453</v>
+        <v>41347</v>
       </c>
       <c r="G50" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Nichelle@cs2102.com','45','2013-02-20','2013-07-26','2013-06-28');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Nichelle@cs2102.com','13','2013-02-01','2013-08-19','2013-03-14');</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -10985,23 +10985,23 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41276</v>
+        <v>41318</v>
       </c>
       <c r="E51" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41546</v>
+        <v>41518</v>
       </c>
       <c r="F51" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41451</v>
+        <v>41331</v>
       </c>
       <c r="G51" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Elvina@cs2102.com','29','2013-01-02','2013-09-29','2013-06-26');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Elvina@cs2102.com','93','2013-02-13','2013-09-01','2013-02-26');</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11014,23 +11014,23 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41316</v>
+        <v>41297</v>
       </c>
       <c r="E52" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41544</v>
+        <v>41355</v>
       </c>
       <c r="F52" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41376</v>
+        <v>41304</v>
       </c>
       <c r="G52" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Mitsuko@cs2102.com','89','2013-02-11','2013-09-27','2013-04-12');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Mitsuko@cs2102.com','57','2013-01-23','2013-03-22','2013-01-30');</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -11043,23 +11043,23 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D53" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41299</v>
+        <v>41307</v>
       </c>
       <c r="E53" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41531</v>
+        <v>41385</v>
       </c>
       <c r="F53" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41428</v>
+        <v>41336</v>
       </c>
       <c r="G53" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Helaine@cs2102.com','18','2013-01-25','2013-09-14','2013-06-03');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Helaine@cs2102.com','2','2013-02-02','2013-04-21','2013-03-03');</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11072,23 +11072,23 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D54" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41320</v>
+        <v>41324</v>
       </c>
       <c r="E54" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41384</v>
+        <v>41515</v>
       </c>
       <c r="F54" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41355</v>
+        <v>41409</v>
       </c>
       <c r="G54" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Fredericka@cs2102.com','69','2013-02-15','2013-04-20','2013-03-22');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Fredericka@cs2102.com','74','2013-02-19','2013-08-29','2013-05-15');</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -11101,23 +11101,23 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D55" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41296</v>
+        <v>41325</v>
       </c>
       <c r="E55" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41435</v>
+        <v>41430</v>
       </c>
       <c r="F55" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41352</v>
+        <v>41413</v>
       </c>
       <c r="G55" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Deb@cs2102.com','3','2013-01-22','2013-06-10','2013-03-19');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Deb@cs2102.com','53','2013-02-20','2013-06-05','2013-05-19');</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -11130,23 +11130,23 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41321</v>
+        <v>41322</v>
       </c>
       <c r="E56" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41443</v>
+        <v>41415</v>
       </c>
       <c r="F56" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41353</v>
+        <v>41329</v>
       </c>
       <c r="G56" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Raven@cs2102.com','59','2013-02-16','2013-06-18','2013-03-20');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Raven@cs2102.com','62','2013-02-17','2013-05-21','2013-02-24');</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11159,23 +11159,23 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41329</v>
+        <v>41301</v>
       </c>
       <c r="E57" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41485</v>
+        <v>41441</v>
       </c>
       <c r="F57" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41404</v>
+        <v>41337</v>
       </c>
       <c r="G57" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Epifania@cs2102.com','4','2013-02-24','2013-07-30','2013-05-10');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Epifania@cs2102.com','57','2013-01-27','2013-06-16','2013-03-04');</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -11192,19 +11192,19 @@
       </c>
       <c r="D58" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41323</v>
+        <v>41296</v>
       </c>
       <c r="E58" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41519</v>
+        <v>41369</v>
       </c>
       <c r="F58" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41481</v>
+        <v>41339</v>
       </c>
       <c r="G58" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Wava@cs2102.com','75','2013-02-18','2013-09-02','2013-07-26');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Wava@cs2102.com','75','2013-01-22','2013-04-05','2013-03-06');</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -11217,23 +11217,23 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D59" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41319</v>
+        <v>41331</v>
       </c>
       <c r="E59" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41524</v>
+        <v>41439</v>
       </c>
       <c r="F59" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41505</v>
+        <v>41419</v>
       </c>
       <c r="G59" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jenifer@cs2102.com','30','2013-02-14','2013-09-07','2013-08-19');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jenifer@cs2102.com','4','2013-02-26','2013-06-14','2013-05-25');</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -11246,23 +11246,23 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41307</v>
+        <v>41281</v>
       </c>
       <c r="E60" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41359</v>
+        <v>41498</v>
       </c>
       <c r="F60" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41359</v>
+        <v>41451</v>
       </c>
       <c r="G60" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Imelda@cs2102.com','50','2013-02-02','2013-03-26','2013-03-26');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Imelda@cs2102.com','99','2013-01-07','2013-08-12','2013-06-26');</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -11275,23 +11275,23 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="D61" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41284</v>
+        <v>41308</v>
       </c>
       <c r="E61" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41521</v>
+        <v>41406</v>
       </c>
       <c r="F61" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41452</v>
+        <v>41405</v>
       </c>
       <c r="G61" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cherish@cs2102.com','42','2013-01-10','2013-09-04','2013-06-27');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cherish@cs2102.com','99','2013-02-03','2013-05-12','2013-05-11');</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -11304,23 +11304,23 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D62" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41285</v>
+        <v>41298</v>
       </c>
       <c r="E62" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41416</v>
+        <v>41380</v>
       </c>
       <c r="F62" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41374</v>
+        <v>41326</v>
       </c>
       <c r="G62" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Marcel@cs2102.com','14','2013-01-11','2013-05-22','2013-04-10');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Marcel@cs2102.com','89','2013-01-24','2013-04-16','2013-02-21');</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11333,23 +11333,23 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D63" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41299</v>
+        <v>41312</v>
       </c>
       <c r="E63" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41489</v>
+        <v>41450</v>
       </c>
       <c r="F63" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41401</v>
+        <v>41372</v>
       </c>
       <c r="G63" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Alethea@cs2102.com','79','2013-01-25','2013-08-03','2013-05-07');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Alethea@cs2102.com','12','2013-02-07','2013-06-25','2013-04-08');</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -11362,23 +11362,23 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D64" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41330</v>
+        <v>41326</v>
       </c>
       <c r="E64" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41432</v>
+        <v>41418</v>
       </c>
       <c r="F64" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41391</v>
+        <v>41355</v>
       </c>
       <c r="G64" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Felica@cs2102.com','71','2013-02-25','2013-06-07','2013-04-27');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Felica@cs2102.com','18','2013-02-21','2013-05-24','2013-03-22');</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -11391,23 +11391,23 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D65" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41295</v>
+        <v>41291</v>
       </c>
       <c r="E65" s="9">
         <f t="shared" ca="1" si="2"/>
+        <v>41499</v>
+      </c>
+      <c r="F65" s="9">
+        <f t="shared" ca="1" si="3"/>
         <v>41390</v>
       </c>
-      <c r="F65" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>41382</v>
-      </c>
       <c r="G65" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Reatha@cs2102.com','58','2013-01-21','2013-04-26','2013-04-18');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Reatha@cs2102.com','35','2013-01-17','2013-08-13','2013-04-26');</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -11420,23 +11420,23 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41320</v>
+        <v>41296</v>
       </c>
       <c r="E66" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41436</v>
+        <v>41474</v>
       </c>
       <c r="F66" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41407</v>
+        <v>41392</v>
       </c>
       <c r="G66" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Velia@cs2102.com','11','2013-02-15','2013-06-11','2013-05-13');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Velia@cs2102.com','12','2013-01-22','2013-07-19','2013-04-28');</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -11449,23 +11449,23 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C100" ca="1" si="5">RANDBETWEEN(1,100)</f>
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D67" s="9">
         <f t="shared" ref="D67:D100" ca="1" si="6">RANDBETWEEN(DATE(2013, 1, 1),DATE(2013, 3, 1))</f>
-        <v>41277</v>
+        <v>41326</v>
       </c>
       <c r="E67" s="9">
         <f t="shared" ref="E67:E100" ca="1" si="7">RANDBETWEEN(DATE(2013, 3, 20),DATE(2013, 9, 30))</f>
-        <v>41454</v>
+        <v>41531</v>
       </c>
       <c r="F67" s="9">
         <f t="shared" ref="F67:F100" ca="1" si="8">RANDBETWEEN(DATE(YEAR(D67),MONTH(D67),DAY(D67)), DATE(YEAR(E67),MONTH(E67),DAY(E67)))</f>
-        <v>41404</v>
+        <v>41391</v>
       </c>
       <c r="G67" s="9" t="str">
         <f t="shared" ref="G67:G100" ca="1" si="9">CONCATENATE("INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('",B67,"','",C67,"','",TEXT(D67,"yyyy-mm-dd"),"','",TEXT(E67,"yyyy-mm-dd"),"','",TEXT(F67,"yyyy-mm-dd"),"');")</f>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Crista@cs2102.com','24','2013-01-03','2013-06-29','2013-05-10');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Crista@cs2102.com','60','2013-02-21','2013-09-14','2013-04-27');</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -11478,23 +11478,23 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41305</v>
+        <v>41306</v>
       </c>
       <c r="E68" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41490</v>
+        <v>41460</v>
       </c>
       <c r="F68" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41310</v>
+        <v>41387</v>
       </c>
       <c r="G68" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Keesha@cs2102.com','86','2013-01-31','2013-08-04','2013-02-05');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Keesha@cs2102.com','10','2013-02-01','2013-07-05','2013-04-23');</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11507,23 +11507,23 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D69" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41282</v>
+        <v>41290</v>
       </c>
       <c r="E69" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41493</v>
+        <v>41382</v>
       </c>
       <c r="F69" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41470</v>
+        <v>41345</v>
       </c>
       <c r="G69" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Pandora@cs2102.com','54','2013-01-08','2013-08-07','2013-07-15');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Pandora@cs2102.com','83','2013-01-16','2013-04-18','2013-03-12');</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -11536,23 +11536,23 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D70" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41280</v>
+        <v>41320</v>
       </c>
       <c r="E70" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41523</v>
+        <v>41399</v>
       </c>
       <c r="F70" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41303</v>
+        <v>41386</v>
       </c>
       <c r="G70" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Raguel@cs2102.com','75','2013-01-06','2013-09-06','2013-01-29');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Raguel@cs2102.com','5','2013-02-15','2013-05-05','2013-04-22');</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11565,23 +11565,23 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D71" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41316</v>
+        <v>41277</v>
       </c>
       <c r="E71" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41517</v>
+        <v>41509</v>
       </c>
       <c r="F71" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41352</v>
+        <v>41483</v>
       </c>
       <c r="G71" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Deedee@cs2102.com','31','2013-02-11','2013-08-31','2013-03-19');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Deedee@cs2102.com','80','2013-01-03','2013-08-23','2013-07-28');</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -11594,23 +11594,23 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41294</v>
+        <v>41312</v>
       </c>
       <c r="E72" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41488</v>
+        <v>41410</v>
       </c>
       <c r="F72" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41318</v>
+        <v>41408</v>
       </c>
       <c r="G72" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Juanita@cs2102.com','57','2013-01-20','2013-08-02','2013-02-13');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Juanita@cs2102.com','96','2013-02-07','2013-05-16','2013-05-14');</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -11623,23 +11623,23 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D73" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41333</v>
+        <v>41276</v>
       </c>
       <c r="E73" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41375</v>
+        <v>41525</v>
       </c>
       <c r="F73" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41338</v>
+        <v>41290</v>
       </c>
       <c r="G73" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Stanley@cs2102.com','63','2013-02-28','2013-04-11','2013-03-05');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Stanley@cs2102.com','54','2013-01-02','2013-09-08','2013-01-16');</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11652,23 +11652,23 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D74" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41320</v>
+        <v>41319</v>
       </c>
       <c r="E74" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41512</v>
+        <v>41520</v>
       </c>
       <c r="F74" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41349</v>
+        <v>41433</v>
       </c>
       <c r="G74" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Gregory@cs2102.com','55','2013-02-15','2013-08-26','2013-03-16');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Gregory@cs2102.com','5','2013-02-14','2013-09-03','2013-06-08');</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -11681,23 +11681,23 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41332</v>
+        <v>41276</v>
       </c>
       <c r="E75" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41504</v>
+        <v>41454</v>
       </c>
       <c r="F75" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41382</v>
+        <v>41426</v>
       </c>
       <c r="G75" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jacklyn@cs2102.com','87','2013-02-27','2013-08-18','2013-04-18');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jacklyn@cs2102.com','90','2013-01-02','2013-06-29','2013-06-01');</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -11710,23 +11710,23 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D76" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41316</v>
+        <v>41282</v>
       </c>
       <c r="E76" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41528</v>
+        <v>41457</v>
       </c>
       <c r="F76" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41468</v>
+        <v>41306</v>
       </c>
       <c r="G76" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Madlyn@cs2102.com','12','2013-02-11','2013-09-11','2013-07-13');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Madlyn@cs2102.com','76','2013-01-08','2013-07-02','2013-02-01');</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11739,23 +11739,23 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D77" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41286</v>
+        <v>41316</v>
       </c>
       <c r="E77" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41470</v>
+        <v>41387</v>
       </c>
       <c r="F77" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41331</v>
+        <v>41346</v>
       </c>
       <c r="G77" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Rudolph@cs2102.com','1','2013-01-12','2013-07-15','2013-02-26');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Rudolph@cs2102.com','63','2013-02-11','2013-04-23','2013-03-13');</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11768,23 +11768,23 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="D78" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41331</v>
+        <v>41308</v>
       </c>
       <c r="E78" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41485</v>
+        <v>41519</v>
       </c>
       <c r="F78" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41399</v>
+        <v>41468</v>
       </c>
       <c r="G78" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Marybeth@cs2102.com','71','2013-02-26','2013-07-30','2013-05-05');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Marybeth@cs2102.com','96','2013-02-03','2013-09-02','2013-07-13');</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -11797,23 +11797,23 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D79" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41282</v>
+        <v>41297</v>
       </c>
       <c r="E79" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41392</v>
+        <v>41507</v>
       </c>
       <c r="F79" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41321</v>
+        <v>41443</v>
       </c>
       <c r="G79" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lupe@cs2102.com','62','2013-01-08','2013-04-28','2013-02-16');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lupe@cs2102.com','59','2013-01-23','2013-08-21','2013-06-18');</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11826,23 +11826,23 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41288</v>
+        <v>41280</v>
       </c>
       <c r="E80" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41365</v>
+        <v>41479</v>
       </c>
       <c r="F80" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41348</v>
+        <v>41438</v>
       </c>
       <c r="G80" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Adriene@cs2102.com','83','2013-01-14','2013-04-01','2013-03-15');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Adriene@cs2102.com','67','2013-01-06','2013-07-24','2013-06-13');</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11855,23 +11855,23 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41320</v>
+        <v>41314</v>
       </c>
       <c r="E81" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41481</v>
+        <v>41484</v>
       </c>
       <c r="F81" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41397</v>
+        <v>41424</v>
       </c>
       <c r="G81" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Epifania@cs2102.com','91','2013-02-15','2013-07-26','2013-05-03');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Epifania@cs2102.com','95','2013-02-09','2013-07-29','2013-05-30');</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -11884,23 +11884,23 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41291</v>
+        <v>41299</v>
       </c>
       <c r="E82" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41419</v>
+        <v>41438</v>
       </c>
       <c r="F82" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41318</v>
+        <v>41435</v>
       </c>
       <c r="G82" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Mee@cs2102.com','23','2013-01-17','2013-05-25','2013-02-13');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Mee@cs2102.com','15','2013-01-25','2013-06-13','2013-06-10');</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -11913,23 +11913,23 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D83" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41332</v>
+        <v>41308</v>
       </c>
       <c r="E83" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41497</v>
+        <v>41442</v>
       </c>
       <c r="F83" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41384</v>
+        <v>41394</v>
       </c>
       <c r="G83" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Dorene@cs2102.com','61','2013-02-27','2013-08-11','2013-04-20');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Dorene@cs2102.com','75','2013-02-03','2013-06-17','2013-04-30');</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -11942,23 +11942,23 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D84" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41318</v>
+        <v>41304</v>
       </c>
       <c r="E84" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41528</v>
+        <v>41435</v>
       </c>
       <c r="F84" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41455</v>
+        <v>41362</v>
       </c>
       <c r="G84" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cecilia@cs2102.com','65','2013-02-13','2013-09-11','2013-06-30');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cecilia@cs2102.com','52','2013-01-30','2013-06-10','2013-03-29');</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -11971,23 +11971,23 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D85" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41328</v>
+        <v>41319</v>
       </c>
       <c r="E85" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41498</v>
+        <v>41361</v>
       </c>
       <c r="F85" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41445</v>
+        <v>41334</v>
       </c>
       <c r="G85" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Queen@cs2102.com','10','2013-02-23','2013-08-12','2013-06-20');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Queen@cs2102.com','28','2013-02-14','2013-03-28','2013-03-01');</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -12000,7 +12000,7 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D86" s="9">
         <f t="shared" ca="1" si="6"/>
@@ -12008,15 +12008,15 @@
       </c>
       <c r="E86" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41414</v>
+        <v>41364</v>
       </c>
       <c r="F86" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41286</v>
+        <v>41278</v>
       </c>
       <c r="G86" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Magali@cs2102.com','6','2013-01-03','2013-05-20','2013-01-12');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Magali@cs2102.com','61','2013-01-03','2013-03-31','2013-01-04');</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -12029,23 +12029,23 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="D87" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41299</v>
+        <v>41290</v>
       </c>
       <c r="E87" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41499</v>
+        <v>41452</v>
       </c>
       <c r="F87" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41392</v>
+        <v>41385</v>
       </c>
       <c r="G87" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Felecia@cs2102.com','6','2013-01-25','2013-08-13','2013-04-28');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Felecia@cs2102.com','78','2013-01-16','2013-06-27','2013-04-21');</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -12058,23 +12058,23 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D88" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41284</v>
+        <v>41279</v>
       </c>
       <c r="E88" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41453</v>
+        <v>41405</v>
       </c>
       <c r="F88" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41346</v>
+        <v>41305</v>
       </c>
       <c r="G88" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lavera@cs2102.com','58','2013-01-10','2013-06-28','2013-03-13');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lavera@cs2102.com','3','2013-01-05','2013-05-11','2013-01-31');</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12087,23 +12087,23 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D89" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41312</v>
+        <v>41330</v>
       </c>
       <c r="E89" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41538</v>
+        <v>41432</v>
       </c>
       <c r="F89" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41411</v>
+        <v>41429</v>
       </c>
       <c r="G89" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Guillermo@cs2102.com','100','2013-02-07','2013-09-21','2013-05-17');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Guillermo@cs2102.com','93','2013-02-25','2013-06-07','2013-06-04');</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12116,7 +12116,7 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D90" s="9">
         <f t="shared" ca="1" si="6"/>
@@ -12124,15 +12124,15 @@
       </c>
       <c r="E90" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41533</v>
+        <v>41435</v>
       </c>
       <c r="F90" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41305</v>
+        <v>41383</v>
       </c>
       <c r="G90" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Summer@cs2102.com','95','2013-01-23','2013-09-16','2013-01-31');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Summer@cs2102.com','72','2013-01-23','2013-06-10','2013-04-19');</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12145,23 +12145,23 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="D91" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41311</v>
+        <v>41316</v>
       </c>
       <c r="E91" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41450</v>
+        <v>41389</v>
       </c>
       <c r="F91" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41425</v>
+        <v>41347</v>
       </c>
       <c r="G91" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Meagan@cs2102.com','47','2013-02-06','2013-06-25','2013-05-31');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Meagan@cs2102.com','82','2013-02-11','2013-04-25','2013-03-14');</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -12174,23 +12174,23 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D92" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41282</v>
+        <v>41317</v>
       </c>
       <c r="E92" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41531</v>
+        <v>41490</v>
       </c>
       <c r="F92" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41320</v>
+        <v>41325</v>
       </c>
       <c r="G92" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Ronald@cs2102.com','74','2013-01-08','2013-09-14','2013-02-15');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Ronald@cs2102.com','76','2013-02-12','2013-08-04','2013-02-20');</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -12203,23 +12203,23 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D93" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41333</v>
+        <v>41313</v>
       </c>
       <c r="E93" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41515</v>
+        <v>41492</v>
       </c>
       <c r="F93" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41428</v>
+        <v>41365</v>
       </c>
       <c r="G93" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Ricarda@cs2102.com','33','2013-02-28','2013-08-29','2013-06-03');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Ricarda@cs2102.com','81','2013-02-08','2013-08-06','2013-04-01');</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -12232,23 +12232,23 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="D94" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41323</v>
+        <v>41302</v>
       </c>
       <c r="E94" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41407</v>
+        <v>41426</v>
       </c>
       <c r="F94" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41323</v>
+        <v>41340</v>
       </c>
       <c r="G94" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Agustin@cs2102.com','84','2013-02-18','2013-05-13','2013-02-18');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Agustin@cs2102.com','47','2013-01-28','2013-06-01','2013-03-07');</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -12261,23 +12261,23 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="D95" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41308</v>
+        <v>41306</v>
       </c>
       <c r="E95" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41420</v>
+        <v>41425</v>
       </c>
       <c r="F95" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41401</v>
+        <v>41339</v>
       </c>
       <c r="G95" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lanie@cs2102.com','49','2013-02-03','2013-05-26','2013-05-07');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lanie@cs2102.com','86','2013-02-01','2013-05-31','2013-03-06');</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -12290,23 +12290,23 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="D96" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41288</v>
+        <v>41315</v>
       </c>
       <c r="E96" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41494</v>
+        <v>41498</v>
       </c>
       <c r="F96" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41378</v>
+        <v>41351</v>
       </c>
       <c r="G96" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Gianna@cs2102.com','87','2013-01-14','2013-08-08','2013-04-14');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Gianna@cs2102.com','4','2013-02-10','2013-08-12','2013-03-18');</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -12319,23 +12319,23 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D97" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41276</v>
+        <v>41292</v>
       </c>
       <c r="E97" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41519</v>
+        <v>41503</v>
       </c>
       <c r="F97" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41516</v>
+        <v>41409</v>
       </c>
       <c r="G97" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Eunice@cs2102.com','22','2013-01-02','2013-09-02','2013-08-30');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Eunice@cs2102.com','74','2013-01-18','2013-08-17','2013-05-15');</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12348,23 +12348,23 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D98" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41311</v>
+        <v>41325</v>
       </c>
       <c r="E98" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41512</v>
+        <v>41432</v>
       </c>
       <c r="F98" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41504</v>
+        <v>41382</v>
       </c>
       <c r="G98" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Regenia@cs2102.com','74','2013-02-06','2013-08-26','2013-08-18');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Regenia@cs2102.com','84','2013-02-20','2013-06-07','2013-04-18');</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -12377,23 +12377,23 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D99" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41308</v>
+        <v>41289</v>
       </c>
       <c r="E99" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41418</v>
+        <v>41504</v>
       </c>
       <c r="F99" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41369</v>
+        <v>41381</v>
       </c>
       <c r="G99" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Olene@cs2102.com','91','2013-02-03','2013-05-24','2013-04-05');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Olene@cs2102.com','29','2013-01-15','2013-08-18','2013-04-17');</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12406,23 +12406,23 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D100" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41319</v>
+        <v>41293</v>
       </c>
       <c r="E100" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41412</v>
+        <v>41517</v>
       </c>
       <c r="F100" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41392</v>
+        <v>41363</v>
       </c>
       <c r="G100" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('America@cs2102.com','46','2013-02-14','2013-05-18','2013-04-28');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('America@cs2102.com','84','2013-01-19','2013-08-31','2013-03-30');</v>
       </c>
     </row>
   </sheetData>
@@ -12536,8 +12536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12563,7 +12563,7 @@
       </c>
       <c r="E1" s="4">
         <f ca="1">Rating!C10</f>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12576,15 +12576,15 @@
       </c>
       <c r="C2" s="4">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2" t="str">
-        <f ca="1">CONCATENATE("INSERT INTO Likes (customer,item,rating) VALUES (","'",B2,"'",",",C2,"",",);")</f>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Charley@cs2102.com',81,);</v>
+        <f t="shared" ref="E2:E65" ca="1" si="0">CONCATENATE("INSERT INTO Likes (customer,item) VALUES (","'",B2,"'",",",C2,"",");")</f>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Charley@cs2102.com',69);</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12596,16 +12596,16 @@
         <v>Aurore@cs2102.com</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>24</v>
+        <f t="shared" ref="C3:C66" ca="1" si="1">RANDBETWEEN(1,100)</f>
+        <v>12</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D66" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <f t="shared" ref="D3:D66" ca="1" si="2">RANDBETWEEN(1,5)</f>
+        <v>4</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" ca="1" si="2">CONCATENATE("INSERT INTO Likes (customer,item,rating) VALUES (","'",B3,"'",",",C3,"",",);")</f>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Aurore@cs2102.com',24,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Aurore@cs2102.com',12);</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12617,16 +12617,16 @@
         <v>Asha@cs2102.com</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Asha@cs2102.com',10,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Asha@cs2102.com',35);</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12638,16 +12638,16 @@
         <v>Kandi@cs2102.com</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Kandi@cs2102.com',15,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Kandi@cs2102.com',55);</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12659,16 +12659,16 @@
         <v>Jeanett@cs2102.com</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Jeanett@cs2102.com',83,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Jeanett@cs2102.com',58);</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12680,16 +12680,16 @@
         <v>Pam@cs2102.com</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Pam@cs2102.com',21,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Pam@cs2102.com',79);</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12701,16 +12701,16 @@
         <v>Cristobal@cs2102.com</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Cristobal@cs2102.com',44,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Cristobal@cs2102.com',5);</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12722,16 +12722,16 @@
         <v>Kelly@cs2102.com</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Kelly@cs2102.com',77,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Kelly@cs2102.com',72);</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -12743,16 +12743,16 @@
         <v>Jacalyn@cs2102.com</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Jacalyn@cs2102.com',51,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Jacalyn@cs2102.com',52);</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12764,16 +12764,16 @@
         <v>Norene@cs2102.com</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Norene@cs2102.com',98,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Norene@cs2102.com',89);</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -12785,16 +12785,16 @@
         <v>Benita@cs2102.com</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Benita@cs2102.com',70,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Benita@cs2102.com',43);</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12806,16 +12806,16 @@
         <v>Julieann@cs2102.com</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Julieann@cs2102.com',97,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Julieann@cs2102.com',65);</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12827,16 +12827,16 @@
         <v>Florencio@cs2102.com</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Florencio@cs2102.com',59,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Florencio@cs2102.com',61);</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -12848,16 +12848,16 @@
         <v>Lilia@cs2102.com</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Lilia@cs2102.com',6,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Lilia@cs2102.com',97);</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -12869,16 +12869,16 @@
         <v>Erik@cs2102.com</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Erik@cs2102.com',80,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Erik@cs2102.com',49);</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -12890,16 +12890,16 @@
         <v>Han@cs2102.com</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Han@cs2102.com',67,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Han@cs2102.com',42);</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -12911,16 +12911,16 @@
         <v>Rosalie@cs2102.com</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Rosalie@cs2102.com',11,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Rosalie@cs2102.com',100);</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -12932,16 +12932,16 @@
         <v>Lili@cs2102.com</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Lili@cs2102.com',84,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Lili@cs2102.com',22);</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -12953,16 +12953,16 @@
         <v>Arletha@cs2102.com</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Arletha@cs2102.com',26,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Arletha@cs2102.com',51);</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12974,16 +12974,16 @@
         <v>Esperanza@cs2102.com</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Esperanza@cs2102.com',18,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Esperanza@cs2102.com',81);</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12995,16 +12995,16 @@
         <v>Magdalena@cs2102.com</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Magdalena@cs2102.com',35,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Magdalena@cs2102.com',6);</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -13016,16 +13016,16 @@
         <v>Shizue@cs2102.com</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Shizue@cs2102.com',74,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Shizue@cs2102.com',95);</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -13037,16 +13037,16 @@
         <v>Keisha@cs2102.com</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Keisha@cs2102.com',91,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Keisha@cs2102.com',6);</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13058,16 +13058,16 @@
         <v>Eufemia@cs2102.com</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Eufemia@cs2102.com',48,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Eufemia@cs2102.com',25);</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -13079,16 +13079,16 @@
         <v>Jan@cs2102.com</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Jan@cs2102.com',28,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Jan@cs2102.com',64);</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -13100,16 +13100,16 @@
         <v>Maud@cs2102.com</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Maud@cs2102.com',31,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Maud@cs2102.com',32);</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13121,16 +13121,16 @@
         <v>Jefferson@cs2102.com</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Jefferson@cs2102.com',45,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Jefferson@cs2102.com',99);</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -13142,16 +13142,16 @@
         <v>Kenia@cs2102.com</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Kenia@cs2102.com',77,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Kenia@cs2102.com',17);</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -13163,16 +13163,16 @@
         <v>Cyrus@cs2102.com</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Cyrus@cs2102.com',57,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Cyrus@cs2102.com',82);</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13184,16 +13184,16 @@
         <v>Carmela@cs2102.com</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Carmela@cs2102.com',12,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Carmela@cs2102.com',5);</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -13205,16 +13205,16 @@
         <v>Lloyd@cs2102.com</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Lloyd@cs2102.com',78,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Lloyd@cs2102.com',89);</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13226,16 +13226,16 @@
         <v>Pamelia@cs2102.com</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Pamelia@cs2102.com',46,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Pamelia@cs2102.com',26);</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -13247,16 +13247,16 @@
         <v>Aleida@cs2102.com</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Aleida@cs2102.com',9,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Aleida@cs2102.com',43);</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13268,16 +13268,16 @@
         <v>Susanna@cs2102.com</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Susanna@cs2102.com',28,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Susanna@cs2102.com',43);</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -13289,16 +13289,16 @@
         <v>Kate@cs2102.com</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Kate@cs2102.com',4,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Kate@cs2102.com',43);</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -13310,16 +13310,16 @@
         <v>Shanita@cs2102.com</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Shanita@cs2102.com',60,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Shanita@cs2102.com',28);</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -13331,16 +13331,16 @@
         <v>Liliana@cs2102.com</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Liliana@cs2102.com',99,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Liliana@cs2102.com',85);</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -13352,16 +13352,16 @@
         <v>Fermin@cs2102.com</v>
       </c>
       <c r="C39" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Fermin@cs2102.com',19,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Fermin@cs2102.com',60);</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -13373,16 +13373,16 @@
         <v>Reda@cs2102.com</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Reda@cs2102.com',99,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Reda@cs2102.com',7);</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -13394,16 +13394,16 @@
         <v>Hildred@cs2102.com</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Hildred@cs2102.com',49,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Hildred@cs2102.com',61);</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -13415,16 +13415,16 @@
         <v>Kallie@cs2102.com</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Kallie@cs2102.com',83,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Kallie@cs2102.com',86);</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13436,16 +13436,16 @@
         <v>Dominga@cs2102.com</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Dominga@cs2102.com',61,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Dominga@cs2102.com',15);</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13457,16 +13457,16 @@
         <v>Dwayne@cs2102.com</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Dwayne@cs2102.com',36,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Dwayne@cs2102.com',44);</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -13478,16 +13478,16 @@
         <v>Rona@cs2102.com</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Rona@cs2102.com',46,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Rona@cs2102.com',23);</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -13499,16 +13499,16 @@
         <v>Roger@cs2102.com</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Roger@cs2102.com',33,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Roger@cs2102.com',81);</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13520,16 +13520,16 @@
         <v>Abraham@cs2102.com</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Abraham@cs2102.com',17,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Abraham@cs2102.com',49);</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -13541,16 +13541,16 @@
         <v>Creola@cs2102.com</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Creola@cs2102.com',81,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Creola@cs2102.com',98);</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -13562,16 +13562,16 @@
         <v>Toi@cs2102.com</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Toi@cs2102.com',72,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Toi@cs2102.com',94);</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13583,16 +13583,16 @@
         <v>Nichelle@cs2102.com</v>
       </c>
       <c r="C50" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
       </c>
       <c r="D50" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Nichelle@cs2102.com',97,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Nichelle@cs2102.com',64);</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -13604,16 +13604,16 @@
         <v>Elvina@cs2102.com</v>
       </c>
       <c r="C51" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Elvina@cs2102.com',78,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Elvina@cs2102.com',72);</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13625,16 +13625,16 @@
         <v>Mitsuko@cs2102.com</v>
       </c>
       <c r="C52" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Mitsuko@cs2102.com',1,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Mitsuko@cs2102.com',23);</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -13646,16 +13646,16 @@
         <v>Helaine@cs2102.com</v>
       </c>
       <c r="C53" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Helaine@cs2102.com',44,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Helaine@cs2102.com',38);</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13667,16 +13667,16 @@
         <v>Fredericka@cs2102.com</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Fredericka@cs2102.com',62,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Fredericka@cs2102.com',47);</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -13688,16 +13688,16 @@
         <v>Deb@cs2102.com</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Deb@cs2102.com',96,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Deb@cs2102.com',71);</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -13709,16 +13709,16 @@
         <v>Raven@cs2102.com</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Raven@cs2102.com',81,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Raven@cs2102.com',9);</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13730,16 +13730,16 @@
         <v>Epifania@cs2102.com</v>
       </c>
       <c r="C57" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Epifania@cs2102.com',17,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Epifania@cs2102.com',53);</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -13751,16 +13751,16 @@
         <v>Wava@cs2102.com</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Wava@cs2102.com',27,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Wava@cs2102.com',70);</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -13772,16 +13772,16 @@
         <v>Jenifer@cs2102.com</v>
       </c>
       <c r="C59" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Jenifer@cs2102.com',47,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Jenifer@cs2102.com',27);</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -13793,16 +13793,16 @@
         <v>Imelda@cs2102.com</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Imelda@cs2102.com',62,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Imelda@cs2102.com',41);</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -13814,16 +13814,16 @@
         <v>Cherish@cs2102.com</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
       </c>
       <c r="D61" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Cherish@cs2102.com',73,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Cherish@cs2102.com',58);</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -13835,16 +13835,16 @@
         <v>Marcel@cs2102.com</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Marcel@cs2102.com',83,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Marcel@cs2102.com',51);</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13856,16 +13856,16 @@
         <v>Alethea@cs2102.com</v>
       </c>
       <c r="C63" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="D63" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Alethea@cs2102.com',77,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Alethea@cs2102.com',9);</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -13877,16 +13877,16 @@
         <v>Felica@cs2102.com</v>
       </c>
       <c r="C64" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
       </c>
       <c r="D64" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Felica@cs2102.com',24,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Felica@cs2102.com',33);</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -13898,16 +13898,16 @@
         <v>Reatha@cs2102.com</v>
       </c>
       <c r="C65" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
       </c>
       <c r="D65" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Reatha@cs2102.com',56,);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Reatha@cs2102.com',91);</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -13919,16 +13919,16 @@
         <v>Velia@cs2102.com</v>
       </c>
       <c r="C66" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
       </c>
       <c r="D66" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Velia@cs2102.com',33,);</v>
+        <f t="shared" ref="E66:E84" ca="1" si="3">CONCATENATE("INSERT INTO Likes (customer,item) VALUES (","'",B66,"'",",",C66,"",");")</f>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Velia@cs2102.com',75);</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -13940,16 +13940,16 @@
         <v>Crista@cs2102.com</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" ref="C67:C100" ca="1" si="3">RANDBETWEEN(1,100)</f>
-        <v>66</v>
+        <f t="shared" ref="C67:C100" ca="1" si="4">RANDBETWEEN(1,100)</f>
+        <v>59</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" ref="D67:D100" ca="1" si="4">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ref="D67:D100" ca="1" si="5">RANDBETWEEN(1,5)</f>
+        <v>4</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E100" ca="1" si="5">CONCATENATE("INSERT INTO Likes (customer,item,rating) VALUES (","'",B67,"'",",",C67,"",",);")</f>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Crista@cs2102.com',66,);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Crista@cs2102.com',59);</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -13961,16 +13961,16 @@
         <v>Keesha@cs2102.com</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Keesha@cs2102.com',12,);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Keesha@cs2102.com',84);</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13982,16 +13982,16 @@
         <v>Pandora@cs2102.com</v>
       </c>
       <c r="C69" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Pandora@cs2102.com',23,);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Pandora@cs2102.com',12);</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -14003,16 +14003,16 @@
         <v>Raguel@cs2102.com</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>47</v>
       </c>
       <c r="D70" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Raguel@cs2102.com',92,);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Raguel@cs2102.com',47);</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14024,16 +14024,16 @@
         <v>Deedee@cs2102.com</v>
       </c>
       <c r="C71" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Deedee@cs2102.com',72,);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Deedee@cs2102.com',100);</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -14045,16 +14045,16 @@
         <v>Juanita@cs2102.com</v>
       </c>
       <c r="C72" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>38</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Juanita@cs2102.com',53,);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Juanita@cs2102.com',38);</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -14066,16 +14066,16 @@
         <v>Stanley@cs2102.com</v>
       </c>
       <c r="C73" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Stanley@cs2102.com',80,);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Stanley@cs2102.com',8);</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14087,16 +14087,16 @@
         <v>Gregory@cs2102.com</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Gregory@cs2102.com',45,);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Gregory@cs2102.com',11);</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -14108,16 +14108,16 @@
         <v>Jacklyn@cs2102.com</v>
       </c>
       <c r="C75" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Jacklyn@cs2102.com',51,);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Jacklyn@cs2102.com',39);</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -14129,16 +14129,16 @@
         <v>Madlyn@cs2102.com</v>
       </c>
       <c r="C76" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Madlyn@cs2102.com',51,);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Madlyn@cs2102.com',68);</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14150,16 +14150,16 @@
         <v>Rudolph@cs2102.com</v>
       </c>
       <c r="C77" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>29</v>
       </c>
       <c r="D77" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Rudolph@cs2102.com',47,);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Rudolph@cs2102.com',29);</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14171,16 +14171,16 @@
         <v>Marybeth@cs2102.com</v>
       </c>
       <c r="C78" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
       </c>
       <c r="D78" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Marybeth@cs2102.com',6,);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Marybeth@cs2102.com',76);</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -14192,16 +14192,16 @@
         <v>Lupe@cs2102.com</v>
       </c>
       <c r="C79" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
       </c>
       <c r="D79" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Lupe@cs2102.com',32,);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Lupe@cs2102.com',97);</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14213,16 +14213,16 @@
         <v>Adriene@cs2102.com</v>
       </c>
       <c r="C80" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
       </c>
       <c r="D80" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Adriene@cs2102.com',44,);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Adriene@cs2102.com',11);</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14234,16 +14234,16 @@
         <v>Epifania@cs2102.com</v>
       </c>
       <c r="C81" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
       </c>
       <c r="D81" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Epifania@cs2102.com',39,);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Epifania@cs2102.com',71);</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -14255,16 +14255,16 @@
         <v>Mee@cs2102.com</v>
       </c>
       <c r="C82" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34</v>
       </c>
       <c r="D82" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Mee@cs2102.com',98,);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Mee@cs2102.com',34);</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -14276,16 +14276,16 @@
         <v>Dorene@cs2102.com</v>
       </c>
       <c r="C83" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>36</v>
       </c>
       <c r="D83" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Dorene@cs2102.com',62,);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Dorene@cs2102.com',36);</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -14297,16 +14297,16 @@
         <v>Cecilia@cs2102.com</v>
       </c>
       <c r="C84" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
       </c>
       <c r="D84" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Cecilia@cs2102.com',94,);</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Cecilia@cs2102.com',61);</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -14318,16 +14318,16 @@
         <v>Queen@cs2102.com</v>
       </c>
       <c r="C85" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
       </c>
       <c r="D85" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Queen@cs2102.com',66,);</v>
+        <f ca="1">CONCATENATE("INSERT INTO Likes (customer,item) VALUES (","'",B85,"'",",",C85,"",");")</f>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Queen@cs2102.com',6);</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -14339,16 +14339,16 @@
         <v>Magali@cs2102.com</v>
       </c>
       <c r="C86" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
       </c>
       <c r="D86" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Magali@cs2102.com',24,);</v>
+        <f t="shared" ref="E86:E100" ca="1" si="6">CONCATENATE("INSERT INTO Likes (customer,item) VALUES (","'",B86,"'",",",C86,"",");")</f>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Magali@cs2102.com',73);</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -14360,16 +14360,16 @@
         <v>Felecia@cs2102.com</v>
       </c>
       <c r="C87" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
       </c>
       <c r="D87" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Felecia@cs2102.com',20,);</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Felecia@cs2102.com',30);</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -14381,16 +14381,16 @@
         <v>Lavera@cs2102.com</v>
       </c>
       <c r="C88" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Lavera@cs2102.com',80,);</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Lavera@cs2102.com',74);</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14402,16 +14402,16 @@
         <v>Guillermo@cs2102.com</v>
       </c>
       <c r="C89" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="D89" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Guillermo@cs2102.com',98,);</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Guillermo@cs2102.com',4);</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14423,16 +14423,16 @@
         <v>Summer@cs2102.com</v>
       </c>
       <c r="C90" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34</v>
       </c>
       <c r="D90" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Summer@cs2102.com',30,);</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Summer@cs2102.com',34);</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14444,16 +14444,16 @@
         <v>Meagan@cs2102.com</v>
       </c>
       <c r="C91" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>31</v>
       </c>
       <c r="D91" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Meagan@cs2102.com',81,);</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Meagan@cs2102.com',31);</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -14465,16 +14465,16 @@
         <v>Ronald@cs2102.com</v>
       </c>
       <c r="C92" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
       </c>
       <c r="D92" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Ronald@cs2102.com',21,);</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Ronald@cs2102.com',16);</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -14486,16 +14486,16 @@
         <v>Ricarda@cs2102.com</v>
       </c>
       <c r="C93" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
       </c>
       <c r="D93" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Ricarda@cs2102.com',60,);</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Ricarda@cs2102.com',91);</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -14507,16 +14507,16 @@
         <v>Agustin@cs2102.com</v>
       </c>
       <c r="C94" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
       </c>
       <c r="D94" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Agustin@cs2102.com',43,);</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Agustin@cs2102.com',80);</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -14528,16 +14528,16 @@
         <v>Lanie@cs2102.com</v>
       </c>
       <c r="C95" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>87</v>
       </c>
       <c r="D95" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Lanie@cs2102.com',56,);</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Lanie@cs2102.com',87);</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -14549,16 +14549,16 @@
         <v>Gianna@cs2102.com</v>
       </c>
       <c r="C96" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>49</v>
       </c>
       <c r="D96" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Gianna@cs2102.com',40,);</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Gianna@cs2102.com',49);</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -14570,16 +14570,16 @@
         <v>Eunice@cs2102.com</v>
       </c>
       <c r="C97" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>36</v>
       </c>
       <c r="D97" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Eunice@cs2102.com',99,);</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Eunice@cs2102.com',36);</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14591,16 +14591,16 @@
         <v>Regenia@cs2102.com</v>
       </c>
       <c r="C98" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>46</v>
       </c>
       <c r="D98" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Regenia@cs2102.com',45,);</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Regenia@cs2102.com',46);</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -14612,16 +14612,16 @@
         <v>Olene@cs2102.com</v>
       </c>
       <c r="C99" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
       </c>
       <c r="D99" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('Olene@cs2102.com',4,);</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Olene@cs2102.com',100);</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14633,16 +14633,16 @@
         <v>America@cs2102.com</v>
       </c>
       <c r="C100" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
       </c>
       <c r="D100" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Likes (customer,item,rating) VALUES ('America@cs2102.com',31,);</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>INSERT INTO Likes (customer,item) VALUES ('America@cs2102.com',100);</v>
       </c>
     </row>
   </sheetData>

--- a/populate.xlsx
+++ b/populate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS2102\Database_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sharmine\Desktop\Workspace\CS2102-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1125,7 +1125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G81" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J101"/>
     </sheetView>
   </sheetViews>
@@ -1172,8 +1172,8 @@
         <v>245</v>
       </c>
       <c r="J1" s="2" t="str">
-        <f>CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",F:F,"',",G:G,",",H:H,",",I:I,");")</f>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (item_id,'title','category','genre','device','release_date',price,rent_price,likes);</v>
+        <f>CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",F:F,"',",G:G,",",H:H,",",I:I,");")</f>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (item_id,'title','category','genre','device','release_date',price,rent_price,likes);</v>
       </c>
       <c r="R1" t="s">
         <v>9</v>
@@ -1206,11 +1206,11 @@
       </c>
       <c r="I2" s="6">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="str">
-        <f t="shared" ref="J2:J7" ca="1" si="0">CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",F:F,"',",G:G,",",H:H,",",I:I,");")</f>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (1,'Expense Manager','App','Lifestyle','Andriod','2014-01-01',0,0,32);</v>
+        <f t="shared" ref="J2:J33" si="0">CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",TEXT(F:F,"yyyy-mm-dd"),"',",G:G,",",H:H,");")</f>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (1,'Expense Manager','App','Lifestyle','Andriod','2014-01-01',0,0);</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1240,11 +1240,11 @@
       </c>
       <c r="I3" s="6">
         <f t="shared" ref="I3:I66" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (2,'EverNote','App','Productivity','iOS','2013-04-03',0.99,0,89);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (2,'EverNote','App','Productivity','iOS','2013-04-03',0.99,0);</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1274,11 +1274,11 @@
       </c>
       <c r="I4" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (3,'Scandal Season 1','TV','Thriller','None','2014-01-02',20,6,56);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (3,'Scandal Season 1','TV','Thriller','None','2014-01-02',20,6);</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="I5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (4,'Suits Season 1','TV','Drama','None','2014-01-03',20,9,12);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (4,'Suits Season 1','TV','Drama','None','2014-01-03',20,9);</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1342,11 +1342,11 @@
       </c>
       <c r="I6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (5,'Brave Frontier','Game','RPG','Andriod','2013-02-23',0,0,66);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (5,'Brave Frontier','Game','RPG','Andriod','2013-02-23',0,0);</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1376,11 +1376,11 @@
       </c>
       <c r="I7" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (6,'The Hobbit: An Unexpected Journey','Movie','Fantasy','DVD','2012-12-15',30,13,91);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (6,'The Hobbit: An Unexpected Journey','Movie','Fantasy','DVD','2012-12-15',30,13);</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1401,23 +1401,23 @@
       </c>
       <c r="F8" s="9">
         <f ca="1">RANDBETWEEN(DATE(2013, 1, 1),DATE(2015, 3, 1))</f>
-        <v>41513</v>
+        <v>42006</v>
       </c>
       <c r="G8" s="5">
         <f ca="1">RANDBETWEEN(5, 60)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H8" s="5">
         <f ca="1">RANDBETWEEN(0.01, 4.99)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f ca="1">CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",TEXT(F:F,"yyyy-mm-dd"),"',",G:G,",",H:H,",",I:I,");")</f>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (7,'Memorado','App','Lifestyle','iOS','2013-08-27',13,1,19);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (7,'Memorado','App','Lifestyle','iOS','2015-01-02',7,3);</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1438,23 +1438,23 @@
       </c>
       <c r="F9" s="9">
         <f t="shared" ref="F9:F72" ca="1" si="2">RANDBETWEEN(DATE(2013, 1, 1),DATE(2015, 3, 1))</f>
-        <v>41509</v>
+        <v>41588</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" ref="G9:G72" ca="1" si="3">RANDBETWEEN(0.01, 60)</f>
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ref="H9:H72" ca="1" si="4">RANDBETWEEN(0.01, 4.99)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f t="shared" ref="J9:J72" ca="1" si="5">CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",TEXT(F:F,"yyyy-mm-dd"),"',",G:G,",",H:H,",",I:I,");")</f>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (8,'Learn Spanish, English, French','App','Productivity','Andriod','2013-08-23',16,4,22);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (8,'Learn Spanish, English, French','App','Productivity','Andriod','2013-11-10',41,2);</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1475,11 +1475,11 @@
       </c>
       <c r="F10" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41905</v>
+        <v>41624</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -1487,11 +1487,11 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (9,'DIY Human Body','App','Lifestyle','PC','2014-09-23',41,4,89);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (9,'DIY Human Body','App','Lifestyle','PC','2013-12-16',30,4);</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1512,23 +1512,23 @@
       </c>
       <c r="F11" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41920</v>
+        <v>41915</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (10,'RefMe','App','Productivity','iOS','2014-10-08',20,1,29);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (10,'RefMe','App','Productivity','iOS','2014-10-03',15,2);</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1549,23 +1549,23 @@
       </c>
       <c r="F12" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41733</v>
+        <v>41550</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (11,'Duolingo','App','Lifestyle','Andriod','2014-04-04',25,2,5);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (11,'Duolingo','App','Lifestyle','Andriod','2013-10-03',4,4);</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1586,11 +1586,11 @@
       </c>
       <c r="F13" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41909</v>
+        <v>41402</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -1598,11 +1598,11 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (12,'Peak - Brain Training','App','Productivity','PC','2014-09-27',45,1,91);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (12,'Peak - Brain Training','App','Productivity','PC','2013-05-08',5,1);</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1623,23 +1623,23 @@
       </c>
       <c r="F14" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41847</v>
+        <v>41973</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (13,'IELTS 1001 ways','App','Lifestyle','iOS','2014-07-27',30,1,48);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (13,'IELTS 1001 ways','App','Lifestyle','iOS','2014-11-30',51,3);</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1660,23 +1660,23 @@
       </c>
       <c r="F15" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41961</v>
+        <v>41591</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (14,'Explain Everything','App','Productivity','Andriod','2014-11-18',8,3,85);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (14,'Explain Everything','App','Productivity','Andriod','2013-11-13',48,1);</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1697,11 +1697,11 @@
       </c>
       <c r="F16" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41656</v>
+        <v>41538</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -1709,11 +1709,11 @@
       </c>
       <c r="I16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="J16" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (15,'Lumosity Mobile','App','Lifestyle','PC','2014-01-17',42,2,87);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (15,'Lumosity Mobile','App','Lifestyle','PC','2013-09-21',11,2);</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1734,23 +1734,23 @@
       </c>
       <c r="F17" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41861</v>
+        <v>41486</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (16,'PhotoMath','App','Productivity','iOS','2014-08-10',41,2,73);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (16,'PhotoMath','App','Productivity','iOS','2013-07-31',34,3);</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1771,11 +1771,11 @@
       </c>
       <c r="F18" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41600</v>
+        <v>41505</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -1783,11 +1783,11 @@
       </c>
       <c r="I18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="J18" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (17,'Molecules by Theodore Gray','App','Lifestyle','Andriod','2013-11-22',19,2,23);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (17,'Molecules by Theodore Gray','App','Lifestyle','Andriod','2013-08-19',9,2);</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1808,23 +1808,23 @@
       </c>
       <c r="F19" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41780</v>
+        <v>42055</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="J19" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (18,'LearnEnglish Kids: Playtime','App','Productivity','PC','2014-05-21',26,3,61);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (18,'LearnEnglish Kids: Playtime','App','Productivity','PC','2015-02-20',34,1);</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1845,11 +1845,11 @@
       </c>
       <c r="F20" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41453</v>
+        <v>41536</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -1857,11 +1857,11 @@
       </c>
       <c r="I20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (19,'Night Sky Pro','App','Lifestyle','iOS','2013-06-28',41,2,28);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (19,'Night Sky Pro','App','Lifestyle','iOS','2013-09-19',45,2);</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1882,11 +1882,11 @@
       </c>
       <c r="F21" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42043</v>
+        <v>41719</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -1894,11 +1894,11 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J21" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (20,'Collins English Dictionary','App','Productivity','Andriod','2015-02-08',49,2,60);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (20,'Collins English Dictionary','App','Productivity','Andriod','2014-03-21',13,2);</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1919,11 +1919,11 @@
       </c>
       <c r="F22" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41968</v>
+        <v>42052</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -1931,11 +1931,11 @@
       </c>
       <c r="I22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="J22" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (21,'Game of Thrones','TV','Thriller','None','2014-11-25',39,3,67);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (21,'Game of Thrones','TV','Thriller','None','2015-02-17',56,3);</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1956,23 +1956,23 @@
       </c>
       <c r="F23" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41673</v>
+        <v>41759</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="J23" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (22,'Arrow','TV','Drama','None','2014-02-03',14,4,53);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (22,'Arrow','TV','Drama','None','2014-04-30',18,3);</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1993,23 +1993,23 @@
       </c>
       <c r="F24" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41938</v>
+        <v>41772</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="J24" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (23,'Marvel''s Agents Of S.H.I.E.L.D','TV','Horror','None','2014-10-26',50,4,93);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (23,'Marvel''s Agents Of S.H.I.E.L.D','TV','Horror','None','2014-05-13',27,1);</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2030,23 +2030,23 @@
       </c>
       <c r="F25" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42022</v>
+        <v>42049</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J25" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (24,'Grey''s Anatomy','TV','Science','None','2015-01-18',19,2,45);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (24,'Grey''s Anatomy','TV','Science','None','2015-02-14',22,4);</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2067,23 +2067,23 @@
       </c>
       <c r="F26" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41377</v>
+        <v>41420</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="H26" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
       <c r="I26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="J26" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (25,'Coronation Street','TV','Thriller','None','2013-04-13',3,4,90);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (25,'Coronation Street','TV','Thriller','None','2013-05-26',30,3);</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2104,23 +2104,23 @@
       </c>
       <c r="F27" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41625</v>
+        <v>41550</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="J27" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (26,'The Vampire Diaries','TV','Drama','None','2013-12-17',10,1,19);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (26,'The Vampire Diaries','TV','Drama','None','2013-10-03',7,4);</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2141,11 +2141,11 @@
       </c>
       <c r="F28" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42059</v>
+        <v>41503</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2153,11 +2153,11 @@
       </c>
       <c r="I28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="J28" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (27,'The Big Bang Theory','TV','Horror','None','2015-02-24',22,2,42);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (27,'The Big Bang Theory','TV','Horror','None','2013-08-17',29,2);</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2178,23 +2178,23 @@
       </c>
       <c r="F29" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41799</v>
+        <v>41870</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="J29" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (28,'Supernatural','TV','Science','None','2014-06-09',42,2,81);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (28,'Supernatural','TV','Science','None','2014-08-19',43,1);</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2215,23 +2215,23 @@
       </c>
       <c r="F30" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41642</v>
+        <v>41764</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="J30" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (29,'How I Met Your Mother','TV','Thriller','None','2014-01-03',37,4,6);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (29,'How I Met Your Mother','TV','Thriller','None','2014-05-05',32,1);</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2252,23 +2252,23 @@
       </c>
       <c r="F31" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41337</v>
+        <v>41726</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J31" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (30,'Once Upon a Time','TV','Drama','None','2013-03-04',48,1,15);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (30,'Once Upon a Time','TV','Drama','None','2014-03-28',37,3);</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2289,11 +2289,11 @@
       </c>
       <c r="F32" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41659</v>
+        <v>41621</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2301,11 +2301,11 @@
       </c>
       <c r="I32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J32" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (31,'Criminal Minds','TV','Horror','None','2014-01-20',48,2,58);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (31,'Criminal Minds','TV','Horror','None','2013-12-13',29,2);</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2326,23 +2326,23 @@
       </c>
       <c r="F33" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41892</v>
+        <v>41435</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="J33" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (32,'The Blacklist','TV','Science','None','2014-09-10',48,1,81);</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (32,'The Blacklist','TV','Science','None','2013-06-10',54,3);</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2363,23 +2363,23 @@
       </c>
       <c r="F34" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42058</v>
+        <v>41277</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="J34" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (33,'The 100','TV','Thriller','None','2015-02-23',41,3,45);</v>
+        <f ca="1">CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",TEXT(F:F,"yyyy-mm-dd"),"',",G:G,",",H:H,");")</f>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (33,'The 100','TV','Thriller','None','2013-01-03',1,4);</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2400,11 +2400,11 @@
       </c>
       <c r="F35" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41632</v>
+        <v>41441</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2412,11 +2412,11 @@
       </c>
       <c r="I35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="J35" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (34,'The Mentalist','TV','Drama','None','2013-12-24',43,1,66);</v>
+        <f t="shared" ref="J35:J98" ca="1" si="5">CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",TEXT(F:F,"yyyy-mm-dd"),"',",G:G,",",H:H,");")</f>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (34,'The Mentalist','TV','Drama','None','2013-06-16',45,1);</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2437,23 +2437,23 @@
       </c>
       <c r="F36" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41318</v>
+        <v>41299</v>
       </c>
       <c r="G36" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J36" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (35,'The Good Wife','TV','Horror','None','2013-02-13',56,2,62);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (35,'The Good Wife','TV','Horror','None','2013-01-25',51,3);</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2474,23 +2474,23 @@
       </c>
       <c r="F37" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41981</v>
+        <v>42052</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="J37" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (36,'NCIS','TV','Science','None','2014-12-08',40,1,17);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (36,'NCIS','TV','Science','None','2015-02-17',3,2);</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2511,11 +2511,11 @@
       </c>
       <c r="F38" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41402</v>
+        <v>41355</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2523,11 +2523,11 @@
       </c>
       <c r="I38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J38" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (37,'Vikings','TV','Thriller','None','2013-05-08',33,3,79);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (37,'Vikings','TV','Thriller','None','2013-03-22',38,3);</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2548,23 +2548,23 @@
       </c>
       <c r="F39" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41549</v>
+        <v>41412</v>
       </c>
       <c r="G39" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="J39" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (38,'Castle','TV','Drama','None','2013-10-02',40,1,87);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (38,'Castle','TV','Drama','None','2013-05-18',4,4);</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2585,23 +2585,23 @@
       </c>
       <c r="F40" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42003</v>
+        <v>41744</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H40" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J40" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (39,'Revenge','TV','Horror','None','2014-12-30',11,3,51);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (39,'Revenge','TV','Horror','None','2014-04-15',15,2);</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2622,11 +2622,11 @@
       </c>
       <c r="F41" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H41" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2634,11 +2634,11 @@
       </c>
       <c r="I41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J41" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (40,'Bones','TV','Science','None','2014-05-08',59,4,35);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (40,'Bones','TV','Science','None','2014-05-12',42,4);</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2659,23 +2659,23 @@
       </c>
       <c r="F42" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41802</v>
+        <v>41474</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="J42" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (41,'Final Fantasy XIII','Game','null','PC','2014-06-12',48,3,81);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (41,'Final Fantasy XIII','Game','null','PC','2013-07-19',59,4);</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2696,11 +2696,11 @@
       </c>
       <c r="F43" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41627</v>
+        <v>42055</v>
       </c>
       <c r="G43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H43" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2708,11 +2708,11 @@
       </c>
       <c r="I43" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="J43" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (42,'Final Fantasy XIII-2','Game','null','PC','2013-12-19',40,2,43);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (42,'Final Fantasy XIII-2','Game','null','PC','2015-02-20',20,2);</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2733,11 +2733,11 @@
       </c>
       <c r="F44" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41877</v>
+        <v>41663</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2745,11 +2745,11 @@
       </c>
       <c r="I44" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="J44" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (43,'Final Fantasy: Lightning Returns','Game','null','PC','2014-08-26',13,2,83);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (43,'Final Fantasy: Lightning Returns','Game','null','PC','2014-01-24',25,2);</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="F45" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41660</v>
+        <v>41965</v>
       </c>
       <c r="G45" s="5">
         <f t="shared" ca="1" si="3"/>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="I45" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J45" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (44,'Clash of Clans','Game','null','iOS','2014-01-21',28,4,72);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (44,'Clash of Clans','Game','null','iOS','2014-11-22',28,4);</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2807,23 +2807,23 @@
       </c>
       <c r="F46" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41601</v>
+        <v>41835</v>
       </c>
       <c r="G46" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="J46" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (45,'Angry Birds','Game','null','Andriod','2013-11-23',11,1,79);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (45,'Angry Birds','Game','null','Andriod','2014-07-15',23,2);</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2844,23 +2844,23 @@
       </c>
       <c r="F47" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41691</v>
+        <v>41387</v>
       </c>
       <c r="G47" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H47" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J47" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (46,'Defense of the Ancients','Game','null','PC','2014-02-21',55,3,42);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (46,'Defense of the Ancients','Game','null','PC','2013-04-23',20,2);</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2881,11 +2881,11 @@
       </c>
       <c r="F48" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41370</v>
+        <v>41681</v>
       </c>
       <c r="G48" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H48" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2893,11 +2893,11 @@
       </c>
       <c r="I48" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J48" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (47,'Card Craawl','Game','null','iOS','2013-04-06',4,3,64);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (47,'Card Craawl','Game','null','iOS','2014-02-11',8,3);</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2918,23 +2918,23 @@
       </c>
       <c r="F49" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41379</v>
+        <v>41432</v>
       </c>
       <c r="G49" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H49" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="J49" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (48,'Word Shark','Game','null','Andriod','2013-04-15',51,2,1);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (48,'Word Shark','Game','null','Andriod','2013-06-07',22,4);</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2955,11 +2955,11 @@
       </c>
       <c r="F50" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41972</v>
+        <v>41893</v>
       </c>
       <c r="G50" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H50" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="I50" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="J50" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (49,'Shadow of Mordor','Game','null','PC','2014-11-29',46,2,8);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (49,'Shadow of Mordor','Game','null','PC','2014-09-11',59,2);</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2992,11 +2992,11 @@
       </c>
       <c r="F51" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41397</v>
+        <v>41449</v>
       </c>
       <c r="G51" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H51" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -3004,11 +3004,11 @@
       </c>
       <c r="I51" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="J51" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (50,'Dotello','Game','null','iOS','2013-05-03',6,2,27);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (50,'Dotello','Game','null','iOS','2013-06-24',7,2);</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3029,23 +3029,23 @@
       </c>
       <c r="F52" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41551</v>
+        <v>41608</v>
       </c>
       <c r="G52" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H52" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="J52" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (51,'Hero Sky','Game','null','Andriod','2013-10-04',29,1,26);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (51,'Hero Sky','Game','null','Andriod','2013-11-30',37,3);</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3066,23 +3066,23 @@
       </c>
       <c r="F53" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41972</v>
+        <v>42050</v>
       </c>
       <c r="G53" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H53" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I53" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J53" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (52,'Green the Planet','Game','null','PC','2014-11-29',23,3,48);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (52,'Green the Planet','Game','null','PC','2015-02-15',26,4);</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3103,23 +3103,23 @@
       </c>
       <c r="F54" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41952</v>
+        <v>41849</v>
       </c>
       <c r="G54" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="H54" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I54" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (53,'Paper Monsters Recut','Game','null','iOS','2014-11-09',18,4,13);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (53,'Paper Monsters Recut','Game','null','iOS','2014-07-29',52,1);</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3140,23 +3140,23 @@
       </c>
       <c r="F55" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41329</v>
+        <v>41754</v>
       </c>
       <c r="G55" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H55" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="J55" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (54,'rop','Game','null','Andriod','2013-02-24',13,1,84);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (54,'rop','Game','null','Andriod','2014-04-25',41,2);</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3177,11 +3177,11 @@
       </c>
       <c r="F56" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41941</v>
+        <v>41425</v>
       </c>
       <c r="G56" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="H56" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -3189,11 +3189,11 @@
       </c>
       <c r="I56" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J56" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (55,'Sick Bricks','Game','null','PC','2014-10-29',7,2,18);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (55,'Sick Bricks','Game','null','PC','2013-05-31',45,2);</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3214,23 +3214,23 @@
       </c>
       <c r="F57" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41721</v>
+        <v>41946</v>
       </c>
       <c r="G57" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H57" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="J57" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (56,'Contract Killer','Game','null','iOS','2014-03-23',40,3,99);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (56,'Contract Killer','Game','null','iOS','2014-11-03',2,2);</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3251,23 +3251,23 @@
       </c>
       <c r="F58" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41693</v>
+        <v>41972</v>
       </c>
       <c r="G58" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H58" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I58" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="J58" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (57,'Bejewel','Game','null','Andriod','2014-02-23',17,1,47);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (57,'Bejewel','Game','null','Andriod','2014-11-29',30,3);</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3288,23 +3288,23 @@
       </c>
       <c r="F59" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41878</v>
+        <v>41805</v>
       </c>
       <c r="G59" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H59" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="J59" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (58,'Call Of Duty: Mordern Warfare','Game','null','PC','2014-08-27',53,1,46);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (58,'Call Of Duty: Mordern Warfare','Game','null','PC','2014-06-15',56,3);</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3325,23 +3325,23 @@
       </c>
       <c r="F60" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41506</v>
+        <v>42010</v>
       </c>
       <c r="G60" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H60" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="J60" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (59,'Valkyrie Crusade','Game','null','iOS','2013-08-20',36,3,30);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (59,'Valkyrie Crusade','Game','null','iOS','2015-01-06',27,2);</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3362,23 +3362,23 @@
       </c>
       <c r="F61" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41374</v>
+        <v>41679</v>
       </c>
       <c r="G61" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H61" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I61" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="J61" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (60,'Amazons Board Games','Game','null','Andriod','2013-04-10',29,4,98);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (60,'Amazons Board Games','Game','null','Andriod','2014-02-09',13,2);</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3399,11 +3399,11 @@
       </c>
       <c r="F62" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41489</v>
+        <v>41606</v>
       </c>
       <c r="G62" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H62" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -3411,11 +3411,11 @@
       </c>
       <c r="I62" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="J62" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (61,'Cinderella','Movie','Thriller','DVD','2013-08-03',39,1,11);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (61,'Cinderella','Movie','Thriller','DVD','2013-11-28',52,1);</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3436,23 +3436,23 @@
       </c>
       <c r="F63" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41519</v>
+        <v>41517</v>
       </c>
       <c r="G63" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H63" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I63" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="J63" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (62,'The Spongebob Movie','Movie','Horror','DVD','2013-09-02',16,2,66);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (62,'The Spongebob Movie','Movie','Horror','DVD','2013-08-31',6,4);</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3473,11 +3473,11 @@
       </c>
       <c r="F64" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41726</v>
+        <v>41774</v>
       </c>
       <c r="G64" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H64" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -3485,11 +3485,11 @@
       </c>
       <c r="I64" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="J64" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (63,'Interstellar','Movie','Popular','DVD','2014-03-28',48,1,72);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (63,'Interstellar','Movie','Popular','DVD','2014-05-15',35,1);</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3510,23 +3510,23 @@
       </c>
       <c r="F65" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41850</v>
+        <v>41287</v>
       </c>
       <c r="G65" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="H65" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="J65" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (64,'Insurgent','Movie','Romance','DVD','2014-07-30',6,1,39);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (64,'Insurgent','Movie','Romance','DVD','2013-01-13',56,2);</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3547,23 +3547,23 @@
       </c>
       <c r="F66" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41309</v>
+        <v>41610</v>
       </c>
       <c r="G66" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H66" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I66" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="J66" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (65,'Divergent','Movie','Thriller','DVD','2013-02-04',37,2,56);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (65,'Divergent','Movie','Thriller','DVD','2013-12-02',13,4);</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3584,23 +3584,23 @@
       </c>
       <c r="F67" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41852</v>
+        <v>41884</v>
       </c>
       <c r="G67" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H67" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" s="6">
         <f t="shared" ref="I67:I101" ca="1" si="6">RANDBETWEEN(0,100)</f>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J67" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (66,'ZhongKui','Movie','Horror','DVD','2014-08-01',7,3,71);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (66,'ZhongKui','Movie','Horror','DVD','2014-09-02',8,2);</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3621,23 +3621,23 @@
       </c>
       <c r="F68" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41498</v>
+        <v>41801</v>
       </c>
       <c r="G68" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="H68" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J68" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (67,'Unfinished Business','Movie','Popular','DVD','2013-08-12',46,1,14);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (67,'Unfinished Business','Movie','Popular','DVD','2014-06-11',3,3);</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3658,23 +3658,23 @@
       </c>
       <c r="F69" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42056</v>
+        <v>41501</v>
       </c>
       <c r="G69" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="H69" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J69" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (68,'Fashion King','Movie','Romance','DVD','2015-02-21',47,1,8);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (68,'Fashion King','Movie','Romance','DVD','2013-08-15',6,3);</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="F70" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42043</v>
+        <v>41483</v>
       </c>
       <c r="G70" s="5">
         <f t="shared" ca="1" si="3"/>
@@ -3703,15 +3703,15 @@
       </c>
       <c r="H70" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J70" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (69,'Barbie in Princess Power','Movie','Thriller','DVD','2015-02-08',3,1,50);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (69,'Barbie in Princess Power','Movie','Thriller','DVD','2013-07-28',3,3);</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3732,23 +3732,23 @@
       </c>
       <c r="F71" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41968</v>
+        <v>41818</v>
       </c>
       <c r="G71" s="5">
         <f t="shared" ca="1" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="H71" s="5">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
-      </c>
-      <c r="H71" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
       </c>
       <c r="I71" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="J71" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (70,'Kingsman: The Secret Service','Movie','Horror','DVD','2014-11-25',3,4,19);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (70,'Kingsman: The Secret Service','Movie','Horror','DVD','2014-06-28',21,3);</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3769,11 +3769,11 @@
       </c>
       <c r="F72" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41727</v>
+        <v>41796</v>
       </c>
       <c r="G72" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="H72" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -3781,11 +3781,11 @@
       </c>
       <c r="I72" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J72" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (71,'Fifty Shades of Grey','Movie','Popular','DVD','2014-03-29',31,1,98);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (71,'Fifty Shades of Grey','Movie','Popular','DVD','2014-06-06',60,1);</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3806,11 +3806,11 @@
       </c>
       <c r="F73" s="9">
         <f t="shared" ref="F73:F101" ca="1" si="7">RANDBETWEEN(DATE(2013, 1, 1),DATE(2015, 3, 1))</f>
-        <v>41469</v>
+        <v>41782</v>
       </c>
       <c r="G73" s="5">
         <f t="shared" ref="G73:G101" ca="1" si="8">RANDBETWEEN(0.01, 60)</f>
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H73" s="5">
         <f t="shared" ref="H73:H101" ca="1" si="9">RANDBETWEEN(0.01, 4.99)</f>
@@ -3818,11 +3818,11 @@
       </c>
       <c r="I73" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J73" s="2" t="str">
-        <f t="shared" ref="J73:J101" ca="1" si="10">CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",TEXT(F:F,"yyyy-mm-dd"),"',",G:G,",",H:H,",",I:I,");")</f>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (72,'Frozen','Movie','Romance','DVD','2013-07-14',54,2,71);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (72,'Frozen','Movie','Romance','DVD','2014-05-23',27,2);</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3843,23 +3843,23 @@
       </c>
       <c r="F74" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41466</v>
+        <v>41881</v>
       </c>
       <c r="G74" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H74" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I74" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J74" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (73,'Asterix','Movie','Thriller','DVD','2013-07-11',26,2,20);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (73,'Asterix','Movie','Thriller','DVD','2014-08-30',21,3);</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3880,11 +3880,11 @@
       </c>
       <c r="F75" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41919</v>
+        <v>41322</v>
       </c>
       <c r="G75" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="H75" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -3892,11 +3892,11 @@
       </c>
       <c r="I75" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J75" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (74,'Chappie','Movie','Horror','DVD','2014-10-07',11,1,63);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (74,'Chappie','Movie','Horror','DVD','2013-02-17',37,1);</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3917,23 +3917,23 @@
       </c>
       <c r="F76" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41406</v>
+        <v>41750</v>
       </c>
       <c r="G76" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H76" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J76" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (75,'Run All Night','Movie','Popular','DVD','2013-05-12',5,2,31);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (75,'Run All Night','Movie','Popular','DVD','2014-04-21',20,3);</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3954,23 +3954,23 @@
       </c>
       <c r="F77" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41987</v>
+        <v>41930</v>
       </c>
       <c r="G77" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H77" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="J77" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (76,'Truimph In the Skies','Movie','Romance','DVD','2014-12-14',28,2,53);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (76,'Truimph In the Skies','Movie','Romance','DVD','2014-10-18',39,1);</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3991,23 +3991,23 @@
       </c>
       <c r="F78" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41643</v>
+        <v>41931</v>
       </c>
       <c r="G78" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H78" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I78" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (77,'King of Mahjong','Movie','Thriller','DVD','2014-01-04',46,4,4);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (77,'King of Mahjong','Movie','Thriller','DVD','2014-10-19',17,3);</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4028,23 +4028,23 @@
       </c>
       <c r="F79" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41810</v>
+        <v>41992</v>
       </c>
       <c r="G79" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H79" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J79" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (78,'Fireman','Movie','Horror','DVD','2014-06-20',22,1,84);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (78,'Fireman','Movie','Horror','DVD','2014-12-19',39,2);</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4065,11 +4065,11 @@
       </c>
       <c r="F80" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41383</v>
+        <v>41692</v>
       </c>
       <c r="G80" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H80" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4077,11 +4077,11 @@
       </c>
       <c r="I80" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="J80" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (79,'Shaun The Sheep','Movie','Popular','DVD','2013-04-19',43,4,64);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (79,'Shaun The Sheep','Movie','Popular','DVD','2014-02-22',53,4);</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4102,23 +4102,23 @@
       </c>
       <c r="F81" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41986</v>
+        <v>42056</v>
       </c>
       <c r="G81" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H81" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I81" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="J81" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (80,'From Vegas To Macau','Movie','Romance','DVD','2014-12-13',31,4,63);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (80,'From Vegas To Macau','Movie','Romance','DVD','2015-02-21',54,3);</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4139,11 +4139,11 @@
       </c>
       <c r="F82" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41913</v>
+        <v>41488</v>
       </c>
       <c r="G82" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H82" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4151,11 +4151,11 @@
       </c>
       <c r="I82" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J82" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (81,'Microsoft oneNote for iPhone','App','Lifestyle','iOS','2014-10-01',24,1,87);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (81,'Microsoft oneNote for iPhone','App','Lifestyle','iOS','2013-08-02',22,1);</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4176,11 +4176,11 @@
       </c>
       <c r="F83" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41987</v>
+        <v>41686</v>
       </c>
       <c r="G83" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H83" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4188,11 +4188,11 @@
       </c>
       <c r="I83" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="J83" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (82,'EverNote','App','Productivity','Andriod','2014-12-14',1,4,4);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (82,'EverNote','App','Productivity','Andriod','2014-02-16',19,4);</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4213,23 +4213,23 @@
       </c>
       <c r="F84" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41614</v>
+        <v>41651</v>
       </c>
       <c r="G84" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H84" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="J84" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (83,'Post It Plus','App','Lifestyle','PC','2013-12-06',45,2,86);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (83,'Post It Plus','App','Lifestyle','PC','2014-01-12',32,1);</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4250,23 +4250,23 @@
       </c>
       <c r="F85" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41714</v>
+        <v>41322</v>
       </c>
       <c r="G85" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H85" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="J85" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (84,'Bosimize','App','Productivity','iOS','2014-03-16',16,1,23);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (84,'Bosimize','App','Productivity','iOS','2013-02-17',15,2);</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4287,23 +4287,23 @@
       </c>
       <c r="F86" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41476</v>
+        <v>41715</v>
       </c>
       <c r="G86" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H86" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I86" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="J86" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (85,'Ginger KeyBoard: Better Themes','App','Lifestyle','Andriod','2013-07-21',52,3,31);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (85,'Ginger KeyBoard: Better Themes','App','Lifestyle','Andriod','2014-03-17',22,4);</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4324,23 +4324,23 @@
       </c>
       <c r="F87" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41453</v>
+        <v>41831</v>
       </c>
       <c r="G87" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H87" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="J87" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (86,'Notepad+','App','Productivity','PC','2013-06-28',11,2,66);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (86,'Notepad+','App','Productivity','PC','2014-07-11',25,1);</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4361,23 +4361,23 @@
       </c>
       <c r="F88" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41391</v>
+        <v>41333</v>
       </c>
       <c r="G88" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H88" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I88" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="J88" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (87,'ByWord','App','Lifestyle','iOS','2013-04-27',55,4,73);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (87,'ByWord','App','Lifestyle','iOS','2013-02-28',42,3);</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -4398,23 +4398,23 @@
       </c>
       <c r="F89" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41688</v>
+        <v>41758</v>
       </c>
       <c r="G89" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H89" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="J89" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (88,'Daedalus Touch','App','Productivity','Andriod','2014-02-18',49,2,29);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (88,'Daedalus Touch','App','Productivity','Andriod','2014-04-29',20,1);</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4435,23 +4435,23 @@
       </c>
       <c r="F90" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41950</v>
+        <v>41774</v>
       </c>
       <c r="G90" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H90" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I90" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J90" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (89,'Notability','App','Lifestyle','PC','2014-11-07',27,4,18);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (89,'Notability','App','Lifestyle','PC','2014-05-15',54,2);</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4472,23 +4472,23 @@
       </c>
       <c r="F91" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41841</v>
+        <v>41546</v>
       </c>
       <c r="G91" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="H91" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I91" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="J91" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (90,'GoodNotes','App','Productivity','iOS','2014-07-21',58,3,72);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (90,'GoodNotes','App','Productivity','iOS','2013-09-29',8,1);</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -4509,11 +4509,11 @@
       </c>
       <c r="F92" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41631</v>
+        <v>41340</v>
       </c>
       <c r="G92" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H92" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4521,11 +4521,11 @@
       </c>
       <c r="I92" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="J92" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (91,'FetchNotes','App','Lifestyle','Andriod','2013-12-23',44,2,79);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (91,'FetchNotes','App','Lifestyle','Andriod','2013-03-07',18,2);</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -4546,11 +4546,11 @@
       </c>
       <c r="F93" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41377</v>
+        <v>41942</v>
       </c>
       <c r="G93" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="H93" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4558,11 +4558,11 @@
       </c>
       <c r="I93" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J93" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (92,'1Writer','App','Productivity','PC','2013-04-13',6,2,36);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (92,'1Writer','App','Productivity','PC','2014-10-30',36,2);</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -4583,23 +4583,23 @@
       </c>
       <c r="F94" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41462</v>
+        <v>41796</v>
       </c>
       <c r="G94" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H94" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I94" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J94" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (93,'SwiftKey','App','Lifestyle','iOS','2013-07-07',18,4,75);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (93,'SwiftKey','App','Lifestyle','iOS','2014-06-06',55,3);</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -4620,23 +4620,23 @@
       </c>
       <c r="F95" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41479</v>
+        <v>42057</v>
       </c>
       <c r="G95" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="H95" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J95" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (94,'WordBoard','App','Productivity','Andriod','2013-07-24',11,3,50);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (94,'WordBoard','App','Productivity','Andriod','2015-02-22',50,2);</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -4657,23 +4657,23 @@
       </c>
       <c r="F96" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41845</v>
+        <v>41755</v>
       </c>
       <c r="G96" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H96" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I96" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="J96" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (95,'Christmas Keyboard','App','Lifestyle','iOS','2014-07-25',11,3,98);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (95,'Christmas Keyboard','App','Lifestyle','iOS','2014-04-26',54,1);</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -4694,23 +4694,23 @@
       </c>
       <c r="F97" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41294</v>
+        <v>41625</v>
       </c>
       <c r="G97" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="H97" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I97" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J97" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (96,'InkBoard','App','Productivity','Andriod','2013-01-20',23,4,57);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (96,'InkBoard','App','Productivity','Andriod','2013-12-17',58,1);</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -4731,11 +4731,11 @@
       </c>
       <c r="F98" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41401</v>
+        <v>41362</v>
       </c>
       <c r="G98" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="H98" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4743,11 +4743,11 @@
       </c>
       <c r="I98" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J98" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (97,'TextExpander','App','Lifestyle','PC','2013-05-07',53,4,3);</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (97,'TextExpander','App','Lifestyle','PC','2013-03-29',15,4);</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -4768,11 +4768,11 @@
       </c>
       <c r="F99" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>42038</v>
+        <v>41963</v>
       </c>
       <c r="G99" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H99" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4780,11 +4780,11 @@
       </c>
       <c r="I99" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="J99" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (98,'Phraseboard','App','Productivity','iOS','2015-02-03',22,4,29);</v>
+        <f t="shared" ref="J99:J101" ca="1" si="10">CONCATENATE("INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (",A:A,",'",B:B,"','",C:C,"','",D:D,"','",E:E,"','",TEXT(F:F,"yyyy-mm-dd"),"',",G:G,",",H:H,");")</f>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (98,'Phraseboard','App','Productivity','iOS','2014-11-20',29,4);</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -4805,11 +4805,11 @@
       </c>
       <c r="F100" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41381</v>
+        <v>41987</v>
       </c>
       <c r="G100" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="H100" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4817,11 +4817,11 @@
       </c>
       <c r="I100" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="J100" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (99,'Swype','App','Lifestyle','Andriod','2013-04-17',11,4,87);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (99,'Swype','App','Lifestyle','Andriod','2014-12-14',39,4);</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -4842,11 +4842,11 @@
       </c>
       <c r="F101" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41675</v>
+        <v>41730</v>
       </c>
       <c r="G101" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H101" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4854,11 +4854,11 @@
       </c>
       <c r="I101" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J101" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price,likes) VALUES (100,'MyScriptStack','App','Productivity','PC','2014-02-05',31,4,81);</v>
+        <v>INSERT INTO Item (item_id,title,category,genre,device,release_date,price,rent_price) VALUES (100,'MyScriptStack','App','Productivity','PC','2014-04-01',54,4);</v>
       </c>
     </row>
   </sheetData>
@@ -7337,15 +7337,15 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="D2" s="9">
         <f t="shared" ref="D2:D66" ca="1" si="0">RANDBETWEEN(DATE(2013, 1, 1),DATE(2015, 3, 1))</f>
-        <v>42062</v>
+        <v>41479</v>
       </c>
       <c r="E2" s="9" t="str">
         <f ca="1">CONCATENATE("INSERT INTO Purchase (customer,item,purchase_date) VALUES (","'",B2,"'",",",C2,"",",'",TEXT(D2,"yyyy-mm-dd" ),"'",");")</f>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Charley@cs2102.com',97,'2015-02-27');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Charley@cs2102.com',34,'2013-07-24');</v>
       </c>
       <c r="F2" s="9"/>
     </row>
@@ -7359,15 +7359,15 @@
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41847</v>
+        <v>41627</v>
       </c>
       <c r="E3" s="9" t="str">
         <f t="shared" ref="E3:E66" ca="1" si="1">CONCATENATE("INSERT INTO Purchase (customer,item,purchase_date) VALUES (","'",B3,"'",",",C3,"",",'",TEXT(D3,"yyyy-mm-dd" ),"'",");")</f>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Aurore@cs2102.com',51,'2014-07-27');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Aurore@cs2102.com',81,'2013-12-19');</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7380,15 +7380,15 @@
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41380</v>
+        <v>41793</v>
       </c>
       <c r="E4" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Asha@cs2102.com',95,'2013-04-16');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Asha@cs2102.com',81,'2014-06-03');</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7401,15 +7401,15 @@
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41799</v>
+        <v>41330</v>
       </c>
       <c r="E5" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kandi@cs2102.com',70,'2014-06-09');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kandi@cs2102.com',69,'2013-02-25');</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7422,15 +7422,15 @@
       </c>
       <c r="C6">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41515</v>
+        <v>41647</v>
       </c>
       <c r="E6" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jeanett@cs2102.com',2,'2013-08-29');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jeanett@cs2102.com',55,'2014-01-08');</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7446,11 +7446,11 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41997</v>
+        <v>41872</v>
       </c>
       <c r="E7" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Pam@cs2102.com',4,'2014-12-24');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Pam@cs2102.com',4,'2014-08-21');</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7463,15 +7463,15 @@
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C39" ca="1" si="2">RANDBETWEEN(1,100)</f>
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>42020</v>
+        <v>41348</v>
       </c>
       <c r="E8" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cristobal@cs2102.com',42,'2015-01-16');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cristobal@cs2102.com',66,'2013-03-15');</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7484,15 +7484,15 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41802</v>
+        <v>41656</v>
       </c>
       <c r="E9" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kelly@cs2102.com',84,'2014-06-12');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kelly@cs2102.com',85,'2014-01-17');</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7505,15 +7505,15 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41380</v>
+        <v>41308</v>
       </c>
       <c r="E10" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jacalyn@cs2102.com',97,'2013-04-16');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jacalyn@cs2102.com',20,'2013-02-03');</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7526,15 +7526,15 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41293</v>
+        <v>42039</v>
       </c>
       <c r="E11" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Norene@cs2102.com',70,'2013-01-19');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Norene@cs2102.com',34,'2015-02-04');</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7547,15 +7547,15 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41530</v>
+        <v>41572</v>
       </c>
       <c r="E12" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Benita@cs2102.com',39,'2013-09-13');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Benita@cs2102.com',12,'2013-10-25');</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7568,15 +7568,15 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>42007</v>
+        <v>41321</v>
       </c>
       <c r="E13" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Julieann@cs2102.com',73,'2015-01-03');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Julieann@cs2102.com',66,'2013-02-16');</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7589,15 +7589,15 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41554</v>
+        <v>41914</v>
       </c>
       <c r="E14" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Florencio@cs2102.com',32,'2013-10-07');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Florencio@cs2102.com',68,'2014-10-02');</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7610,15 +7610,15 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41826</v>
+        <v>41297</v>
       </c>
       <c r="E15" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lilia@cs2102.com',1,'2014-07-06');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lilia@cs2102.com',19,'2013-01-23');</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7631,15 +7631,15 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41434</v>
+        <v>41876</v>
       </c>
       <c r="E16" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Erik@cs2102.com',92,'2013-06-09');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Erik@cs2102.com',98,'2014-08-25');</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7652,15 +7652,15 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41335</v>
+        <v>42013</v>
       </c>
       <c r="E17" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Han@cs2102.com',30,'2013-03-02');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Han@cs2102.com',12,'2015-01-09');</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7673,15 +7673,15 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41693</v>
+        <v>41882</v>
       </c>
       <c r="E18" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Rosalie@cs2102.com',93,'2014-02-23');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Rosalie@cs2102.com',17,'2014-08-31');</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -7694,15 +7694,15 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41379</v>
+        <v>41511</v>
       </c>
       <c r="E19" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lili@cs2102.com',47,'2013-04-15');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lili@cs2102.com',18,'2013-08-25');</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -7715,15 +7715,15 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41895</v>
+        <v>41525</v>
       </c>
       <c r="E20" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Arletha@cs2102.com',46,'2014-09-13');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Arletha@cs2102.com',58,'2013-09-08');</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7736,15 +7736,15 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41893</v>
+        <v>41730</v>
       </c>
       <c r="E21" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Esperanza@cs2102.com',51,'2014-09-11');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Esperanza@cs2102.com',26,'2014-04-01');</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7757,15 +7757,15 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41867</v>
+        <v>41862</v>
       </c>
       <c r="E22" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Magdalena@cs2102.com',51,'2014-08-16');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Magdalena@cs2102.com',13,'2014-08-11');</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -7778,15 +7778,15 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41414</v>
+        <v>41680</v>
       </c>
       <c r="E23" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Shizue@cs2102.com',55,'2013-05-20');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Shizue@cs2102.com',77,'2014-02-10');</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7799,15 +7799,15 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41969</v>
+        <v>41361</v>
       </c>
       <c r="E24" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Keisha@cs2102.com',58,'2014-11-26');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Keisha@cs2102.com',13,'2013-03-28');</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -7820,15 +7820,15 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41286</v>
+        <v>42036</v>
       </c>
       <c r="E25" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Eufemia@cs2102.com',48,'2013-01-12');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Eufemia@cs2102.com',10,'2015-02-01');</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -7841,15 +7841,15 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41514</v>
+        <v>41503</v>
       </c>
       <c r="E26" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jan@cs2102.com',92,'2013-08-28');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jan@cs2102.com',78,'2013-08-17');</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -7862,15 +7862,15 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41587</v>
+        <v>42031</v>
       </c>
       <c r="E27" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Maud@cs2102.com',70,'2013-11-09');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Maud@cs2102.com',33,'2015-01-27');</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -7883,15 +7883,15 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41390</v>
+        <v>41729</v>
       </c>
       <c r="E28" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jefferson@cs2102.com',14,'2013-04-26');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jefferson@cs2102.com',69,'2014-03-31');</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -7904,15 +7904,15 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41365</v>
+        <v>41771</v>
       </c>
       <c r="E29" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kenia@cs2102.com',17,'2013-04-01');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kenia@cs2102.com',30,'2014-05-12');</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -7925,15 +7925,15 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41990</v>
+        <v>41413</v>
       </c>
       <c r="E30" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cyrus@cs2102.com',47,'2014-12-17');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cyrus@cs2102.com',100,'2013-05-19');</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -7946,15 +7946,15 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D31" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41934</v>
+        <v>41915</v>
       </c>
       <c r="E31" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Carmela@cs2102.com',18,'2014-10-22');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Carmela@cs2102.com',70,'2014-10-03');</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -7967,15 +7967,15 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41301</v>
+        <v>41557</v>
       </c>
       <c r="E32" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lloyd@cs2102.com',9,'2013-01-27');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lloyd@cs2102.com',5,'2013-10-10');</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -7988,15 +7988,15 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41339</v>
+        <v>41904</v>
       </c>
       <c r="E33" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Pamelia@cs2102.com',5,'2013-03-06');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Pamelia@cs2102.com',37,'2014-09-22');</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -8009,15 +8009,15 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="D34" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41513</v>
+        <v>41473</v>
       </c>
       <c r="E34" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Aleida@cs2102.com',58,'2013-08-27');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Aleida@cs2102.com',99,'2013-07-18');</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -8030,15 +8030,15 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D35" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41928</v>
+        <v>41286</v>
       </c>
       <c r="E35" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Susanna@cs2102.com',17,'2014-10-16');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Susanna@cs2102.com',70,'2013-01-12');</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -8051,15 +8051,15 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41506</v>
+        <v>41732</v>
       </c>
       <c r="E36" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kate@cs2102.com',49,'2013-08-20');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kate@cs2102.com',72,'2014-04-03');</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -8072,15 +8072,15 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D37" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41278</v>
+        <v>41982</v>
       </c>
       <c r="E37" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Shanita@cs2102.com',25,'2013-01-04');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Shanita@cs2102.com',51,'2014-12-09');</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8093,15 +8093,15 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D38" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41974</v>
+        <v>41738</v>
       </c>
       <c r="E38" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Liliana@cs2102.com',70,'2014-12-01');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Liliana@cs2102.com',94,'2014-04-09');</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8114,15 +8114,15 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D39" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41285</v>
+        <v>41325</v>
       </c>
       <c r="E39" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Fermin@cs2102.com',41,'2013-01-11');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Fermin@cs2102.com',63,'2013-02-20');</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8135,15 +8135,15 @@
       </c>
       <c r="C40">
         <f t="shared" ref="C40:C71" ca="1" si="3">RANDBETWEEN(1,100)</f>
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41652</v>
+        <v>41353</v>
       </c>
       <c r="E40" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Reda@cs2102.com',19,'2014-01-13');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Reda@cs2102.com',68,'2013-03-20');</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -8156,15 +8156,15 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D41" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41844</v>
+        <v>41819</v>
       </c>
       <c r="E41" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Hildred@cs2102.com',51,'2014-07-24');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Hildred@cs2102.com',65,'2014-06-29');</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8177,15 +8177,15 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41625</v>
+        <v>41517</v>
       </c>
       <c r="E42" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kallie@cs2102.com',41,'2013-12-17');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Kallie@cs2102.com',67,'2013-08-31');</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8198,15 +8198,15 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="D43" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41333</v>
+        <v>41657</v>
       </c>
       <c r="E43" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Dominga@cs2102.com',2,'2013-02-28');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Dominga@cs2102.com',98,'2014-01-18');</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -8219,15 +8219,15 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41749</v>
+        <v>41903</v>
       </c>
       <c r="E44" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Dwayne@cs2102.com',46,'2014-04-20');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Dwayne@cs2102.com',83,'2014-09-21');</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -8240,15 +8240,15 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D45" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41301</v>
+        <v>41335</v>
       </c>
       <c r="E45" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Rona@cs2102.com',95,'2013-01-27');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Rona@cs2102.com',50,'2013-03-02');</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -8261,15 +8261,15 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D46" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41889</v>
+        <v>41559</v>
       </c>
       <c r="E46" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Roger@cs2102.com',36,'2014-09-07');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Roger@cs2102.com',1,'2013-10-12');</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8282,15 +8282,15 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D47" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41987</v>
+        <v>42043</v>
       </c>
       <c r="E47" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Abraham@cs2102.com',58,'2014-12-14');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Abraham@cs2102.com',38,'2015-02-08');</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8303,15 +8303,15 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D48" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41761</v>
+        <v>41343</v>
       </c>
       <c r="E48" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Creola@cs2102.com',79,'2014-05-02');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Creola@cs2102.com',41,'2013-03-10');</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -8324,15 +8324,15 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D49" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41851</v>
+        <v>42050</v>
       </c>
       <c r="E49" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Toi@cs2102.com',95,'2014-07-31');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Toi@cs2102.com',40,'2015-02-15');</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -8345,15 +8345,15 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D50" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41926</v>
+        <v>41730</v>
       </c>
       <c r="E50" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Nichelle@cs2102.com',8,'2014-10-14');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Nichelle@cs2102.com',44,'2014-04-01');</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -8366,15 +8366,15 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41829</v>
+        <v>41421</v>
       </c>
       <c r="E51" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Elvina@cs2102.com',93,'2014-07-09');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Elvina@cs2102.com',22,'2013-05-27');</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -8387,15 +8387,15 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41698</v>
+        <v>41618</v>
       </c>
       <c r="E52" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Mitsuko@cs2102.com',70,'2014-02-28');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Mitsuko@cs2102.com',10,'2013-12-10');</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -8408,15 +8408,15 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D53" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41575</v>
+        <v>42054</v>
       </c>
       <c r="E53" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Helaine@cs2102.com',70,'2013-10-28');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Helaine@cs2102.com',7,'2015-02-19');</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -8429,15 +8429,15 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D54" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41971</v>
+        <v>41611</v>
       </c>
       <c r="E54" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Fredericka@cs2102.com',95,'2014-11-28');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Fredericka@cs2102.com',2,'2013-12-03');</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -8450,15 +8450,15 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D55" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41485</v>
+        <v>41887</v>
       </c>
       <c r="E55" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Deb@cs2102.com',18,'2013-07-30');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Deb@cs2102.com',3,'2014-09-05');</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -8471,15 +8471,15 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41331</v>
+        <v>41864</v>
       </c>
       <c r="E56" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Raven@cs2102.com',78,'2013-02-26');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Raven@cs2102.com',79,'2014-08-13');</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -8492,15 +8492,15 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41297</v>
+        <v>41296</v>
       </c>
       <c r="E57" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Epifania@cs2102.com',48,'2013-01-23');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Epifania@cs2102.com',92,'2013-01-22');</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -8513,15 +8513,15 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41821</v>
+        <v>41942</v>
       </c>
       <c r="E58" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Wava@cs2102.com',96,'2014-07-01');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Wava@cs2102.com',29,'2014-10-30');</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -8534,15 +8534,15 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D59" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41624</v>
+        <v>41350</v>
       </c>
       <c r="E59" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jenifer@cs2102.com',39,'2013-12-16');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jenifer@cs2102.com',6,'2013-03-17');</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -8555,15 +8555,15 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41916</v>
+        <v>41562</v>
       </c>
       <c r="E60" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Imelda@cs2102.com',40,'2014-10-04');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Imelda@cs2102.com',53,'2013-10-15');</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -8576,15 +8576,15 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="D61" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41544</v>
+        <v>41962</v>
       </c>
       <c r="E61" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cherish@cs2102.com',96,'2013-09-27');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cherish@cs2102.com',62,'2014-11-19');</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -8597,15 +8597,15 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D62" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41826</v>
+        <v>42038</v>
       </c>
       <c r="E62" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Marcel@cs2102.com',32,'2014-07-06');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Marcel@cs2102.com',16,'2015-02-03');</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -8618,15 +8618,15 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D63" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41872</v>
+        <v>41670</v>
       </c>
       <c r="E63" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Alethea@cs2102.com',54,'2014-08-21');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Alethea@cs2102.com',77,'2014-01-31');</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -8639,15 +8639,15 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="D64" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41991</v>
+        <v>41309</v>
       </c>
       <c r="E64" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Felica@cs2102.com',99,'2014-12-18');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Felica@cs2102.com',48,'2013-02-04');</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -8660,15 +8660,15 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="D65" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41912</v>
+        <v>42054</v>
       </c>
       <c r="E65" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Reatha@cs2102.com',87,'2014-09-30');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Reatha@cs2102.com',52,'2015-02-19');</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -8681,15 +8681,15 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>41480</v>
+        <v>41783</v>
       </c>
       <c r="E66" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Velia@cs2102.com',99,'2013-07-25');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Velia@cs2102.com',8,'2014-05-24');</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -8702,15 +8702,15 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D67" s="9">
         <f t="shared" ref="D67:D100" ca="1" si="4">RANDBETWEEN(DATE(2013, 1, 1),DATE(2015, 3, 1))</f>
-        <v>41420</v>
+        <v>41686</v>
       </c>
       <c r="E67" s="9" t="str">
         <f t="shared" ref="E67:E100" ca="1" si="5">CONCATENATE("INSERT INTO Purchase (customer,item,purchase_date) VALUES (","'",B67,"'",",",C67,"",",'",TEXT(D67,"yyyy-mm-dd" ),"'",");")</f>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Crista@cs2102.com',15,'2013-05-26');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Crista@cs2102.com',1,'2014-02-16');</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -8723,15 +8723,15 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41983</v>
+        <v>41343</v>
       </c>
       <c r="E68" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Keesha@cs2102.com',13,'2014-12-10');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Keesha@cs2102.com',74,'2013-03-10');</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -8744,15 +8744,15 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D69" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41823</v>
+        <v>41494</v>
       </c>
       <c r="E69" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Pandora@cs2102.com',52,'2014-07-03');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Pandora@cs2102.com',16,'2013-08-08');</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -8765,15 +8765,15 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D70" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41352</v>
+        <v>41913</v>
       </c>
       <c r="E70" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Raguel@cs2102.com',38,'2013-03-19');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Raguel@cs2102.com',33,'2014-10-01');</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -8786,15 +8786,15 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D71" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41627</v>
+        <v>41782</v>
       </c>
       <c r="E71" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Deedee@cs2102.com',18,'2013-12-19');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Deedee@cs2102.com',19,'2014-05-23');</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -8807,15 +8807,15 @@
       </c>
       <c r="C72">
         <f t="shared" ref="C72:C100" ca="1" si="6">RANDBETWEEN(1,100)</f>
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41416</v>
+        <v>41537</v>
       </c>
       <c r="E72" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Juanita@cs2102.com',2,'2013-05-22');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Juanita@cs2102.com',61,'2013-09-20');</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -8828,15 +8828,15 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D73" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>42046</v>
+        <v>41814</v>
       </c>
       <c r="E73" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Stanley@cs2102.com',95,'2015-02-11');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Stanley@cs2102.com',77,'2014-06-24');</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -8849,15 +8849,15 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D74" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41432</v>
+        <v>41705</v>
       </c>
       <c r="E74" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Gregory@cs2102.com',43,'2013-06-07');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Gregory@cs2102.com',93,'2014-03-07');</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -8870,15 +8870,15 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D75" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41472</v>
+        <v>41558</v>
       </c>
       <c r="E75" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jacklyn@cs2102.com',36,'2013-07-17');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Jacklyn@cs2102.com',45,'2013-10-11');</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -8891,15 +8891,15 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D76" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41465</v>
+        <v>41328</v>
       </c>
       <c r="E76" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Madlyn@cs2102.com',27,'2013-07-10');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Madlyn@cs2102.com',73,'2013-02-23');</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -8912,15 +8912,15 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D77" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41967</v>
+        <v>41485</v>
       </c>
       <c r="E77" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Rudolph@cs2102.com',5,'2014-11-24');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Rudolph@cs2102.com',75,'2013-07-30');</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -8933,15 +8933,15 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D78" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41346</v>
+        <v>41310</v>
       </c>
       <c r="E78" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Marybeth@cs2102.com',30,'2013-03-13');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Marybeth@cs2102.com',91,'2013-02-05');</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -8954,15 +8954,15 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D79" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41908</v>
+        <v>42012</v>
       </c>
       <c r="E79" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lupe@cs2102.com',80,'2014-09-26');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lupe@cs2102.com',34,'2015-01-08');</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -8975,15 +8975,15 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41403</v>
+        <v>41955</v>
       </c>
       <c r="E80" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Adriene@cs2102.com',72,'2013-05-09');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Adriene@cs2102.com',19,'2014-11-12');</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -8996,15 +8996,15 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41471</v>
+        <v>41881</v>
       </c>
       <c r="E81" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Epifania@cs2102.com',27,'2013-07-16');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Epifania@cs2102.com',75,'2014-08-30');</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -9017,15 +9017,15 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41792</v>
+        <v>41414</v>
       </c>
       <c r="E82" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Mee@cs2102.com',94,'2014-06-02');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Mee@cs2102.com',83,'2013-05-20');</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -9038,15 +9038,15 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D83" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41967</v>
+        <v>41290</v>
       </c>
       <c r="E83" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Dorene@cs2102.com',69,'2014-11-24');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Dorene@cs2102.com',22,'2013-01-16');</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -9059,15 +9059,15 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D84" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>42001</v>
+        <v>41277</v>
       </c>
       <c r="E84" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cecilia@cs2102.com',8,'2014-12-28');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Cecilia@cs2102.com',16,'2013-01-03');</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -9084,11 +9084,11 @@
       </c>
       <c r="D85" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41513</v>
+        <v>41327</v>
       </c>
       <c r="E85" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Queen@cs2102.com',31,'2013-08-27');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Queen@cs2102.com',31,'2013-02-22');</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -9101,15 +9101,15 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D86" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41959</v>
+        <v>41908</v>
       </c>
       <c r="E86" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Magali@cs2102.com',100,'2014-11-16');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Magali@cs2102.com',98,'2014-09-26');</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -9122,15 +9122,15 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D87" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41668</v>
+        <v>41559</v>
       </c>
       <c r="E87" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Felecia@cs2102.com',36,'2014-01-29');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Felecia@cs2102.com',53,'2013-10-12');</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -9143,15 +9143,15 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D88" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41338</v>
+        <v>41339</v>
       </c>
       <c r="E88" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lavera@cs2102.com',56,'2013-03-05');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lavera@cs2102.com',52,'2013-03-06');</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -9164,15 +9164,15 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41792</v>
+        <v>41542</v>
       </c>
       <c r="E89" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Guillermo@cs2102.com',11,'2014-06-02');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Guillermo@cs2102.com',12,'2013-09-25');</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -9185,15 +9185,15 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D90" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41996</v>
+        <v>41649</v>
       </c>
       <c r="E90" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Summer@cs2102.com',39,'2014-12-23');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Summer@cs2102.com',40,'2014-01-10');</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -9206,15 +9206,15 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D91" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41504</v>
+        <v>41734</v>
       </c>
       <c r="E91" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Meagan@cs2102.com',90,'2013-08-18');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Meagan@cs2102.com',65,'2014-04-05');</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -9227,15 +9227,15 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D92" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41858</v>
+        <v>41594</v>
       </c>
       <c r="E92" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Ronald@cs2102.com',9,'2014-08-07');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Ronald@cs2102.com',35,'2013-11-16');</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -9248,15 +9248,15 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D93" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41876</v>
+        <v>41426</v>
       </c>
       <c r="E93" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Ricarda@cs2102.com',96,'2014-08-25');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Ricarda@cs2102.com',59,'2013-06-01');</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -9269,15 +9269,15 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D94" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41361</v>
+        <v>41498</v>
       </c>
       <c r="E94" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Agustin@cs2102.com',90,'2013-03-28');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Agustin@cs2102.com',67,'2013-08-12');</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -9290,15 +9290,15 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D95" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41423</v>
+        <v>41588</v>
       </c>
       <c r="E95" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lanie@cs2102.com',5,'2013-05-29');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Lanie@cs2102.com',9,'2013-11-10');</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -9311,15 +9311,15 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D96" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41872</v>
+        <v>41304</v>
       </c>
       <c r="E96" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Gianna@cs2102.com',40,'2014-08-21');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Gianna@cs2102.com',5,'2013-01-30');</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -9332,15 +9332,15 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D97" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41484</v>
+        <v>41912</v>
       </c>
       <c r="E97" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Eunice@cs2102.com',81,'2013-07-29');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Eunice@cs2102.com',1,'2014-09-30');</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -9353,15 +9353,15 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="D98" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41390</v>
+        <v>41436</v>
       </c>
       <c r="E98" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Regenia@cs2102.com',20,'2013-04-26');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Regenia@cs2102.com',87,'2013-06-11');</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -9374,15 +9374,15 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D99" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41359</v>
+        <v>41755</v>
       </c>
       <c r="E99" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Olene@cs2102.com',41,'2013-03-26');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('Olene@cs2102.com',10,'2014-04-26');</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -9395,15 +9395,15 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D100" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>41621</v>
+        <v>41556</v>
       </c>
       <c r="E100" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('America@cs2102.com',44,'2013-12-13');</v>
+        <v>INSERT INTO Purchase (customer,item,purchase_date) VALUES ('America@cs2102.com',23,'2013-10-09');</v>
       </c>
     </row>
   </sheetData>
@@ -9564,23 +9564,23 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D2" s="9">
         <f ca="1">RANDBETWEEN(DATE(2013, 1, 1),DATE(2013, 3, 1))</f>
-        <v>41305</v>
+        <v>41331</v>
       </c>
       <c r="E2" s="9">
         <f ca="1">RANDBETWEEN(DATE(2013, 3, 20),DATE(2013, 9, 30))</f>
-        <v>41404</v>
+        <v>41388</v>
       </c>
       <c r="F2" s="9">
         <f ca="1">RANDBETWEEN(DATE(YEAR(D2),MONTH(D2),DAY(D2)), DATE(YEAR(E2),MONTH(E2),DAY(E2)))</f>
-        <v>41327</v>
+        <v>41372</v>
       </c>
       <c r="G2" s="9" t="str">
         <f ca="1">CONCATENATE("INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('",B2,"','",C2,"','",TEXT(D2,"yyyy-mm-dd"),"','",TEXT(E2,"yyyy-mm-dd"),"','",TEXT(F2,"yyyy-mm-dd"),"');")</f>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Charley@cs2102.com','100','2013-01-31','2013-05-10','2013-02-22');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Charley@cs2102.com','88','2013-02-26','2013-04-24','2013-04-08');</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -9593,23 +9593,23 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D66" ca="1" si="1">RANDBETWEEN(DATE(2013, 1, 1),DATE(2013, 3, 1))</f>
-        <v>41283</v>
+        <v>41295</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E66" ca="1" si="2">RANDBETWEEN(DATE(2013, 3, 20),DATE(2013, 9, 30))</f>
-        <v>41496</v>
+        <v>41414</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" ref="F3:F66" ca="1" si="3">RANDBETWEEN(DATE(YEAR(D3),MONTH(D3),DAY(D3)), DATE(YEAR(E3),MONTH(E3),DAY(E3)))</f>
-        <v>41483</v>
+        <v>41308</v>
       </c>
       <c r="G3" s="9" t="str">
         <f t="shared" ref="G3:G66" ca="1" si="4">CONCATENATE("INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('",B3,"','",C3,"','",TEXT(D3,"yyyy-mm-dd"),"','",TEXT(E3,"yyyy-mm-dd"),"','",TEXT(F3,"yyyy-mm-dd"),"');")</f>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Aurore@cs2102.com','81','2013-01-09','2013-08-10','2013-07-28');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Aurore@cs2102.com','92','2013-01-21','2013-05-20','2013-02-03');</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9622,23 +9622,23 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41276</v>
+        <v>41284</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41419</v>
+        <v>41445</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41348</v>
+        <v>41300</v>
       </c>
       <c r="G4" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Asha@cs2102.com','9','2013-01-02','2013-05-25','2013-03-15');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Asha@cs2102.com','70','2013-01-10','2013-06-20','2013-01-26');</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -9651,23 +9651,23 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41311</v>
+        <v>41304</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41362</v>
+        <v>41541</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41315</v>
+        <v>41372</v>
       </c>
       <c r="G5" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kandi@cs2102.com','23','2013-02-06','2013-03-29','2013-02-10');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kandi@cs2102.com','24','2013-01-30','2013-09-24','2013-04-08');</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -9680,23 +9680,23 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41287</v>
+        <v>41306</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41474</v>
+        <v>41521</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41294</v>
+        <v>41343</v>
       </c>
       <c r="G6" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jeanett@cs2102.com','20','2013-01-13','2013-07-19','2013-01-20');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jeanett@cs2102.com','98','2013-02-01','2013-09-04','2013-03-10');</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -9709,23 +9709,23 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41278</v>
+        <v>41334</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41439</v>
+        <v>41538</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41392</v>
+        <v>41413</v>
       </c>
       <c r="G7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Pam@cs2102.com','58','2013-01-04','2013-06-14','2013-04-28');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Pam@cs2102.com','92','2013-03-01','2013-09-21','2013-05-19');</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9738,23 +9738,23 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41300</v>
+        <v>41282</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41417</v>
+        <v>41459</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41359</v>
+        <v>41328</v>
       </c>
       <c r="G8" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cristobal@cs2102.com','23','2013-01-26','2013-05-23','2013-03-26');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cristobal@cs2102.com','26','2013-01-08','2013-07-04','2013-02-23');</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -9767,23 +9767,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41319</v>
+        <v>41314</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41517</v>
+        <v>41412</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41400</v>
+        <v>41383</v>
       </c>
       <c r="G9" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kelly@cs2102.com','36','2013-02-14','2013-08-31','2013-05-06');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kelly@cs2102.com','92','2013-02-09','2013-05-18','2013-04-19');</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -9796,23 +9796,23 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41328</v>
+        <v>41302</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41373</v>
+        <v>41365</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41346</v>
+        <v>41314</v>
       </c>
       <c r="G10" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jacalyn@cs2102.com','70','2013-02-23','2013-04-09','2013-03-13');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jacalyn@cs2102.com','90','2013-01-28','2013-04-01','2013-02-09');</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -9825,23 +9825,23 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41301</v>
+        <v>41277</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41491</v>
+        <v>41469</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41311</v>
+        <v>41391</v>
       </c>
       <c r="G11" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Norene@cs2102.com','31','2013-01-27','2013-08-05','2013-02-06');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Norene@cs2102.com','34','2013-01-03','2013-07-14','2013-04-27');</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -9854,23 +9854,23 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41283</v>
+        <v>41290</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41498</v>
+        <v>41354</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41344</v>
+        <v>41331</v>
       </c>
       <c r="G12" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Benita@cs2102.com','24','2013-01-09','2013-08-12','2013-03-11');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Benita@cs2102.com','3','2013-01-16','2013-03-21','2013-02-26');</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" ca="1" si="1"/>
@@ -9891,15 +9891,15 @@
       </c>
       <c r="E13" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41353</v>
+        <v>41473</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41287</v>
+        <v>41381</v>
       </c>
       <c r="G13" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Julieann@cs2102.com','19','2013-01-12','2013-03-20','2013-01-13');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Julieann@cs2102.com','81','2013-01-12','2013-07-18','2013-04-17');</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -9912,23 +9912,23 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41292</v>
+        <v>41332</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41383</v>
+        <v>41509</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41372</v>
+        <v>41448</v>
       </c>
       <c r="G14" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Florencio@cs2102.com','5','2013-01-18','2013-04-19','2013-04-08');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Florencio@cs2102.com','78','2013-02-27','2013-08-23','2013-06-23');</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -9941,23 +9941,23 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41333</v>
+        <v>41278</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41428</v>
+        <v>41438</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41386</v>
+        <v>41385</v>
       </c>
       <c r="G15" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lilia@cs2102.com','75','2013-02-28','2013-06-03','2013-04-22');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lilia@cs2102.com','14','2013-01-04','2013-06-13','2013-04-21');</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -9970,23 +9970,23 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41293</v>
+        <v>41331</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41482</v>
+        <v>41442</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41353</v>
+        <v>41431</v>
       </c>
       <c r="G16" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Erik@cs2102.com','41','2013-01-19','2013-07-27','2013-03-20');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Erik@cs2102.com','20','2013-02-26','2013-06-17','2013-06-06');</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -9999,23 +9999,23 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41288</v>
+        <v>41306</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41416</v>
+        <v>41467</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41330</v>
+        <v>41329</v>
       </c>
       <c r="G17" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Han@cs2102.com','21','2013-01-14','2013-05-22','2013-02-25');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Han@cs2102.com','19','2013-02-01','2013-07-12','2013-02-24');</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -10028,23 +10028,23 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41305</v>
+        <v>41316</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41533</v>
+        <v>41524</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41399</v>
+        <v>41351</v>
       </c>
       <c r="G18" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Rosalie@cs2102.com','1','2013-01-31','2013-09-16','2013-05-05');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Rosalie@cs2102.com','57','2013-02-11','2013-09-07','2013-03-18');</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -10057,23 +10057,23 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41296</v>
+        <v>41318</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41497</v>
+        <v>41498</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41419</v>
+        <v>41443</v>
       </c>
       <c r="G19" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lili@cs2102.com','100','2013-01-22','2013-08-11','2013-05-25');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lili@cs2102.com','49','2013-02-13','2013-08-12','2013-06-18');</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -10086,23 +10086,23 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41287</v>
+        <v>41319</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41495</v>
+        <v>41382</v>
       </c>
       <c r="F20" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41326</v>
+        <v>41365</v>
       </c>
       <c r="G20" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Arletha@cs2102.com','46','2013-01-13','2013-08-09','2013-02-21');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Arletha@cs2102.com','70','2013-02-14','2013-04-18','2013-04-01');</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10115,23 +10115,23 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41325</v>
+        <v>41286</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41466</v>
+        <v>41487</v>
       </c>
       <c r="F21" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41331</v>
+        <v>41393</v>
       </c>
       <c r="G21" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Esperanza@cs2102.com','94','2013-02-20','2013-07-11','2013-02-26');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Esperanza@cs2102.com','80','2013-01-12','2013-08-01','2013-04-29');</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10144,23 +10144,23 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41288</v>
+        <v>41308</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41478</v>
+        <v>41364</v>
       </c>
       <c r="F22" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41380</v>
+        <v>41326</v>
       </c>
       <c r="G22" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Magdalena@cs2102.com','65','2013-01-14','2013-07-23','2013-04-16');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Magdalena@cs2102.com','77','2013-02-03','2013-03-31','2013-02-21');</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -10173,23 +10173,23 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41319</v>
+        <v>41299</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41413</v>
+        <v>41452</v>
       </c>
       <c r="F23" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41403</v>
+        <v>41352</v>
       </c>
       <c r="G23" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Shizue@cs2102.com','74','2013-02-14','2013-05-19','2013-05-09');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Shizue@cs2102.com','29','2013-01-25','2013-06-27','2013-03-19');</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -10202,23 +10202,23 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41316</v>
+        <v>41278</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41442</v>
+        <v>41433</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41401</v>
+        <v>41422</v>
       </c>
       <c r="G24" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Keisha@cs2102.com','18','2013-02-11','2013-06-17','2013-05-07');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Keisha@cs2102.com','72','2013-01-04','2013-06-08','2013-05-28');</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10231,23 +10231,23 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41328</v>
+        <v>41321</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41466</v>
+        <v>41354</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41330</v>
+        <v>41337</v>
       </c>
       <c r="G25" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Eufemia@cs2102.com','67','2013-02-23','2013-07-11','2013-02-25');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Eufemia@cs2102.com','66','2013-02-16','2013-03-21','2013-03-04');</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -10260,23 +10260,23 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41330</v>
+        <v>41319</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41373</v>
+        <v>41505</v>
       </c>
       <c r="F26" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41351</v>
+        <v>41422</v>
       </c>
       <c r="G26" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jan@cs2102.com','88','2013-02-25','2013-04-09','2013-03-18');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jan@cs2102.com','21','2013-02-14','2013-08-19','2013-05-28');</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -10289,23 +10289,23 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41301</v>
+        <v>41291</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41474</v>
+        <v>41372</v>
       </c>
       <c r="F27" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41441</v>
+        <v>41364</v>
       </c>
       <c r="G27" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Maud@cs2102.com','63','2013-01-27','2013-07-19','2013-06-16');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Maud@cs2102.com','19','2013-01-17','2013-04-08','2013-03-31');</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10318,23 +10318,23 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41328</v>
+        <v>41320</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41388</v>
+        <v>41401</v>
       </c>
       <c r="F28" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="G28" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jefferson@cs2102.com','40','2013-02-23','2013-04-24','2013-04-16');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jefferson@cs2102.com','70','2013-02-15','2013-05-07','2013-04-23');</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -10347,23 +10347,23 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41295</v>
+        <v>41328</v>
       </c>
       <c r="E29" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41512</v>
+        <v>41481</v>
       </c>
       <c r="F29" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41478</v>
+        <v>41474</v>
       </c>
       <c r="G29" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kenia@cs2102.com','79','2013-01-21','2013-08-26','2013-07-23');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kenia@cs2102.com','44','2013-02-23','2013-07-26','2013-07-19');</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -10376,23 +10376,23 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41296</v>
+        <v>41302</v>
       </c>
       <c r="E30" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41372</v>
+        <v>41425</v>
       </c>
       <c r="F30" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41300</v>
+        <v>41341</v>
       </c>
       <c r="G30" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cyrus@cs2102.com','21','2013-01-22','2013-04-08','2013-01-26');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cyrus@cs2102.com','57','2013-01-28','2013-05-31','2013-03-08');</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10405,23 +10405,23 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D31" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41296</v>
+        <v>41279</v>
       </c>
       <c r="E31" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41433</v>
+        <v>41373</v>
       </c>
       <c r="F31" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41362</v>
+        <v>41332</v>
       </c>
       <c r="G31" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Carmela@cs2102.com','68','2013-01-22','2013-06-08','2013-03-29');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Carmela@cs2102.com','54','2013-01-05','2013-04-09','2013-02-27');</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -10434,23 +10434,23 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41275</v>
+        <v>41277</v>
       </c>
       <c r="E32" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41441</v>
+        <v>41461</v>
       </c>
       <c r="F32" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41410</v>
+        <v>41328</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lloyd@cs2102.com','14','2013-01-01','2013-06-16','2013-05-16');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lloyd@cs2102.com','97','2013-01-03','2013-07-06','2013-02-23');</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10463,23 +10463,23 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41315</v>
+        <v>41319</v>
       </c>
       <c r="E33" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41457</v>
+        <v>41406</v>
       </c>
       <c r="F33" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41323</v>
+        <v>41330</v>
       </c>
       <c r="G33" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Pamelia@cs2102.com','89','2013-02-10','2013-07-02','2013-02-18');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Pamelia@cs2102.com','58','2013-02-14','2013-05-12','2013-02-25');</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -10492,23 +10492,23 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D34" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41289</v>
+        <v>41321</v>
       </c>
       <c r="E34" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41373</v>
+        <v>41370</v>
       </c>
       <c r="F34" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41338</v>
+        <v>41348</v>
       </c>
       <c r="G34" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Aleida@cs2102.com','76','2013-01-15','2013-04-09','2013-03-05');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Aleida@cs2102.com','51','2013-02-16','2013-04-06','2013-03-15');</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10521,23 +10521,23 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D35" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41317</v>
+        <v>41297</v>
       </c>
       <c r="E35" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41362</v>
+        <v>41471</v>
       </c>
       <c r="F35" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41320</v>
+        <v>41334</v>
       </c>
       <c r="G35" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Susanna@cs2102.com','19','2013-02-12','2013-03-29','2013-02-15');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Susanna@cs2102.com','21','2013-01-23','2013-07-16','2013-03-01');</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -10550,23 +10550,23 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41324</v>
+        <v>41295</v>
       </c>
       <c r="E36" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41513</v>
+        <v>41492</v>
       </c>
       <c r="F36" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41480</v>
+        <v>41426</v>
       </c>
       <c r="G36" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kate@cs2102.com','52','2013-02-19','2013-08-27','2013-07-25');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kate@cs2102.com','16','2013-01-21','2013-08-06','2013-06-01');</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -10579,23 +10579,23 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D37" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41324</v>
+        <v>41275</v>
       </c>
       <c r="E37" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41475</v>
+        <v>41438</v>
       </c>
       <c r="F37" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41374</v>
+        <v>41292</v>
       </c>
       <c r="G37" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Shanita@cs2102.com','72','2013-02-19','2013-07-20','2013-04-10');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Shanita@cs2102.com','54','2013-01-01','2013-06-13','2013-01-18');</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -10608,23 +10608,23 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D38" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41288</v>
+        <v>41314</v>
       </c>
       <c r="E38" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41372</v>
+        <v>41475</v>
       </c>
       <c r="F38" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41355</v>
+        <v>41400</v>
       </c>
       <c r="G38" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Liliana@cs2102.com','52','2013-01-14','2013-04-08','2013-03-22');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Liliana@cs2102.com','72','2013-02-09','2013-07-20','2013-05-06');</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -10637,23 +10637,23 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D39" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41304</v>
+        <v>41329</v>
       </c>
       <c r="E39" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41498</v>
+        <v>41447</v>
       </c>
       <c r="F39" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41307</v>
+        <v>41418</v>
       </c>
       <c r="G39" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Fermin@cs2102.com','67','2013-01-30','2013-08-12','2013-02-02');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Fermin@cs2102.com','12','2013-02-24','2013-06-22','2013-05-24');</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -10666,23 +10666,23 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41291</v>
+        <v>41334</v>
       </c>
       <c r="E40" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41495</v>
+        <v>41378</v>
       </c>
       <c r="F40" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41423</v>
+        <v>41346</v>
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Reda@cs2102.com','18','2013-01-17','2013-08-09','2013-05-29');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Reda@cs2102.com','1','2013-03-01','2013-04-14','2013-03-13');</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -10695,23 +10695,23 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D41" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41303</v>
+        <v>41307</v>
       </c>
       <c r="E41" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41430</v>
+        <v>41496</v>
       </c>
       <c r="F41" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41384</v>
+        <v>41443</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Hildred@cs2102.com','67','2013-01-29','2013-06-05','2013-04-20');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Hildred@cs2102.com','68','2013-02-02','2013-08-10','2013-06-18');</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -10724,23 +10724,23 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41304</v>
+        <v>41307</v>
       </c>
       <c r="E42" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41519</v>
+        <v>41467</v>
       </c>
       <c r="F42" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41471</v>
+        <v>41371</v>
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kallie@cs2102.com','81','2013-01-30','2013-09-02','2013-07-16');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Kallie@cs2102.com','72','2013-02-02','2013-07-12','2013-04-07');</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10753,23 +10753,23 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D43" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41304</v>
+        <v>41292</v>
       </c>
       <c r="E43" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41514</v>
+        <v>41369</v>
       </c>
       <c r="F43" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41466</v>
+        <v>41368</v>
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Dominga@cs2102.com','41','2013-01-30','2013-08-28','2013-07-11');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Dominga@cs2102.com','59','2013-01-18','2013-04-05','2013-04-04');</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" ca="1" si="1"/>
@@ -10790,15 +10790,15 @@
       </c>
       <c r="E44" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41435</v>
+        <v>41371</v>
       </c>
       <c r="F44" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41364</v>
+        <v>41341</v>
       </c>
       <c r="G44" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Dwayne@cs2102.com','25','2013-02-07','2013-06-10','2013-03-31');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Dwayne@cs2102.com','99','2013-02-07','2013-04-07','2013-03-08');</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -10811,23 +10811,23 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D45" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41301</v>
+        <v>41321</v>
       </c>
       <c r="E45" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41529</v>
+        <v>41403</v>
       </c>
       <c r="F45" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41406</v>
+        <v>41354</v>
       </c>
       <c r="G45" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Rona@cs2102.com','53','2013-01-27','2013-09-12','2013-05-12');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Rona@cs2102.com','82','2013-02-16','2013-05-09','2013-03-21');</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -10840,23 +10840,23 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D46" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41289</v>
+        <v>41326</v>
       </c>
       <c r="E46" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41390</v>
+        <v>41397</v>
       </c>
       <c r="F46" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41356</v>
+        <v>41342</v>
       </c>
       <c r="G46" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Roger@cs2102.com','53','2013-01-15','2013-04-26','2013-03-23');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Roger@cs2102.com','55','2013-02-21','2013-05-03','2013-03-09');</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10869,23 +10869,23 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D47" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41310</v>
+        <v>41293</v>
       </c>
       <c r="E47" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41364</v>
+        <v>41419</v>
       </c>
       <c r="F47" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41343</v>
+        <v>41408</v>
       </c>
       <c r="G47" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Abraham@cs2102.com','29','2013-02-05','2013-03-31','2013-03-10');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Abraham@cs2102.com','13','2013-01-19','2013-05-25','2013-05-14');</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -10898,23 +10898,23 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D48" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41293</v>
+        <v>41332</v>
       </c>
       <c r="E48" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41443</v>
+        <v>41404</v>
       </c>
       <c r="F48" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41360</v>
+        <v>41349</v>
       </c>
       <c r="G48" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Creola@cs2102.com','1','2013-01-19','2013-06-18','2013-03-27');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Creola@cs2102.com','82','2013-02-27','2013-05-10','2013-03-16');</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -10927,23 +10927,23 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="D49" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41312</v>
+        <v>41306</v>
       </c>
       <c r="E49" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41412</v>
+        <v>41496</v>
       </c>
       <c r="F49" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41406</v>
+        <v>41377</v>
       </c>
       <c r="G49" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Toi@cs2102.com','95','2013-02-07','2013-05-18','2013-05-12');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Toi@cs2102.com','4','2013-02-01','2013-08-10','2013-04-13');</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10956,23 +10956,23 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D50" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41311</v>
+        <v>41284</v>
       </c>
       <c r="E50" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41355</v>
+        <v>41510</v>
       </c>
       <c r="F50" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41316</v>
+        <v>41391</v>
       </c>
       <c r="G50" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Nichelle@cs2102.com','69','2013-02-06','2013-03-22','2013-02-11');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Nichelle@cs2102.com','77','2013-01-10','2013-08-24','2013-04-27');</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -10985,15 +10985,15 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41308</v>
+        <v>41305</v>
       </c>
       <c r="E51" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41375</v>
+        <v>41409</v>
       </c>
       <c r="F51" s="9">
         <f t="shared" ca="1" si="3"/>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="G51" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Elvina@cs2102.com','24','2013-02-03','2013-04-11','2013-03-12');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Elvina@cs2102.com','23','2013-01-31','2013-05-15','2013-03-12');</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11014,23 +11014,23 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41291</v>
+        <v>41308</v>
       </c>
       <c r="E52" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41384</v>
+        <v>41420</v>
       </c>
       <c r="F52" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41326</v>
+        <v>41352</v>
       </c>
       <c r="G52" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Mitsuko@cs2102.com','53','2013-01-17','2013-04-20','2013-02-21');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Mitsuko@cs2102.com','71','2013-02-03','2013-05-26','2013-03-19');</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -11043,23 +11043,23 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="D53" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41303</v>
+        <v>41320</v>
       </c>
       <c r="E53" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41529</v>
+        <v>41402</v>
       </c>
       <c r="F53" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41377</v>
+        <v>41351</v>
       </c>
       <c r="G53" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Helaine@cs2102.com','79','2013-01-29','2013-09-12','2013-04-13');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Helaine@cs2102.com','42','2013-02-15','2013-05-08','2013-03-18');</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11072,23 +11072,23 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D54" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41310</v>
+        <v>41281</v>
       </c>
       <c r="E54" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41443</v>
+        <v>41535</v>
       </c>
       <c r="F54" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41369</v>
+        <v>41284</v>
       </c>
       <c r="G54" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Fredericka@cs2102.com','40','2013-02-05','2013-06-18','2013-04-05');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Fredericka@cs2102.com','86','2013-01-07','2013-09-18','2013-01-10');</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -11101,7 +11101,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="D55" s="9">
         <f t="shared" ca="1" si="1"/>
@@ -11109,15 +11109,15 @@
       </c>
       <c r="E55" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41387</v>
+        <v>41525</v>
       </c>
       <c r="F55" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41358</v>
+        <v>41406</v>
       </c>
       <c r="G55" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Deb@cs2102.com','74','2013-02-19','2013-04-23','2013-03-25');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Deb@cs2102.com','10','2013-02-19','2013-09-08','2013-05-12');</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -11130,23 +11130,23 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41275</v>
+        <v>41280</v>
       </c>
       <c r="E56" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41478</v>
+        <v>41448</v>
       </c>
       <c r="F56" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41458</v>
+        <v>41408</v>
       </c>
       <c r="G56" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Raven@cs2102.com','17','2013-01-01','2013-07-23','2013-07-03');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Raven@cs2102.com','86','2013-01-06','2013-06-23','2013-05-14');</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11159,23 +11159,23 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41309</v>
+        <v>41298</v>
       </c>
       <c r="E57" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41379</v>
+        <v>41422</v>
       </c>
       <c r="F57" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41356</v>
+        <v>41341</v>
       </c>
       <c r="G57" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Epifania@cs2102.com','85','2013-02-04','2013-04-15','2013-03-23');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Epifania@cs2102.com','82','2013-01-24','2013-05-28','2013-03-08');</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -11188,23 +11188,23 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41278</v>
+        <v>41308</v>
       </c>
       <c r="E58" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41382</v>
+        <v>41395</v>
       </c>
       <c r="F58" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41346</v>
+        <v>41322</v>
       </c>
       <c r="G58" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Wava@cs2102.com','100','2013-01-04','2013-04-18','2013-03-13');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Wava@cs2102.com','12','2013-02-03','2013-05-01','2013-02-17');</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -11217,23 +11217,23 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="D59" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41298</v>
+        <v>41324</v>
       </c>
       <c r="E59" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41471</v>
+        <v>41474</v>
       </c>
       <c r="F59" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41301</v>
+        <v>41432</v>
       </c>
       <c r="G59" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jenifer@cs2102.com','96','2013-01-24','2013-07-16','2013-01-27');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jenifer@cs2102.com','36','2013-02-19','2013-07-19','2013-06-07');</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -11246,23 +11246,23 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41315</v>
+        <v>41290</v>
       </c>
       <c r="E60" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41541</v>
+        <v>41536</v>
       </c>
       <c r="F60" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41443</v>
+        <v>41340</v>
       </c>
       <c r="G60" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Imelda@cs2102.com','76','2013-02-10','2013-09-24','2013-06-18');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Imelda@cs2102.com','80','2013-01-16','2013-09-19','2013-03-07');</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -11275,23 +11275,23 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D61" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41324</v>
+        <v>41291</v>
       </c>
       <c r="E61" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41454</v>
+        <v>41392</v>
       </c>
       <c r="F61" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41368</v>
+        <v>41319</v>
       </c>
       <c r="G61" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cherish@cs2102.com','59','2013-02-19','2013-06-29','2013-04-04');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cherish@cs2102.com','46','2013-01-17','2013-04-28','2013-02-14');</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -11304,23 +11304,23 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="D62" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41314</v>
+        <v>41328</v>
       </c>
       <c r="E62" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41450</v>
+        <v>41380</v>
       </c>
       <c r="F62" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41381</v>
+        <v>41368</v>
       </c>
       <c r="G62" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Marcel@cs2102.com','78','2013-02-09','2013-06-25','2013-04-17');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Marcel@cs2102.com','49','2013-02-23','2013-04-16','2013-04-04');</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11333,23 +11333,23 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D63" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41293</v>
+        <v>41284</v>
       </c>
       <c r="E63" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41462</v>
+        <v>41356</v>
       </c>
       <c r="F63" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41307</v>
+        <v>41297</v>
       </c>
       <c r="G63" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Alethea@cs2102.com','10','2013-01-19','2013-07-07','2013-02-02');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Alethea@cs2102.com','55','2013-01-10','2013-03-23','2013-01-23');</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -11362,23 +11362,23 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D64" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41325</v>
+        <v>41329</v>
       </c>
       <c r="E64" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41539</v>
+        <v>41360</v>
       </c>
       <c r="F64" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41359</v>
+        <v>41349</v>
       </c>
       <c r="G64" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Felica@cs2102.com','40','2013-02-20','2013-09-22','2013-03-26');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Felica@cs2102.com','63','2013-02-24','2013-03-27','2013-03-16');</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -11391,23 +11391,23 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D65" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41284</v>
+        <v>41289</v>
       </c>
       <c r="E65" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41541</v>
+        <v>41468</v>
       </c>
       <c r="F65" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41432</v>
+        <v>41428</v>
       </c>
       <c r="G65" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Reatha@cs2102.com','8','2013-01-10','2013-09-24','2013-06-07');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Reatha@cs2102.com','41','2013-01-15','2013-07-13','2013-06-03');</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -11420,23 +11420,23 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>41281</v>
+        <v>41334</v>
       </c>
       <c r="E66" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>41358</v>
+        <v>41528</v>
       </c>
       <c r="F66" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>41332</v>
+        <v>41429</v>
       </c>
       <c r="G66" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Velia@cs2102.com','98','2013-01-07','2013-03-25','2013-02-27');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Velia@cs2102.com','14','2013-03-01','2013-09-11','2013-06-04');</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -11449,23 +11449,23 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C100" ca="1" si="5">RANDBETWEEN(1,100)</f>
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D67" s="9">
         <f t="shared" ref="D67:D100" ca="1" si="6">RANDBETWEEN(DATE(2013, 1, 1),DATE(2013, 3, 1))</f>
-        <v>41323</v>
+        <v>41306</v>
       </c>
       <c r="E67" s="9">
         <f t="shared" ref="E67:E100" ca="1" si="7">RANDBETWEEN(DATE(2013, 3, 20),DATE(2013, 9, 30))</f>
-        <v>41485</v>
+        <v>41502</v>
       </c>
       <c r="F67" s="9">
         <f t="shared" ref="F67:F100" ca="1" si="8">RANDBETWEEN(DATE(YEAR(D67),MONTH(D67),DAY(D67)), DATE(YEAR(E67),MONTH(E67),DAY(E67)))</f>
-        <v>41323</v>
+        <v>41501</v>
       </c>
       <c r="G67" s="9" t="str">
         <f t="shared" ref="G67:G100" ca="1" si="9">CONCATENATE("INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('",B67,"','",C67,"','",TEXT(D67,"yyyy-mm-dd"),"','",TEXT(E67,"yyyy-mm-dd"),"','",TEXT(F67,"yyyy-mm-dd"),"');")</f>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Crista@cs2102.com','100','2013-02-18','2013-07-30','2013-02-18');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Crista@cs2102.com','18','2013-02-01','2013-08-16','2013-08-15');</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -11478,23 +11478,23 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41277</v>
+        <v>41298</v>
       </c>
       <c r="E68" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41480</v>
+        <v>41362</v>
       </c>
       <c r="F68" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41478</v>
+        <v>41328</v>
       </c>
       <c r="G68" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Keesha@cs2102.com','87','2013-01-03','2013-07-25','2013-07-23');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Keesha@cs2102.com','64','2013-01-24','2013-03-29','2013-02-23');</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11507,23 +11507,23 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D69" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41313</v>
+        <v>41301</v>
       </c>
       <c r="E69" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41533</v>
+        <v>41383</v>
       </c>
       <c r="F69" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41329</v>
+        <v>41383</v>
       </c>
       <c r="G69" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Pandora@cs2102.com','90','2013-02-08','2013-09-16','2013-02-24');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Pandora@cs2102.com','48','2013-01-27','2013-04-19','2013-04-19');</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -11536,23 +11536,23 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D70" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41294</v>
+        <v>41326</v>
       </c>
       <c r="E70" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41539</v>
+        <v>41353</v>
       </c>
       <c r="F70" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41355</v>
+        <v>41352</v>
       </c>
       <c r="G70" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Raguel@cs2102.com','28','2013-01-20','2013-09-22','2013-03-22');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Raguel@cs2102.com','12','2013-02-21','2013-03-20','2013-03-19');</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11565,23 +11565,23 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D71" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41280</v>
+        <v>41292</v>
       </c>
       <c r="E71" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41353</v>
+        <v>41359</v>
       </c>
       <c r="F71" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41295</v>
+        <v>41303</v>
       </c>
       <c r="G71" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Deedee@cs2102.com','20','2013-01-06','2013-03-20','2013-01-21');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Deedee@cs2102.com','58','2013-01-18','2013-03-26','2013-01-29');</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -11594,23 +11594,23 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41313</v>
+        <v>41310</v>
       </c>
       <c r="E72" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41499</v>
+        <v>41361</v>
       </c>
       <c r="F72" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41422</v>
+        <v>41335</v>
       </c>
       <c r="G72" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Juanita@cs2102.com','36','2013-02-08','2013-08-13','2013-05-28');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Juanita@cs2102.com','40','2013-02-05','2013-03-28','2013-03-02');</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -11623,23 +11623,23 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D73" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41280</v>
+        <v>41296</v>
       </c>
       <c r="E73" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41417</v>
+        <v>41425</v>
       </c>
       <c r="F73" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41409</v>
+        <v>41385</v>
       </c>
       <c r="G73" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Stanley@cs2102.com','72','2013-01-06','2013-05-23','2013-05-15');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Stanley@cs2102.com','9','2013-01-22','2013-05-31','2013-04-21');</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11652,23 +11652,23 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D74" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41309</v>
+        <v>41314</v>
       </c>
       <c r="E74" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41401</v>
+        <v>41357</v>
       </c>
       <c r="F74" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41360</v>
+        <v>41324</v>
       </c>
       <c r="G74" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Gregory@cs2102.com','16','2013-02-04','2013-05-07','2013-03-27');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Gregory@cs2102.com','32','2013-02-09','2013-03-24','2013-02-19');</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -11681,7 +11681,7 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D75" s="9">
         <f t="shared" ca="1" si="6"/>
@@ -11689,15 +11689,15 @@
       </c>
       <c r="E75" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41459</v>
+        <v>41483</v>
       </c>
       <c r="F75" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41416</v>
+        <v>41345</v>
       </c>
       <c r="G75" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jacklyn@cs2102.com','51','2013-01-29','2013-07-04','2013-05-22');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Jacklyn@cs2102.com','50','2013-01-29','2013-07-28','2013-03-12');</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -11710,23 +11710,23 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D76" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41297</v>
+        <v>41302</v>
       </c>
       <c r="E76" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41358</v>
+        <v>41533</v>
       </c>
       <c r="F76" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41316</v>
+        <v>41500</v>
       </c>
       <c r="G76" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Madlyn@cs2102.com','26','2013-01-23','2013-03-25','2013-02-11');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Madlyn@cs2102.com','38','2013-01-28','2013-09-16','2013-08-14');</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11739,23 +11739,23 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D77" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41314</v>
+        <v>41306</v>
       </c>
       <c r="E77" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41358</v>
+        <v>41483</v>
       </c>
       <c r="F77" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41316</v>
+        <v>41430</v>
       </c>
       <c r="G77" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Rudolph@cs2102.com','42','2013-02-09','2013-03-25','2013-02-11');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Rudolph@cs2102.com','32','2013-02-01','2013-07-28','2013-06-05');</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11768,23 +11768,23 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="D78" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41326</v>
+        <v>41287</v>
       </c>
       <c r="E78" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41415</v>
+        <v>41479</v>
       </c>
       <c r="F78" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41352</v>
+        <v>41468</v>
       </c>
       <c r="G78" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Marybeth@cs2102.com','38','2013-02-21','2013-05-21','2013-03-19');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Marybeth@cs2102.com','85','2013-01-13','2013-07-24','2013-07-13');</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -11797,23 +11797,23 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D79" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41323</v>
+        <v>41284</v>
       </c>
       <c r="E79" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41447</v>
+        <v>41441</v>
       </c>
       <c r="F79" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41410</v>
+        <v>41401</v>
       </c>
       <c r="G79" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lupe@cs2102.com','71','2013-02-18','2013-06-22','2013-05-16');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lupe@cs2102.com','33','2013-01-10','2013-06-16','2013-05-07');</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11826,23 +11826,23 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41290</v>
+        <v>41284</v>
       </c>
       <c r="E80" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41527</v>
+        <v>41451</v>
       </c>
       <c r="F80" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41479</v>
+        <v>41314</v>
       </c>
       <c r="G80" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Adriene@cs2102.com','71','2013-01-16','2013-09-10','2013-07-24');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Adriene@cs2102.com','87','2013-01-10','2013-06-26','2013-02-09');</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11855,23 +11855,23 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41307</v>
+        <v>41316</v>
       </c>
       <c r="E81" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41418</v>
+        <v>41471</v>
       </c>
       <c r="F81" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41354</v>
+        <v>41401</v>
       </c>
       <c r="G81" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Epifania@cs2102.com','77','2013-02-02','2013-05-24','2013-03-21');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Epifania@cs2102.com','49','2013-02-11','2013-07-16','2013-05-07');</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -11884,23 +11884,23 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41275</v>
+        <v>41296</v>
       </c>
       <c r="E82" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41393</v>
+        <v>41370</v>
       </c>
       <c r="F82" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41327</v>
+        <v>41333</v>
       </c>
       <c r="G82" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Mee@cs2102.com','79','2013-01-01','2013-04-29','2013-02-22');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Mee@cs2102.com','26','2013-01-22','2013-04-06','2013-02-28');</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -11913,23 +11913,23 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D83" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41301</v>
+        <v>41300</v>
       </c>
       <c r="E83" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41451</v>
+        <v>41386</v>
       </c>
       <c r="F83" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41417</v>
+        <v>41345</v>
       </c>
       <c r="G83" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Dorene@cs2102.com','38','2013-01-27','2013-06-26','2013-05-23');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Dorene@cs2102.com','22','2013-01-26','2013-04-22','2013-03-12');</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -11942,23 +11942,23 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D84" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41325</v>
+        <v>41311</v>
       </c>
       <c r="E84" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41521</v>
+        <v>41412</v>
       </c>
       <c r="F84" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41482</v>
+        <v>41394</v>
       </c>
       <c r="G84" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cecilia@cs2102.com','8','2013-02-20','2013-09-04','2013-07-27');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Cecilia@cs2102.com','25','2013-02-06','2013-05-18','2013-04-30');</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -11971,23 +11971,23 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D85" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41331</v>
+        <v>41301</v>
       </c>
       <c r="E85" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41473</v>
+        <v>41421</v>
       </c>
       <c r="F85" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41446</v>
+        <v>41421</v>
       </c>
       <c r="G85" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Queen@cs2102.com','69','2013-02-26','2013-07-18','2013-06-21');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Queen@cs2102.com','10','2013-01-27','2013-05-27','2013-05-27');</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -12000,23 +12000,23 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41290</v>
+        <v>41319</v>
       </c>
       <c r="E86" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41507</v>
+        <v>41484</v>
       </c>
       <c r="F86" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41372</v>
+        <v>41412</v>
       </c>
       <c r="G86" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Magali@cs2102.com','3','2013-01-16','2013-08-21','2013-04-08');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Magali@cs2102.com','4','2013-02-14','2013-07-29','2013-05-18');</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -12029,23 +12029,23 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D87" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="E87" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41421</v>
+        <v>41389</v>
       </c>
       <c r="F87" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41407</v>
+        <v>41387</v>
       </c>
       <c r="G87" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Felecia@cs2102.com','23','2013-02-12','2013-05-27','2013-05-13');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Felecia@cs2102.com','99','2013-02-19','2013-04-25','2013-04-23');</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -12058,23 +12058,23 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D88" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41285</v>
+        <v>41322</v>
       </c>
       <c r="E88" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41420</v>
+        <v>41431</v>
       </c>
       <c r="F88" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41321</v>
+        <v>41375</v>
       </c>
       <c r="G88" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lavera@cs2102.com','5','2013-01-11','2013-05-26','2013-02-16');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lavera@cs2102.com','40','2013-02-17','2013-06-06','2013-04-11');</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12087,23 +12087,23 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="D89" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41283</v>
+        <v>41324</v>
       </c>
       <c r="E89" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41418</v>
+        <v>41493</v>
       </c>
       <c r="F89" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41411</v>
+        <v>41462</v>
       </c>
       <c r="G89" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Guillermo@cs2102.com','95','2013-01-09','2013-05-24','2013-05-17');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Guillermo@cs2102.com','7','2013-02-19','2013-08-07','2013-07-07');</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12116,23 +12116,23 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D90" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41307</v>
+        <v>41334</v>
       </c>
       <c r="E90" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41383</v>
+        <v>41439</v>
       </c>
       <c r="F90" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41378</v>
+        <v>41397</v>
       </c>
       <c r="G90" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Summer@cs2102.com','57','2013-02-02','2013-04-19','2013-04-14');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Summer@cs2102.com','36','2013-03-01','2013-06-14','2013-05-03');</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12145,23 +12145,23 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D91" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41332</v>
+        <v>41276</v>
       </c>
       <c r="E91" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41452</v>
+        <v>41442</v>
       </c>
       <c r="F91" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41372</v>
+        <v>41430</v>
       </c>
       <c r="G91" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Meagan@cs2102.com','29','2013-02-27','2013-06-27','2013-04-08');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Meagan@cs2102.com','30','2013-01-02','2013-06-17','2013-06-05');</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -12174,23 +12174,23 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D92" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41282</v>
+        <v>41283</v>
       </c>
       <c r="E92" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41540</v>
+        <v>41506</v>
       </c>
       <c r="F92" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41459</v>
+        <v>41502</v>
       </c>
       <c r="G92" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Ronald@cs2102.com','5','2013-01-08','2013-09-23','2013-07-04');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Ronald@cs2102.com','50','2013-01-09','2013-08-20','2013-08-16');</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -12203,23 +12203,23 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D93" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41296</v>
+        <v>41300</v>
       </c>
       <c r="E93" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41356</v>
+        <v>41510</v>
       </c>
       <c r="F93" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41298</v>
+        <v>41434</v>
       </c>
       <c r="G93" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Ricarda@cs2102.com','88','2013-01-22','2013-03-23','2013-01-24');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Ricarda@cs2102.com','43','2013-01-26','2013-08-24','2013-06-09');</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -12232,23 +12232,23 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D94" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41306</v>
+        <v>41282</v>
       </c>
       <c r="E94" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41488</v>
+        <v>41399</v>
       </c>
       <c r="F94" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41372</v>
+        <v>41333</v>
       </c>
       <c r="G94" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Agustin@cs2102.com','62','2013-02-01','2013-08-02','2013-04-08');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Agustin@cs2102.com','57','2013-01-08','2013-05-05','2013-02-28');</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -12261,23 +12261,23 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D95" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41290</v>
+        <v>41312</v>
       </c>
       <c r="E95" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41534</v>
+        <v>41473</v>
       </c>
       <c r="F95" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41301</v>
+        <v>41315</v>
       </c>
       <c r="G95" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lanie@cs2102.com','20','2013-01-16','2013-09-17','2013-01-27');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Lanie@cs2102.com','11','2013-02-07','2013-07-18','2013-02-10');</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -12290,23 +12290,23 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D96" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41295</v>
+        <v>41293</v>
       </c>
       <c r="E96" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41360</v>
+        <v>41545</v>
       </c>
       <c r="F96" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41314</v>
+        <v>41439</v>
       </c>
       <c r="G96" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Gianna@cs2102.com','70','2013-01-21','2013-03-27','2013-02-09');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Gianna@cs2102.com','66','2013-01-19','2013-09-28','2013-06-14');</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -12319,23 +12319,23 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D97" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41332</v>
+        <v>41292</v>
       </c>
       <c r="E97" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41414</v>
+        <v>41359</v>
       </c>
       <c r="F97" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41354</v>
+        <v>41351</v>
       </c>
       <c r="G97" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Eunice@cs2102.com','13','2013-02-27','2013-05-20','2013-03-21');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Eunice@cs2102.com','39','2013-01-18','2013-03-26','2013-03-18');</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12348,23 +12348,23 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D98" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41284</v>
+        <v>41316</v>
       </c>
       <c r="E98" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41515</v>
+        <v>41485</v>
       </c>
       <c r="F98" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41396</v>
+        <v>41415</v>
       </c>
       <c r="G98" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Regenia@cs2102.com','42','2013-01-10','2013-08-29','2013-05-02');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Regenia@cs2102.com','14','2013-02-11','2013-07-30','2013-05-21');</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -12377,23 +12377,23 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D99" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41288</v>
+        <v>41284</v>
       </c>
       <c r="E99" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41365</v>
+        <v>41396</v>
       </c>
       <c r="F99" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41343</v>
+        <v>41356</v>
       </c>
       <c r="G99" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Olene@cs2102.com','42','2013-01-14','2013-04-01','2013-03-10');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('Olene@cs2102.com','61','2013-01-10','2013-05-02','2013-03-23');</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12406,23 +12406,23 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D100" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>41316</v>
+        <v>41332</v>
       </c>
       <c r="E100" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>41438</v>
+        <v>41472</v>
       </c>
       <c r="F100" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>41434</v>
+        <v>41348</v>
       </c>
       <c r="G100" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('America@cs2102.com','55','2013-02-11','2013-06-13','2013-06-09');</v>
+        <v>INSERT INTO Rent (customer,item,borrow_date,due_date,return_date) VALUES ('America@cs2102.com','92','2013-02-27','2013-07-17','2013-03-15');</v>
       </c>
     </row>
   </sheetData>
@@ -12563,7 +12563,7 @@
       </c>
       <c r="E1" s="4">
         <f ca="1">Rating!C10</f>
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12576,15 +12576,15 @@
       </c>
       <c r="C2" s="4">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E65" ca="1" si="0">CONCATENATE("INSERT INTO Likes (customer,item) VALUES (","'",B2,"'",",",C2,"",");")</f>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Charley@cs2102.com',32);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Charley@cs2102.com',50);</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12597,15 +12597,15 @@
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C66" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D66" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Aurore@cs2102.com',57);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Aurore@cs2102.com',25);</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12618,15 +12618,15 @@
       </c>
       <c r="C4" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Asha@cs2102.com',75);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Asha@cs2102.com',11);</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12639,7 +12639,7 @@
       </c>
       <c r="C5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -12647,7 +12647,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Kandi@cs2102.com',49);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Kandi@cs2102.com',42);</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12660,7 +12660,7 @@
       </c>
       <c r="C6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -12668,7 +12668,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Jeanett@cs2102.com',65);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Jeanett@cs2102.com',17);</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12681,15 +12681,15 @@
       </c>
       <c r="C7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Pam@cs2102.com',33);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Pam@cs2102.com',30);</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12702,15 +12702,15 @@
       </c>
       <c r="C8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Cristobal@cs2102.com',24);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Cristobal@cs2102.com',89);</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12723,15 +12723,15 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Kelly@cs2102.com',94);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Kelly@cs2102.com',25);</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -12744,15 +12744,15 @@
       </c>
       <c r="C10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Jacalyn@cs2102.com',91);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Jacalyn@cs2102.com',70);</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12765,15 +12765,15 @@
       </c>
       <c r="C11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Norene@cs2102.com',22);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Norene@cs2102.com',16);</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -12786,15 +12786,15 @@
       </c>
       <c r="C12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Benita@cs2102.com',45);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Benita@cs2102.com',24);</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12807,7 +12807,7 @@
       </c>
       <c r="C13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -12815,7 +12815,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Julieann@cs2102.com',50);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Julieann@cs2102.com',84);</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12828,15 +12828,15 @@
       </c>
       <c r="C14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Florencio@cs2102.com',64);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Florencio@cs2102.com',41);</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -12849,15 +12849,15 @@
       </c>
       <c r="C15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Lilia@cs2102.com',68);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Lilia@cs2102.com',70);</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -12870,7 +12870,7 @@
       </c>
       <c r="C16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -12878,7 +12878,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Erik@cs2102.com',84);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Erik@cs2102.com',50);</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -12891,15 +12891,15 @@
       </c>
       <c r="C17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Han@cs2102.com',23);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Han@cs2102.com',67);</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -12912,15 +12912,15 @@
       </c>
       <c r="C18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Rosalie@cs2102.com',66);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Rosalie@cs2102.com',10);</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -12933,7 +12933,7 @@
       </c>
       <c r="C19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -12941,7 +12941,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Lili@cs2102.com',47);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Lili@cs2102.com',50);</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -12954,15 +12954,15 @@
       </c>
       <c r="C20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Arletha@cs2102.com',51);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Arletha@cs2102.com',43);</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12975,15 +12975,15 @@
       </c>
       <c r="C21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Esperanza@cs2102.com',37);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Esperanza@cs2102.com',57);</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="C22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -13004,7 +13004,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Magdalena@cs2102.com',54);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Magdalena@cs2102.com',36);</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -13017,15 +13017,15 @@
       </c>
       <c r="C23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Shizue@cs2102.com',83);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Shizue@cs2102.com',92);</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -13038,15 +13038,15 @@
       </c>
       <c r="C24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Keisha@cs2102.com',8);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Keisha@cs2102.com',51);</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13059,15 +13059,15 @@
       </c>
       <c r="C25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Eufemia@cs2102.com',94);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Eufemia@cs2102.com',55);</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -13080,15 +13080,15 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Jan@cs2102.com',10);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Jan@cs2102.com',34);</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -13101,15 +13101,15 @@
       </c>
       <c r="C27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Maud@cs2102.com',20);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Maud@cs2102.com',9);</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13122,15 +13122,15 @@
       </c>
       <c r="C28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Jefferson@cs2102.com',45);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Jefferson@cs2102.com',21);</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -13143,15 +13143,15 @@
       </c>
       <c r="C29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Kenia@cs2102.com',57);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Kenia@cs2102.com',12);</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -13164,15 +13164,15 @@
       </c>
       <c r="C30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Cyrus@cs2102.com',85);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Cyrus@cs2102.com',88);</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13185,15 +13185,15 @@
       </c>
       <c r="C31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Carmela@cs2102.com',8);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Carmela@cs2102.com',74);</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -13206,15 +13206,15 @@
       </c>
       <c r="C32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Lloyd@cs2102.com',88);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Lloyd@cs2102.com',63);</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13227,15 +13227,15 @@
       </c>
       <c r="C33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Pamelia@cs2102.com',47);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Pamelia@cs2102.com',28);</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -13248,15 +13248,15 @@
       </c>
       <c r="C34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Aleida@cs2102.com',13);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Aleida@cs2102.com',54);</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13269,15 +13269,15 @@
       </c>
       <c r="C35" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Susanna@cs2102.com',58);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Susanna@cs2102.com',72);</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -13290,7 +13290,7 @@
       </c>
       <c r="C36" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Kate@cs2102.com',63);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Kate@cs2102.com',46);</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -13311,15 +13311,15 @@
       </c>
       <c r="C37" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Shanita@cs2102.com',29);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Shanita@cs2102.com',36);</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -13332,15 +13332,15 @@
       </c>
       <c r="C38" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Liliana@cs2102.com',9);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Liliana@cs2102.com',66);</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -13353,15 +13353,15 @@
       </c>
       <c r="C39" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Fermin@cs2102.com',39);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Fermin@cs2102.com',49);</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -13374,15 +13374,15 @@
       </c>
       <c r="C40" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Reda@cs2102.com',66);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Reda@cs2102.com',70);</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -13395,15 +13395,15 @@
       </c>
       <c r="C41" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Hildred@cs2102.com',50);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Hildred@cs2102.com',42);</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -13416,15 +13416,15 @@
       </c>
       <c r="C42" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Kallie@cs2102.com',87);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Kallie@cs2102.com',46);</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="C43" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Dominga@cs2102.com',10);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Dominga@cs2102.com',39);</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13458,15 +13458,15 @@
       </c>
       <c r="C44" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Dwayne@cs2102.com',52);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Dwayne@cs2102.com',53);</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -13479,7 +13479,7 @@
       </c>
       <c r="C45" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -13487,7 +13487,7 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Rona@cs2102.com',99);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Rona@cs2102.com',47);</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -13500,15 +13500,15 @@
       </c>
       <c r="C46" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D46" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Roger@cs2102.com',33);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Roger@cs2102.com',1);</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13521,15 +13521,15 @@
       </c>
       <c r="C47" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Abraham@cs2102.com',55);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Abraham@cs2102.com',33);</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -13542,15 +13542,15 @@
       </c>
       <c r="C48" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="D48" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Creola@cs2102.com',52);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Creola@cs2102.com',11);</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -13563,15 +13563,15 @@
       </c>
       <c r="C49" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D49" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Toi@cs2102.com',47);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Toi@cs2102.com',32);</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13584,15 +13584,15 @@
       </c>
       <c r="C50" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D50" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Nichelle@cs2102.com',75);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Nichelle@cs2102.com',60);</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -13605,15 +13605,15 @@
       </c>
       <c r="C51" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Elvina@cs2102.com',42);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Elvina@cs2102.com',53);</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13626,15 +13626,15 @@
       </c>
       <c r="C52" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="D52" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Mitsuko@cs2102.com',17);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Mitsuko@cs2102.com',99);</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -13647,15 +13647,15 @@
       </c>
       <c r="C53" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D53" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Helaine@cs2102.com',28);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Helaine@cs2102.com',21);</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13668,7 +13668,7 @@
       </c>
       <c r="C54" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D54" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -13676,7 +13676,7 @@
       </c>
       <c r="E54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Fredericka@cs2102.com',13);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Fredericka@cs2102.com',17);</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -13689,7 +13689,7 @@
       </c>
       <c r="C55" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="D55" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -13697,7 +13697,7 @@
       </c>
       <c r="E55" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Deb@cs2102.com',83);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Deb@cs2102.com',17);</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -13710,15 +13710,15 @@
       </c>
       <c r="C56" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D56" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Raven@cs2102.com',73);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Raven@cs2102.com',67);</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13731,15 +13731,15 @@
       </c>
       <c r="C57" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D57" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Epifania@cs2102.com',28);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Epifania@cs2102.com',66);</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -13752,15 +13752,15 @@
       </c>
       <c r="C58" s="4">
         <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-      <c r="D58" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
       <c r="E58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Wava@cs2102.com',4);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Wava@cs2102.com',97);</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -13773,15 +13773,15 @@
       </c>
       <c r="C59" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D59" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Jenifer@cs2102.com',18);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Jenifer@cs2102.com',29);</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -13794,15 +13794,15 @@
       </c>
       <c r="C60" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D60" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Imelda@cs2102.com',37);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Imelda@cs2102.com',79);</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -13815,7 +13815,7 @@
       </c>
       <c r="C61" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D61" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -13823,7 +13823,7 @@
       </c>
       <c r="E61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Cherish@cs2102.com',62);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Cherish@cs2102.com',67);</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -13836,15 +13836,15 @@
       </c>
       <c r="C62" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D62" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Marcel@cs2102.com',44);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Marcel@cs2102.com',50);</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13857,7 +13857,7 @@
       </c>
       <c r="C63" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D63" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -13865,7 +13865,7 @@
       </c>
       <c r="E63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Alethea@cs2102.com',84);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Alethea@cs2102.com',82);</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -13878,15 +13878,15 @@
       </c>
       <c r="C64" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D64" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Felica@cs2102.com',81);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Felica@cs2102.com',38);</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -13899,15 +13899,15 @@
       </c>
       <c r="C65" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D65" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Reatha@cs2102.com',49);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Reatha@cs2102.com',48);</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -13920,7 +13920,7 @@
       </c>
       <c r="C66" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D66" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -13928,7 +13928,7 @@
       </c>
       <c r="E66" t="str">
         <f t="shared" ref="E66:E84" ca="1" si="3">CONCATENATE("INSERT INTO Likes (customer,item) VALUES (","'",B66,"'",",",C66,"",");")</f>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Velia@cs2102.com',11);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Velia@cs2102.com',100);</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -13941,15 +13941,15 @@
       </c>
       <c r="C67" s="4">
         <f t="shared" ref="C67:C100" ca="1" si="4">RANDBETWEEN(1,100)</f>
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="D67" s="4">
         <f t="shared" ref="D67:D100" ca="1" si="5">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Crista@cs2102.com',39);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Crista@cs2102.com',91);</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -13962,15 +13962,15 @@
       </c>
       <c r="C68" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D68" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Keesha@cs2102.com',81);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Keesha@cs2102.com',71);</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13983,15 +13983,15 @@
       </c>
       <c r="C69" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D69" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Pandora@cs2102.com',24);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Pandora@cs2102.com',81);</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -14004,7 +14004,7 @@
       </c>
       <c r="C70" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D70" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -14012,7 +14012,7 @@
       </c>
       <c r="E70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Raguel@cs2102.com',23);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Raguel@cs2102.com',49);</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14025,15 +14025,15 @@
       </c>
       <c r="C71" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D71" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Deedee@cs2102.com',98);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Deedee@cs2102.com',79);</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -14046,7 +14046,7 @@
       </c>
       <c r="C72" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D72" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -14054,7 +14054,7 @@
       </c>
       <c r="E72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Juanita@cs2102.com',82);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Juanita@cs2102.com',37);</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -14067,15 +14067,15 @@
       </c>
       <c r="C73" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D73" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Stanley@cs2102.com',31);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Stanley@cs2102.com',38);</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14088,15 +14088,15 @@
       </c>
       <c r="C74" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D74" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Gregory@cs2102.com',44);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Gregory@cs2102.com',49);</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -14109,15 +14109,15 @@
       </c>
       <c r="C75" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D75" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Jacklyn@cs2102.com',64);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Jacklyn@cs2102.com',10);</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -14130,15 +14130,15 @@
       </c>
       <c r="C76" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D76" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Madlyn@cs2102.com',43);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Madlyn@cs2102.com',54);</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14151,15 +14151,15 @@
       </c>
       <c r="C77" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D77" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Rudolph@cs2102.com',41);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Rudolph@cs2102.com',17);</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14172,15 +14172,15 @@
       </c>
       <c r="C78" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D78" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Marybeth@cs2102.com',23);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Marybeth@cs2102.com',45);</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -14193,15 +14193,15 @@
       </c>
       <c r="C79" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D79" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Lupe@cs2102.com',71);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Lupe@cs2102.com',27);</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14214,15 +14214,15 @@
       </c>
       <c r="C80" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D80" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Adriene@cs2102.com',50);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Adriene@cs2102.com',79);</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14235,7 +14235,7 @@
       </c>
       <c r="C81" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="D81" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="E81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Epifania@cs2102.com',93);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Epifania@cs2102.com',25);</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -14256,15 +14256,15 @@
       </c>
       <c r="C82" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D82" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Mee@cs2102.com',26);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Mee@cs2102.com',4);</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -14277,15 +14277,15 @@
       </c>
       <c r="C83" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D83" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Dorene@cs2102.com',64);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Dorene@cs2102.com',32);</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -14298,15 +14298,15 @@
       </c>
       <c r="C84" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D84" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Cecilia@cs2102.com',70);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Cecilia@cs2102.com',38);</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -14319,15 +14319,15 @@
       </c>
       <c r="C85" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D85" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E85" t="str">
         <f ca="1">CONCATENATE("INSERT INTO Likes (customer,item) VALUES (","'",B85,"'",",",C85,"",");")</f>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Queen@cs2102.com',44);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Queen@cs2102.com',96);</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -14340,15 +14340,15 @@
       </c>
       <c r="C86" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D86" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" ref="E86:E100" ca="1" si="6">CONCATENATE("INSERT INTO Likes (customer,item) VALUES (","'",B86,"'",",",C86,"",");")</f>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Magali@cs2102.com',45);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Magali@cs2102.com',3);</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -14361,15 +14361,15 @@
       </c>
       <c r="C87" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D87" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Felecia@cs2102.com',21);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Felecia@cs2102.com',99);</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -14382,15 +14382,15 @@
       </c>
       <c r="C88" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D88" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Lavera@cs2102.com',68);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Lavera@cs2102.com',95);</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14403,15 +14403,15 @@
       </c>
       <c r="C89" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D89" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Guillermo@cs2102.com',74);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Guillermo@cs2102.com',78);</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14424,15 +14424,15 @@
       </c>
       <c r="C90" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D90" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Summer@cs2102.com',24);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Summer@cs2102.com',30);</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14445,15 +14445,15 @@
       </c>
       <c r="C91" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D91" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Meagan@cs2102.com',85);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Meagan@cs2102.com',65);</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -14466,15 +14466,15 @@
       </c>
       <c r="C92" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D92" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Ronald@cs2102.com',59);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Ronald@cs2102.com',4);</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -14487,15 +14487,15 @@
       </c>
       <c r="C93" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D93" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Ricarda@cs2102.com',82);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Ricarda@cs2102.com',14);</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -14508,15 +14508,15 @@
       </c>
       <c r="C94" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D94" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Agustin@cs2102.com',43);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Agustin@cs2102.com',76);</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -14529,7 +14529,7 @@
       </c>
       <c r="C95" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D95" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -14537,7 +14537,7 @@
       </c>
       <c r="E95" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Lanie@cs2102.com',48);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Lanie@cs2102.com',9);</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -14550,15 +14550,15 @@
       </c>
       <c r="C96" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D96" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Gianna@cs2102.com',2);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Gianna@cs2102.com',46);</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -14571,15 +14571,15 @@
       </c>
       <c r="C97" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D97" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Eunice@cs2102.com',39);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Eunice@cs2102.com',52);</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14592,15 +14592,15 @@
       </c>
       <c r="C98" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D98" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Regenia@cs2102.com',74);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Regenia@cs2102.com',42);</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -14613,15 +14613,15 @@
       </c>
       <c r="C99" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="D99" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('Olene@cs2102.com',93);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('Olene@cs2102.com',45);</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14634,15 +14634,15 @@
       </c>
       <c r="C100" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D100" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO Likes (customer,item) VALUES ('America@cs2102.com',62);</v>
+        <v>INSERT INTO Likes (customer,item) VALUES ('America@cs2102.com',17);</v>
       </c>
     </row>
   </sheetData>
